--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SWP391\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTU\Ky5\SWP391\Week 8\SWP391\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -167,9 +167,6 @@
     <t>Reset Password</t>
   </si>
   <si>
-    <t>User Profile</t>
-  </si>
-  <si>
     <t>My Orders</t>
   </si>
   <si>
@@ -658,7 +655,10 @@
     <t>This is a pop-up screen which allows the user to edit his/her profile information, including the account info &amp; the avatar image. Please note that s/he is not allowed to change the email and user name.</t>
   </si>
   <si>
-    <t>This is a screen which allows the user to view his/her profile information, including the account info &amp; the avatar image</t>
+    <t>Add Address User</t>
+  </si>
+  <si>
+    <t>This is a screen which allows displays the user's address screen, and allows adding more addresses</t>
   </si>
 </sst>
 </file>
@@ -1719,25 +1719,25 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="71.6640625" customWidth="1"/>
-    <col min="5" max="225" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="71.7109375" customWidth="1"/>
+    <col min="5" max="225" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <f>ROW()-3</f>
         <v>1</v>
@@ -1760,7 +1760,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <f t="shared" ref="A5:A10" si="0">ROW()-3</f>
         <v>2</v>
@@ -1769,7 +1769,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="12"/>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1778,7 +1778,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1787,7 +1787,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1796,7 +1796,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1805,7 +1805,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1828,52 +1828,52 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="113.88671875" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="229" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="113.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="229" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="D5" s="10" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>6</v>
       </c>
@@ -1896,9 +1896,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="37" t="s">
         <v>10</v>
@@ -1914,15 +1914,15 @@
         <v>240</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="37" t="s">
         <v>12</v>
@@ -1938,15 +1938,15 @@
         <v>60</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="37" t="s">
         <v>13</v>
@@ -1962,15 +1962,15 @@
         <v>120</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="37" t="s">
         <v>39</v>
@@ -1986,18 +1986,18 @@
         <v>60</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C13" s="40" t="s">
         <v>11</v>
@@ -2010,39 +2010,39 @@
         <v>120</v>
       </c>
       <c r="F13" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="37" t="s">
         <v>179</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A14" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>40</v>
       </c>
       <c r="C14" s="40" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="38">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F14" s="37" t="s">
         <v>180</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="37" t="s">
         <v>14</v>
@@ -2058,21 +2058,21 @@
         <v>60</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>2</v>
@@ -2082,21 +2082,21 @@
         <v>120</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>3</v>
@@ -2106,18 +2106,18 @@
         <v>240</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="40" t="s">
         <v>19</v>
@@ -2130,15 +2130,15 @@
         <v>60</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="37" t="s">
         <v>18</v>
@@ -2154,15 +2154,15 @@
         <v>60</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" s="37" t="s">
         <v>15</v>
@@ -2178,15 +2178,15 @@
         <v>60</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" s="37" t="s">
         <v>20</v>
@@ -2202,18 +2202,18 @@
         <v>240</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="40" t="s">
         <v>19</v>
@@ -2226,18 +2226,18 @@
         <v>120</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="40" t="s">
         <v>19</v>
@@ -2250,15 +2250,15 @@
         <v>240</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G23" s="39" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24" s="37" t="s">
         <v>33</v>
@@ -2274,15 +2274,15 @@
         <v>60</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B25" s="37" t="s">
         <v>34</v>
@@ -2298,21 +2298,21 @@
         <v>120</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D26" s="37" t="s">
         <v>2</v>
@@ -2322,21 +2322,21 @@
         <v>120</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D27" s="37" t="s">
         <v>1</v>
@@ -2346,18 +2346,18 @@
         <v>60</v>
       </c>
       <c r="F27" s="37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="37" t="s">
         <v>11</v>
@@ -2370,18 +2370,18 @@
         <v>120</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G28" s="39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="37" t="s">
         <v>11</v>
@@ -2394,18 +2394,18 @@
         <v>60</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G29" s="39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="40" t="s">
         <v>11</v>
@@ -2418,15 +2418,15 @@
         <v>120</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B31" s="37" t="s">
         <v>16</v>
@@ -2442,18 +2442,18 @@
         <v>240</v>
       </c>
       <c r="F31" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" s="40" t="s">
         <v>11</v>
@@ -2466,18 +2466,18 @@
         <v>240</v>
       </c>
       <c r="F32" s="37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="40" t="s">
         <v>19</v>
@@ -2490,21 +2490,21 @@
         <v>240</v>
       </c>
       <c r="F33" s="37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G33" s="39" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D34" s="37" t="s">
         <v>1</v>
@@ -2514,21 +2514,21 @@
         <v>60</v>
       </c>
       <c r="F34" s="37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G34" s="39" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D35" s="37" t="s">
         <v>2</v>
@@ -2538,21 +2538,21 @@
         <v>120</v>
       </c>
       <c r="F35" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G35" s="39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D36" s="37" t="s">
         <v>1</v>
@@ -2562,21 +2562,21 @@
         <v>60</v>
       </c>
       <c r="F36" s="37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G36" s="39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D37" s="37" t="s">
         <v>1</v>
@@ -2586,21 +2586,21 @@
         <v>60</v>
       </c>
       <c r="F37" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G37" s="39" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D38" s="37" t="s">
         <v>2</v>
@@ -2610,15 +2610,15 @@
         <v>120</v>
       </c>
       <c r="F38" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G38" s="39" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B39" s="37" t="s">
         <v>33</v>
@@ -2634,15 +2634,15 @@
         <v>120</v>
       </c>
       <c r="F39" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G39" s="39" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B40" s="37" t="s">
         <v>34</v>
@@ -2658,15 +2658,15 @@
         <v>120</v>
       </c>
       <c r="F40" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G40" s="39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="135" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B41" s="37" t="s">
         <v>35</v>
@@ -2682,15 +2682,15 @@
         <v>60</v>
       </c>
       <c r="F41" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G41" s="39" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B42" s="37" t="s">
         <v>36</v>
@@ -2706,15 +2706,15 @@
         <v>120</v>
       </c>
       <c r="F42" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G42" s="39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="165" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B43" s="37" t="s">
         <v>37</v>
@@ -2730,15 +2730,15 @@
         <v>60</v>
       </c>
       <c r="F43" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G43" s="39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B44" s="37" t="s">
         <v>38</v>
@@ -2754,21 +2754,21 @@
         <v>60</v>
       </c>
       <c r="F44" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G44" s="39" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B45" s="41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C45" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D45" s="41" t="s">
         <v>2</v>
@@ -2778,21 +2778,21 @@
         <v>120</v>
       </c>
       <c r="F45" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G45" s="43" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B46" s="41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D46" s="41" t="s">
         <v>2</v>
@@ -2802,21 +2802,21 @@
         <v>120</v>
       </c>
       <c r="F46" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G46" s="43" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B47" s="41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C47" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D47" s="41" t="s">
         <v>1</v>
@@ -2826,21 +2826,21 @@
         <v>60</v>
       </c>
       <c r="F47" s="41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G47" s="43" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B48" s="41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C48" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D48" s="41" t="s">
         <v>2</v>
@@ -2850,21 +2850,21 @@
         <v>120</v>
       </c>
       <c r="F48" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G48" s="43" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="44" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B49" s="41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C49" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D49" s="41" t="s">
         <v>1</v>
@@ -2874,21 +2874,21 @@
         <v>60</v>
       </c>
       <c r="F49" s="43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G49" s="43" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="44" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B50" s="41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D50" s="41" t="s">
         <v>1</v>
@@ -2898,18 +2898,18 @@
         <v>60</v>
       </c>
       <c r="F50" s="43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G50" s="43" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B51" s="41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C51" s="41" t="s">
         <v>11</v>
@@ -2922,21 +2922,21 @@
         <v>60</v>
       </c>
       <c r="F51" s="43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G51" s="43" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B52" s="41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D52" s="41" t="s">
         <v>1</v>
@@ -2946,21 +2946,21 @@
         <v>60</v>
       </c>
       <c r="F52" s="42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G52" s="43" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="44" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B53" s="41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D53" s="41" t="s">
         <v>2</v>
@@ -2970,10 +2970,10 @@
         <v>120</v>
       </c>
       <c r="F53" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G53" s="43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3006,47 +3006,47 @@
       <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" style="17" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="66.6640625" style="17" customWidth="1"/>
-    <col min="9" max="229" width="8.6640625" style="17" customWidth="1"/>
-    <col min="230" max="16384" width="11.5546875" style="17"/>
+    <col min="1" max="1" width="4.7109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="66.7109375" style="17" customWidth="1"/>
+    <col min="9" max="229" width="8.7109375" style="17" customWidth="1"/>
+    <col min="230" max="16384" width="11.5703125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C1" s="16"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C2" s="16"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="16"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C4" s="16"/>
     </row>
-    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="C7" s="16"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -3072,9 +3072,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>12</v>
@@ -3090,18 +3090,18 @@
         <v>60</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>13</v>
@@ -3117,16 +3117,16 @@
         <v>120</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -3142,16 +3142,16 @@
         <v>240</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>38</v>
@@ -3167,19 +3167,19 @@
         <v>60</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H12" s="26"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>19</v>
@@ -3192,16 +3192,16 @@
         <v>120</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H13" s="26"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="25" t="s">
         <v>33</v>
@@ -3217,16 +3217,16 @@
         <v>60</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H14" s="26"/>
     </row>
-    <row r="15" spans="1:8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="29" t="s">
         <v>35</v>
@@ -3242,13 +3242,13 @@
         <v>60</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3277,49 +3277,49 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="66.6640625" customWidth="1"/>
-    <col min="9" max="229" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="66.7109375" customWidth="1"/>
+    <col min="9" max="229" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -3345,9 +3345,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>15</v>
@@ -3363,16 +3363,16 @@
         <v>60</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>16</v>
@@ -3388,16 +3388,16 @@
         <v>240</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>37</v>
@@ -3413,19 +3413,19 @@
         <v>60</v>
       </c>
       <c r="F11" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>176</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H11" s="23"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>177</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>11</v>
@@ -3438,47 +3438,47 @@
         <v>60</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H12" s="23"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="46">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H13" s="23"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>2</v>
@@ -3488,16 +3488,16 @@
         <v>120</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H14" s="23"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="25" t="s">
         <v>20</v>
@@ -3513,19 +3513,19 @@
         <v>240</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" s="17" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>11</v>
@@ -3538,10 +3538,10 @@
         <v>120</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H16" s="26"/>
     </row>
@@ -3569,51 +3569,51 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="114" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="114" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="66.6640625" customWidth="1"/>
-    <col min="9" max="229" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="66.7109375" customWidth="1"/>
+    <col min="9" max="229" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -3639,9 +3639,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>36</v>
@@ -3657,22 +3657,22 @@
         <v>120</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>2</v>
@@ -3682,22 +3682,22 @@
         <v>120</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>3</v>
@@ -3707,16 +3707,16 @@
         <v>240</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>18</v>
@@ -3732,16 +3732,16 @@
         <v>60</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H12" s="23"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>34</v>
@@ -3757,22 +3757,22 @@
         <v>120</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H13" s="23"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>2</v>
@@ -3782,22 +3782,22 @@
         <v>120</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H14" s="23"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>1</v>
@@ -3807,19 +3807,19 @@
         <v>60</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>11</v>
@@ -3832,19 +3832,19 @@
         <v>120</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H16" s="23"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>11</v>
@@ -3857,19 +3857,19 @@
         <v>60</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H17" s="23"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>11</v>
@@ -3882,22 +3882,22 @@
         <v>240</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H18" s="23"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D19" s="25" t="s">
         <v>1</v>
@@ -3907,22 +3907,22 @@
         <v>60</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H19" s="23"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D20" s="29" t="s">
         <v>1</v>
@@ -3932,22 +3932,22 @@
         <v>60</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H20" s="23"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D21" s="29" t="s">
         <v>2</v>
@@ -3957,22 +3957,22 @@
         <v>120</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H21" s="23"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D22" s="29" t="s">
         <v>1</v>
@@ -3982,22 +3982,22 @@
         <v>60</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H22" s="23"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D23" s="29" t="s">
         <v>1</v>
@@ -4007,14 +4007,14 @@
         <v>60</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H23" s="23"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="31"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -4053,46 +4053,46 @@
       <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="66.6640625" customWidth="1"/>
-    <col min="9" max="229" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="66.7109375" customWidth="1"/>
+    <col min="9" max="229" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -4118,9 +4118,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>33</v>
@@ -4136,16 +4136,16 @@
         <v>120</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>29</v>
       </c>
       <c r="H9" s="34"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>39</v>
@@ -4161,19 +4161,19 @@
         <v>60</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>29</v>
       </c>
       <c r="H10" s="34"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>19</v>
@@ -4186,19 +4186,19 @@
         <v>60</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>29</v>
       </c>
       <c r="H11" s="34"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>19</v>
@@ -4211,19 +4211,19 @@
         <v>240</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>29</v>
       </c>
       <c r="H12" s="34"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>11</v>
@@ -4236,19 +4236,19 @@
         <v>120</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G13" s="35" t="s">
         <v>29</v>
       </c>
       <c r="H13" s="34"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>19</v>
@@ -4261,22 +4261,22 @@
         <v>240</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>29</v>
       </c>
       <c r="H14" s="34"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>1</v>
@@ -4286,16 +4286,16 @@
         <v>60</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G15" s="35" t="s">
         <v>29</v>
       </c>
       <c r="H15" s="34"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>14</v>
@@ -4311,22 +4311,22 @@
         <v>60</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>29</v>
       </c>
       <c r="H16" s="34"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>1</v>
@@ -4336,22 +4336,22 @@
         <v>60</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>29</v>
       </c>
       <c r="H17" s="34"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>2</v>
@@ -4361,19 +4361,19 @@
         <v>120</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>29</v>
       </c>
       <c r="H18" s="34"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>11</v>
@@ -4386,22 +4386,22 @@
         <v>60</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G19" s="35" t="s">
         <v>29</v>
       </c>
       <c r="H19" s="34"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D20" s="29" t="s">
         <v>1</v>
@@ -4411,22 +4411,22 @@
         <v>60</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G20" s="35" t="s">
         <v>29</v>
       </c>
       <c r="H20" s="34"/>
     </row>
-    <row r="21" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D21" s="29" t="s">
         <v>1</v>
@@ -4436,22 +4436,22 @@
         <v>60</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G21" s="35" t="s">
         <v>29</v>
       </c>
       <c r="H21" s="34"/>
     </row>
-    <row r="22" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D22" s="29" t="s">
         <v>2</v>
@@ -4461,22 +4461,22 @@
         <v>120</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H22" s="34"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D23" s="29" t="s">
         <v>2</v>
@@ -4486,10 +4486,10 @@
         <v>120</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H23" s="34"/>
     </row>

--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTU\Ky5\SWP391\Week 8\SWP391\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTU\Sem5\SWP391\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E685070D-DDAE-4FBB-BB29-8FDA172ADAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -22,12 +23,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Iteration 1'!$A$8:$F$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Iteration 2'!$A$8:$F$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Iteration 3'!$A$8:$F$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Iteration 3'!$A$8:$F$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Iteration 4'!$A$8:$F$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Product!$A$8:$G$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RoC!$A$3:$C$10</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -664,7 +665,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1002,7 +1003,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 5" xfId="1"/>
+    <cellStyle name="Normal 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1708,7 +1709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -1719,25 +1720,25 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="71.7109375" customWidth="1"/>
-    <col min="5" max="225" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="71.6640625" customWidth="1"/>
+    <col min="5" max="225" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1751,7 +1752,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <f>ROW()-3</f>
         <v>1</v>
@@ -1760,7 +1761,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <f t="shared" ref="A5:A10" si="0">ROW()-3</f>
         <v>2</v>
@@ -1769,7 +1770,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="12"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1778,7 +1779,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1787,7 +1788,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1796,7 +1797,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1805,7 +1806,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1815,65 +1816,65 @@
       <c r="D10" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C10"/>
+  <autoFilter ref="A3:C10" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="113.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="229" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="113.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="229" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
       <c r="D5" s="10" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
         <v>6</v>
       </c>
@@ -1896,7 +1897,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A9" s="44" t="s">
         <v>57</v>
       </c>
@@ -1920,7 +1921,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>58</v>
       </c>
@@ -1944,7 +1945,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A11" s="44" t="s">
         <v>59</v>
       </c>
@@ -1968,7 +1969,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A12" s="44" t="s">
         <v>60</v>
       </c>
@@ -1992,7 +1993,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
         <v>61</v>
       </c>
@@ -2016,7 +2017,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="44" t="s">
         <v>62</v>
       </c>
@@ -2040,7 +2041,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A15" s="44" t="s">
         <v>63</v>
       </c>
@@ -2064,7 +2065,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="44" t="s">
         <v>64</v>
       </c>
@@ -2088,7 +2089,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.3">
       <c r="A17" s="44" t="s">
         <v>65</v>
       </c>
@@ -2112,7 +2113,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="44" t="s">
         <v>66</v>
       </c>
@@ -2136,7 +2137,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A19" s="44" t="s">
         <v>67</v>
       </c>
@@ -2160,7 +2161,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A20" s="44" t="s">
         <v>68</v>
       </c>
@@ -2184,7 +2185,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A21" s="44" t="s">
         <v>69</v>
       </c>
@@ -2208,7 +2209,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A22" s="44" t="s">
         <v>70</v>
       </c>
@@ -2232,7 +2233,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A23" s="44" t="s">
         <v>71</v>
       </c>
@@ -2256,7 +2257,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A24" s="44" t="s">
         <v>72</v>
       </c>
@@ -2280,7 +2281,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A25" s="44" t="s">
         <v>73</v>
       </c>
@@ -2304,7 +2305,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.3">
       <c r="A26" s="44" t="s">
         <v>74</v>
       </c>
@@ -2328,7 +2329,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A27" s="44" t="s">
         <v>75</v>
       </c>
@@ -2352,7 +2353,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.3">
       <c r="A28" s="44" t="s">
         <v>76</v>
       </c>
@@ -2376,7 +2377,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A29" s="44" t="s">
         <v>77</v>
       </c>
@@ -2400,7 +2401,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A30" s="44" t="s">
         <v>78</v>
       </c>
@@ -2424,7 +2425,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A31" s="44" t="s">
         <v>79</v>
       </c>
@@ -2448,7 +2449,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A32" s="44" t="s">
         <v>80</v>
       </c>
@@ -2472,7 +2473,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A33" s="44" t="s">
         <v>81</v>
       </c>
@@ -2496,7 +2497,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A34" s="44" t="s">
         <v>82</v>
       </c>
@@ -2520,7 +2521,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A35" s="44" t="s">
         <v>83</v>
       </c>
@@ -2544,7 +2545,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.3">
       <c r="A36" s="44" t="s">
         <v>84</v>
       </c>
@@ -2568,7 +2569,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A37" s="44" t="s">
         <v>85</v>
       </c>
@@ -2592,7 +2593,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A38" s="44" t="s">
         <v>86</v>
       </c>
@@ -2616,7 +2617,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A39" s="44" t="s">
         <v>87</v>
       </c>
@@ -2640,7 +2641,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A40" s="44" t="s">
         <v>88</v>
       </c>
@@ -2664,7 +2665,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="135" x14ac:dyDescent="0.3">
       <c r="A41" s="44" t="s">
         <v>89</v>
       </c>
@@ -2688,7 +2689,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A42" s="44" t="s">
         <v>90</v>
       </c>
@@ -2712,7 +2713,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="165" x14ac:dyDescent="0.3">
       <c r="A43" s="44" t="s">
         <v>91</v>
       </c>
@@ -2736,7 +2737,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A44" s="44" t="s">
         <v>92</v>
       </c>
@@ -2760,7 +2761,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A45" s="44" t="s">
         <v>147</v>
       </c>
@@ -2784,7 +2785,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A46" s="44" t="s">
         <v>148</v>
       </c>
@@ -2808,7 +2809,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A47" s="44" t="s">
         <v>149</v>
       </c>
@@ -2832,7 +2833,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A48" s="44" t="s">
         <v>150</v>
       </c>
@@ -2856,7 +2857,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="44" t="s">
         <v>151</v>
       </c>
@@ -2880,7 +2881,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="44" t="s">
         <v>152</v>
       </c>
@@ -2904,7 +2905,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="44" t="s">
         <v>154</v>
       </c>
@@ -2928,7 +2929,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A52" s="44" t="s">
         <v>167</v>
       </c>
@@ -2952,7 +2953,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A53" s="44" t="s">
         <v>168</v>
       </c>
@@ -2977,14 +2978,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:G44">
-    <sortState ref="A9:G44">
+  <autoFilter ref="A8:G44" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:G44">
       <sortCondition ref="A8:A44"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D44">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D44" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2995,7 +2996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -3003,50 +3004,50 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="17" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" style="17" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" style="17" customWidth="1"/>
-    <col min="230" max="16384" width="11.5703125" style="17"/>
+    <col min="1" max="1" width="4.6640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" style="17" customWidth="1"/>
+    <col min="9" max="229" width="8.6640625" style="17" customWidth="1"/>
+    <col min="230" max="16384" width="11.5546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="16"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="16"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="16"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="16"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="18"/>
       <c r="C7" s="16"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -3072,7 +3073,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>57</v>
       </c>
@@ -3099,7 +3100,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>58</v>
       </c>
@@ -3124,7 +3125,7 @@
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>59</v>
       </c>
@@ -3149,7 +3150,7 @@
       </c>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>60</v>
       </c>
@@ -3174,7 +3175,7 @@
       </c>
       <c r="H12" s="26"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>61</v>
       </c>
@@ -3199,7 +3200,7 @@
       </c>
       <c r="H13" s="26"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>62</v>
       </c>
@@ -3224,7 +3225,7 @@
       </c>
       <c r="H14" s="26"/>
     </row>
-    <row r="15" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>63</v>
       </c>
@@ -3252,13 +3253,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F15"/>
+  <autoFilter ref="A8:F15" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G15" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3269,7 +3270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -3277,49 +3278,49 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" customWidth="1"/>
+    <col min="9" max="229" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -3345,7 +3346,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>57</v>
       </c>
@@ -3370,7 +3371,7 @@
       </c>
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>58</v>
       </c>
@@ -3395,7 +3396,7 @@
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>59</v>
       </c>
@@ -3420,7 +3421,7 @@
       </c>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>60</v>
       </c>
@@ -3445,7 +3446,7 @@
       </c>
       <c r="H12" s="23"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>61</v>
       </c>
@@ -3470,7 +3471,7 @@
       </c>
       <c r="H13" s="23"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>62</v>
       </c>
@@ -3495,7 +3496,7 @@
       </c>
       <c r="H14" s="23"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>63</v>
       </c>
@@ -3520,7 +3521,7 @@
       </c>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="17" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>64</v>
       </c>
@@ -3546,13 +3547,13 @@
       <c r="H16" s="26"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F14"/>
+  <autoFilter ref="A8:F14" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G16" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D16">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D16" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3563,57 +3564,57 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="114" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" customWidth="1"/>
+    <col min="9" max="229" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -3639,7 +3640,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>57</v>
       </c>
@@ -3664,7 +3665,7 @@
       </c>
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>58</v>
       </c>
@@ -3689,7 +3690,7 @@
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>59</v>
       </c>
@@ -3714,7 +3715,7 @@
       </c>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>60</v>
       </c>
@@ -3739,7 +3740,7 @@
       </c>
       <c r="H12" s="23"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>61</v>
       </c>
@@ -3764,7 +3765,7 @@
       </c>
       <c r="H13" s="23"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>62</v>
       </c>
@@ -3785,11 +3786,11 @@
         <v>141</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="H14" s="23"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>63</v>
       </c>
@@ -3810,11 +3811,11 @@
         <v>135</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>64</v>
       </c>
@@ -3825,21 +3826,21 @@
         <v>11</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="22">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>135</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="H16" s="23"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>65</v>
       </c>
@@ -3850,11 +3851,11 @@
         <v>11</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="22">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>135</v>
@@ -3864,7 +3865,7 @@
       </c>
       <c r="H17" s="23"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>66</v>
       </c>
@@ -3889,7 +3890,7 @@
       </c>
       <c r="H18" s="23"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>67</v>
       </c>
@@ -3914,7 +3915,7 @@
       </c>
       <c r="H19" s="23"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>68</v>
       </c>
@@ -3939,7 +3940,7 @@
       </c>
       <c r="H20" s="23"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>69</v>
       </c>
@@ -3964,7 +3965,7 @@
       </c>
       <c r="H21" s="23"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>70</v>
       </c>
@@ -3989,7 +3990,7 @@
       </c>
       <c r="H22" s="23"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>71</v>
       </c>
@@ -4014,7 +4015,7 @@
       </c>
       <c r="H23" s="23"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="31"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -4025,13 +4026,13 @@
       <c r="H24" s="32"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F15"/>
+  <autoFilter ref="A8:F23" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D19">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D19" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4042,57 +4043,57 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" customWidth="1"/>
+    <col min="9" max="229" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -4118,7 +4119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>57</v>
       </c>
@@ -4126,7 +4127,7 @@
         <v>33</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>2</v>
@@ -4139,11 +4140,11 @@
         <v>135</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="H9" s="34"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>58</v>
       </c>
@@ -4168,7 +4169,7 @@
       </c>
       <c r="H10" s="34"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>59</v>
       </c>
@@ -4193,7 +4194,7 @@
       </c>
       <c r="H11" s="34"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>60</v>
       </c>
@@ -4214,11 +4215,11 @@
         <v>135</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="H12" s="34"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>61</v>
       </c>
@@ -4239,11 +4240,11 @@
         <v>135</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="H13" s="34"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>62</v>
       </c>
@@ -4268,7 +4269,7 @@
       </c>
       <c r="H14" s="34"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>63</v>
       </c>
@@ -4293,7 +4294,7 @@
       </c>
       <c r="H15" s="34"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>64</v>
       </c>
@@ -4318,7 +4319,7 @@
       </c>
       <c r="H16" s="34"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>65</v>
       </c>
@@ -4343,7 +4344,7 @@
       </c>
       <c r="H17" s="34"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>66</v>
       </c>
@@ -4368,7 +4369,7 @@
       </c>
       <c r="H18" s="34"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>67</v>
       </c>
@@ -4393,7 +4394,7 @@
       </c>
       <c r="H19" s="34"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>68</v>
       </c>
@@ -4418,7 +4419,7 @@
       </c>
       <c r="H20" s="34"/>
     </row>
-    <row r="21" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>69</v>
       </c>
@@ -4443,7 +4444,7 @@
       </c>
       <c r="H21" s="34"/>
     </row>
-    <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>70</v>
       </c>
@@ -4468,7 +4469,7 @@
       </c>
       <c r="H22" s="34"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>71</v>
       </c>
@@ -4494,13 +4495,13 @@
       <c r="H23" s="34"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F23"/>
+  <autoFilter ref="A8:F23" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTU\Sem5\SWP391\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E685070D-DDAE-4FBB-BB29-8FDA172ADAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCB8469-CBC2-44F0-8271-B28F181DA3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -3002,9 +3002,9 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3136,11 +3136,11 @@
         <v>11</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" s="24">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>135</v>
@@ -3572,7 +3572,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="114" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3861,7 +3861,7 @@
         <v>135</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="H17" s="23"/>
     </row>
@@ -4049,9 +4049,9 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4205,11 +4205,11 @@
         <v>19</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" s="33">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="F12" s="34" t="s">
         <v>135</v>

--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTU\Sem5\SWP391\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCB8469-CBC2-44F0-8271-B28F181DA3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -28,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Product!$A$8:$G$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RoC!$A$3:$C$10</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="183">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC</t>
   </si>
@@ -661,11 +655,17 @@
   <si>
     <t>This is a screen which allows displays the user's address screen, and allows adding more addresses</t>
   </si>
+  <si>
+    <t>Order List</t>
+  </si>
+  <si>
+    <t>Orders Information</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1003,7 +1003,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 5" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1038,7 +1038,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82AD362D-90D4-8C43-A624-6085E63B8564}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82AD362D-90D4-8C43-A624-6085E63B8564}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1117,7 +1117,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{360CF83D-120C-394B-85F0-B0A23B7BB7E7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{360CF83D-120C-394B-85F0-B0A23B7BB7E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1196,7 +1196,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC40858F-DBB6-E64A-9716-BF5235FE7AD7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC40858F-DBB6-E64A-9716-BF5235FE7AD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1275,7 +1275,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC60F863-E6CD-2E4F-BDD5-E8A0CEA1F02E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC60F863-E6CD-2E4F-BDD5-E8A0CEA1F02E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1354,7 +1354,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6389CF4C-730B-6A49-9892-6AA66DEAF33A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6389CF4C-730B-6A49-9892-6AA66DEAF33A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1702,14 +1702,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -1720,25 +1720,25 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="71.6640625" customWidth="1"/>
-    <col min="5" max="225" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="71.7109375" customWidth="1"/>
+    <col min="5" max="225" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <f>ROW()-3</f>
         <v>1</v>
@@ -1761,7 +1761,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <f t="shared" ref="A5:A10" si="0">ROW()-3</f>
         <v>2</v>
@@ -1770,7 +1770,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="12"/>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1779,7 +1779,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1788,7 +1788,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1797,7 +1797,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1806,7 +1806,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1816,14 +1816,14 @@
       <c r="D10" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C10" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:C10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -1834,47 +1834,47 @@
       <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="113.88671875" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="229" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="113.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="229" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="D5" s="10" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>6</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
         <v>57</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
         <v>58</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>59</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
         <v>60</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
         <v>61</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
         <v>62</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
         <v>63</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
         <v>64</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
         <v>65</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
         <v>66</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
         <v>67</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
         <v>68</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
         <v>69</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
         <v>70</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="s">
         <v>71</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="s">
         <v>72</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
         <v>73</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
         <v>74</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
         <v>75</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="s">
         <v>76</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
         <v>77</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="s">
         <v>78</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
         <v>79</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="s">
         <v>80</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
         <v>81</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
         <v>82</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
         <v>83</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
         <v>84</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="s">
         <v>85</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="s">
         <v>86</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
         <v>87</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="s">
         <v>88</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="135" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="s">
         <v>89</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="s">
         <v>90</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="165" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
         <v>91</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="s">
         <v>92</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="44" t="s">
         <v>147</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="44" t="s">
         <v>148</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="s">
         <v>149</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="44" t="s">
         <v>150</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="44" t="s">
         <v>151</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="44" t="s">
         <v>152</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="44" t="s">
         <v>154</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="44" t="s">
         <v>167</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="44" t="s">
         <v>168</v>
       </c>
@@ -2978,14 +2978,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:G44" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:G44">
+  <autoFilter ref="A8:G44">
+    <sortState ref="A9:G44">
       <sortCondition ref="A8:A44"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D44" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D44">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2996,58 +2996,58 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" style="17" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="66.6640625" style="17" customWidth="1"/>
-    <col min="9" max="229" width="8.6640625" style="17" customWidth="1"/>
-    <col min="230" max="16384" width="11.5546875" style="17"/>
+    <col min="1" max="1" width="4.7109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="66.7109375" style="17" customWidth="1"/>
+    <col min="9" max="229" width="8.7109375" style="17" customWidth="1"/>
+    <col min="230" max="16384" width="11.5703125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C1" s="16"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C2" s="16"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="16"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C4" s="16"/>
     </row>
-    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="C7" s="16"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>57</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>58</v>
       </c>
@@ -3125,7 +3125,7 @@
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>59</v>
       </c>
@@ -3150,7 +3150,7 @@
       </c>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>60</v>
       </c>
@@ -3175,7 +3175,7 @@
       </c>
       <c r="H12" s="26"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>61</v>
       </c>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="H13" s="26"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>62</v>
       </c>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="H14" s="26"/>
     </row>
-    <row r="15" spans="1:8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>63</v>
       </c>
@@ -3253,13 +3253,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F15" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A8:F15"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G15" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G15">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3270,7 +3270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -3281,46 +3281,46 @@
       <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="66.6640625" customWidth="1"/>
-    <col min="9" max="229" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="66.7109375" customWidth="1"/>
+    <col min="9" max="229" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>57</v>
       </c>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>58</v>
       </c>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>59</v>
       </c>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>60</v>
       </c>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="H12" s="23"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>61</v>
       </c>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="H13" s="23"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>62</v>
       </c>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="H14" s="23"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>63</v>
       </c>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" s="17" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>64</v>
       </c>
@@ -3547,13 +3547,13 @@
       <c r="H16" s="26"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F14" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A8:F14"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G16" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G16">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D16" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D16">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3564,57 +3564,57 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="114" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="114" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="66.6640625" customWidth="1"/>
-    <col min="9" max="229" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="66.7109375" customWidth="1"/>
+    <col min="9" max="229" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>57</v>
       </c>
@@ -3665,7 +3665,7 @@
       </c>
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>58</v>
       </c>
@@ -3690,12 +3690,12 @@
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>94</v>
@@ -3711,11 +3711,11 @@
         <v>138</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>60</v>
       </c>
@@ -3736,11 +3736,11 @@
         <v>138</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="H12" s="23"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>61</v>
       </c>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="H13" s="23"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>62</v>
       </c>
@@ -3790,7 +3790,7 @@
       </c>
       <c r="H14" s="23"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>63</v>
       </c>
@@ -3815,7 +3815,7 @@
       </c>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>64</v>
       </c>
@@ -3840,7 +3840,7 @@
       </c>
       <c r="H16" s="23"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>65</v>
       </c>
@@ -3865,12 +3865,12 @@
       </c>
       <c r="H17" s="23"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>50</v>
+        <v>182</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>11</v>
@@ -3890,7 +3890,7 @@
       </c>
       <c r="H18" s="23"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>67</v>
       </c>
@@ -3915,7 +3915,7 @@
       </c>
       <c r="H19" s="23"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>68</v>
       </c>
@@ -3940,7 +3940,7 @@
       </c>
       <c r="H20" s="23"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>69</v>
       </c>
@@ -3965,7 +3965,7 @@
       </c>
       <c r="H21" s="23"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>70</v>
       </c>
@@ -3986,11 +3986,11 @@
         <v>137</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="H22" s="23"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>71</v>
       </c>
@@ -4011,11 +4011,11 @@
         <v>137</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="H23" s="23"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="31"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -4026,13 +4026,13 @@
       <c r="H24" s="32"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F23" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A8:F23"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D19" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D19">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4043,7 +4043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -4054,46 +4054,46 @@
       <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="66.6640625" customWidth="1"/>
-    <col min="9" max="229" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="66.7109375" customWidth="1"/>
+    <col min="9" max="229" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>57</v>
       </c>
@@ -4144,7 +4144,7 @@
       </c>
       <c r="H9" s="34"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>58</v>
       </c>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="H10" s="34"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>59</v>
       </c>
@@ -4194,7 +4194,7 @@
       </c>
       <c r="H11" s="34"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>60</v>
       </c>
@@ -4219,7 +4219,7 @@
       </c>
       <c r="H12" s="34"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>61</v>
       </c>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="H13" s="34"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>62</v>
       </c>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="H14" s="34"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>63</v>
       </c>
@@ -4294,7 +4294,7 @@
       </c>
       <c r="H15" s="34"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>64</v>
       </c>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="H16" s="34"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>65</v>
       </c>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="H17" s="34"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>66</v>
       </c>
@@ -4369,7 +4369,7 @@
       </c>
       <c r="H18" s="34"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>67</v>
       </c>
@@ -4394,7 +4394,7 @@
       </c>
       <c r="H19" s="34"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>68</v>
       </c>
@@ -4419,7 +4419,7 @@
       </c>
       <c r="H20" s="34"/>
     </row>
-    <row r="21" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>69</v>
       </c>
@@ -4444,7 +4444,7 @@
       </c>
       <c r="H21" s="34"/>
     </row>
-    <row r="22" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>70</v>
       </c>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="H22" s="34"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>71</v>
       </c>
@@ -4495,13 +4495,13 @@
       <c r="H23" s="34"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F23" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <autoFilter ref="A8:F23"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SWP391\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -22,7 +27,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Product!$A$8:$G$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RoC!$A$3:$C$10</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -665,7 +670,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1038,7 +1043,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82AD362D-90D4-8C43-A624-6085E63B8564}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82AD362D-90D4-8C43-A624-6085E63B8564}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1117,7 +1122,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{360CF83D-120C-394B-85F0-B0A23B7BB7E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{360CF83D-120C-394B-85F0-B0A23B7BB7E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1196,7 +1201,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC40858F-DBB6-E64A-9716-BF5235FE7AD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC40858F-DBB6-E64A-9716-BF5235FE7AD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1275,7 +1280,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC60F863-E6CD-2E4F-BDD5-E8A0CEA1F02E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC60F863-E6CD-2E4F-BDD5-E8A0CEA1F02E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1354,7 +1359,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6389CF4C-730B-6A49-9892-6AA66DEAF33A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6389CF4C-730B-6A49-9892-6AA66DEAF33A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1702,7 +1707,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1720,25 +1725,25 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="71.7109375" customWidth="1"/>
-    <col min="5" max="225" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="71.6640625" customWidth="1"/>
+    <col min="5" max="225" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1752,7 +1757,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <f>ROW()-3</f>
         <v>1</v>
@@ -1761,7 +1766,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <f t="shared" ref="A5:A10" si="0">ROW()-3</f>
         <v>2</v>
@@ -1770,7 +1775,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="12"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1779,7 +1784,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1788,7 +1793,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1797,7 +1802,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1806,7 +1811,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1834,47 +1839,47 @@
       <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="113.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="229" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="113.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="229" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
       <c r="D5" s="10" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
         <v>6</v>
       </c>
@@ -1897,7 +1902,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A9" s="44" t="s">
         <v>57</v>
       </c>
@@ -1921,7 +1926,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>58</v>
       </c>
@@ -1945,7 +1950,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A11" s="44" t="s">
         <v>59</v>
       </c>
@@ -1969,7 +1974,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A12" s="44" t="s">
         <v>60</v>
       </c>
@@ -1993,7 +1998,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
         <v>61</v>
       </c>
@@ -2017,7 +2022,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="44" t="s">
         <v>62</v>
       </c>
@@ -2041,7 +2046,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A15" s="44" t="s">
         <v>63</v>
       </c>
@@ -2065,7 +2070,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="44" t="s">
         <v>64</v>
       </c>
@@ -2089,7 +2094,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.3">
       <c r="A17" s="44" t="s">
         <v>65</v>
       </c>
@@ -2113,7 +2118,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="44" t="s">
         <v>66</v>
       </c>
@@ -2137,7 +2142,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A19" s="44" t="s">
         <v>67</v>
       </c>
@@ -2161,7 +2166,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A20" s="44" t="s">
         <v>68</v>
       </c>
@@ -2185,7 +2190,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A21" s="44" t="s">
         <v>69</v>
       </c>
@@ -2209,7 +2214,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A22" s="44" t="s">
         <v>70</v>
       </c>
@@ -2233,7 +2238,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A23" s="44" t="s">
         <v>71</v>
       </c>
@@ -2257,7 +2262,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A24" s="44" t="s">
         <v>72</v>
       </c>
@@ -2281,7 +2286,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A25" s="44" t="s">
         <v>73</v>
       </c>
@@ -2305,7 +2310,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.3">
       <c r="A26" s="44" t="s">
         <v>74</v>
       </c>
@@ -2329,7 +2334,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A27" s="44" t="s">
         <v>75</v>
       </c>
@@ -2353,7 +2358,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.3">
       <c r="A28" s="44" t="s">
         <v>76</v>
       </c>
@@ -2377,7 +2382,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A29" s="44" t="s">
         <v>77</v>
       </c>
@@ -2401,7 +2406,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A30" s="44" t="s">
         <v>78</v>
       </c>
@@ -2425,7 +2430,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A31" s="44" t="s">
         <v>79</v>
       </c>
@@ -2449,7 +2454,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A32" s="44" t="s">
         <v>80</v>
       </c>
@@ -2473,7 +2478,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A33" s="44" t="s">
         <v>81</v>
       </c>
@@ -2497,7 +2502,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A34" s="44" t="s">
         <v>82</v>
       </c>
@@ -2521,7 +2526,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A35" s="44" t="s">
         <v>83</v>
       </c>
@@ -2545,7 +2550,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.3">
       <c r="A36" s="44" t="s">
         <v>84</v>
       </c>
@@ -2569,7 +2574,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A37" s="44" t="s">
         <v>85</v>
       </c>
@@ -2593,7 +2598,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A38" s="44" t="s">
         <v>86</v>
       </c>
@@ -2617,7 +2622,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A39" s="44" t="s">
         <v>87</v>
       </c>
@@ -2641,7 +2646,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A40" s="44" t="s">
         <v>88</v>
       </c>
@@ -2665,7 +2670,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="135" x14ac:dyDescent="0.3">
       <c r="A41" s="44" t="s">
         <v>89</v>
       </c>
@@ -2689,7 +2694,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A42" s="44" t="s">
         <v>90</v>
       </c>
@@ -2713,7 +2718,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="165" x14ac:dyDescent="0.3">
       <c r="A43" s="44" t="s">
         <v>91</v>
       </c>
@@ -2737,7 +2742,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A44" s="44" t="s">
         <v>92</v>
       </c>
@@ -2761,7 +2766,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A45" s="44" t="s">
         <v>147</v>
       </c>
@@ -2785,7 +2790,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A46" s="44" t="s">
         <v>148</v>
       </c>
@@ -2809,7 +2814,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A47" s="44" t="s">
         <v>149</v>
       </c>
@@ -2833,7 +2838,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A48" s="44" t="s">
         <v>150</v>
       </c>
@@ -2857,7 +2862,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="44" t="s">
         <v>151</v>
       </c>
@@ -2881,7 +2886,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="44" t="s">
         <v>152</v>
       </c>
@@ -2905,7 +2910,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="44" t="s">
         <v>154</v>
       </c>
@@ -2929,7 +2934,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A52" s="44" t="s">
         <v>167</v>
       </c>
@@ -2953,7 +2958,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A53" s="44" t="s">
         <v>168</v>
       </c>
@@ -3007,47 +3012,47 @@
       <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="17" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" style="17" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" style="17" customWidth="1"/>
-    <col min="230" max="16384" width="11.5703125" style="17"/>
+    <col min="1" max="1" width="4.6640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" style="17" customWidth="1"/>
+    <col min="9" max="229" width="8.6640625" style="17" customWidth="1"/>
+    <col min="230" max="16384" width="11.5546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="16"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="16"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="16"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="16"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="18"/>
       <c r="C7" s="16"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -3073,7 +3078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>57</v>
       </c>
@@ -3100,7 +3105,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>58</v>
       </c>
@@ -3125,7 +3130,7 @@
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>59</v>
       </c>
@@ -3150,7 +3155,7 @@
       </c>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>60</v>
       </c>
@@ -3175,7 +3180,7 @@
       </c>
       <c r="H12" s="26"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>61</v>
       </c>
@@ -3200,7 +3205,7 @@
       </c>
       <c r="H13" s="26"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>62</v>
       </c>
@@ -3225,7 +3230,7 @@
       </c>
       <c r="H14" s="26"/>
     </row>
-    <row r="15" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>63</v>
       </c>
@@ -3281,46 +3286,46 @@
       <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" customWidth="1"/>
+    <col min="9" max="229" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -3346,7 +3351,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>57</v>
       </c>
@@ -3371,7 +3376,7 @@
       </c>
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>58</v>
       </c>
@@ -3396,7 +3401,7 @@
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>59</v>
       </c>
@@ -3421,7 +3426,7 @@
       </c>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>60</v>
       </c>
@@ -3446,7 +3451,7 @@
       </c>
       <c r="H12" s="23"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>61</v>
       </c>
@@ -3471,7 +3476,7 @@
       </c>
       <c r="H13" s="23"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>62</v>
       </c>
@@ -3496,7 +3501,7 @@
       </c>
       <c r="H14" s="23"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>63</v>
       </c>
@@ -3521,7 +3526,7 @@
       </c>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="17" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>64</v>
       </c>
@@ -3570,51 +3575,51 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="114" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="114" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" customWidth="1"/>
+    <col min="9" max="229" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -3640,7 +3645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>57</v>
       </c>
@@ -3665,7 +3670,7 @@
       </c>
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>58</v>
       </c>
@@ -3690,7 +3695,7 @@
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>59</v>
       </c>
@@ -3715,7 +3720,7 @@
       </c>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>60</v>
       </c>
@@ -3740,7 +3745,7 @@
       </c>
       <c r="H12" s="23"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>61</v>
       </c>
@@ -3765,7 +3770,7 @@
       </c>
       <c r="H13" s="23"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>62</v>
       </c>
@@ -3790,7 +3795,7 @@
       </c>
       <c r="H14" s="23"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>63</v>
       </c>
@@ -3815,7 +3820,7 @@
       </c>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>64</v>
       </c>
@@ -3840,7 +3845,7 @@
       </c>
       <c r="H16" s="23"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>65</v>
       </c>
@@ -3865,7 +3870,7 @@
       </c>
       <c r="H17" s="23"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>66</v>
       </c>
@@ -3890,7 +3895,7 @@
       </c>
       <c r="H18" s="23"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>67</v>
       </c>
@@ -3915,7 +3920,7 @@
       </c>
       <c r="H19" s="23"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>68</v>
       </c>
@@ -3940,7 +3945,7 @@
       </c>
       <c r="H20" s="23"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>69</v>
       </c>
@@ -3965,7 +3970,7 @@
       </c>
       <c r="H21" s="23"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>70</v>
       </c>
@@ -3990,7 +3995,7 @@
       </c>
       <c r="H22" s="23"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>71</v>
       </c>
@@ -4015,7 +4020,7 @@
       </c>
       <c r="H23" s="23"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="31"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -4049,51 +4054,51 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" customWidth="1"/>
+    <col min="9" max="229" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -4119,7 +4124,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>57</v>
       </c>
@@ -4144,7 +4149,7 @@
       </c>
       <c r="H9" s="34"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>58</v>
       </c>
@@ -4169,7 +4174,7 @@
       </c>
       <c r="H10" s="34"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>59</v>
       </c>
@@ -4194,7 +4199,7 @@
       </c>
       <c r="H11" s="34"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>60</v>
       </c>
@@ -4219,7 +4224,7 @@
       </c>
       <c r="H12" s="34"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>61</v>
       </c>
@@ -4244,7 +4249,7 @@
       </c>
       <c r="H13" s="34"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>62</v>
       </c>
@@ -4265,11 +4270,11 @@
         <v>137</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="H14" s="34"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>63</v>
       </c>
@@ -4290,11 +4295,11 @@
         <v>137</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="H15" s="34"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>64</v>
       </c>
@@ -4315,11 +4320,11 @@
         <v>137</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="H16" s="34"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>65</v>
       </c>
@@ -4344,7 +4349,7 @@
       </c>
       <c r="H17" s="34"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>66</v>
       </c>
@@ -4369,7 +4374,7 @@
       </c>
       <c r="H18" s="34"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>67</v>
       </c>
@@ -4394,7 +4399,7 @@
       </c>
       <c r="H19" s="34"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>68</v>
       </c>
@@ -4419,7 +4424,7 @@
       </c>
       <c r="H20" s="34"/>
     </row>
-    <row r="21" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>69</v>
       </c>
@@ -4444,7 +4449,7 @@
       </c>
       <c r="H21" s="34"/>
     </row>
-    <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>70</v>
       </c>
@@ -4469,7 +4474,7 @@
       </c>
       <c r="H22" s="34"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>71</v>
       </c>

--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SWP391\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTU\Ky5\SWP391\Week 8\SWP391\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="182">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC</t>
   </si>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>Pending</t>
   </si>
   <si>
     <t>ITERATION 2 BACKLOG</t>
@@ -1725,25 +1722,25 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="71.6640625" customWidth="1"/>
-    <col min="5" max="225" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="71.7109375" customWidth="1"/>
+    <col min="5" max="225" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1757,7 +1754,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <f>ROW()-3</f>
         <v>1</v>
@@ -1766,7 +1763,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <f t="shared" ref="A5:A10" si="0">ROW()-3</f>
         <v>2</v>
@@ -1775,7 +1772,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="12"/>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1784,7 +1781,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1793,7 +1790,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1802,7 +1799,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1811,7 +1808,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1839,47 +1836,47 @@
       <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="113.88671875" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="229" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="113.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="229" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="D5" s="10" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>6</v>
       </c>
@@ -1902,9 +1899,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="37" t="s">
         <v>10</v>
@@ -1920,15 +1917,15 @@
         <v>240</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="37" t="s">
         <v>12</v>
@@ -1944,15 +1941,15 @@
         <v>60</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="37" t="s">
         <v>13</v>
@@ -1968,18 +1965,18 @@
         <v>120</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="40" t="s">
         <v>11</v>
@@ -1992,18 +1989,18 @@
         <v>60</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C13" s="40" t="s">
         <v>11</v>
@@ -2016,18 +2013,18 @@
         <v>120</v>
       </c>
       <c r="F13" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="37" t="s">
         <v>178</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>179</v>
       </c>
       <c r="C14" s="40" t="s">
         <v>11</v>
@@ -2040,15 +2037,15 @@
         <v>120</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="37" t="s">
         <v>14</v>
@@ -2064,21 +2061,21 @@
         <v>60</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>2</v>
@@ -2088,21 +2085,21 @@
         <v>120</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>3</v>
@@ -2112,18 +2109,18 @@
         <v>240</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="40" t="s">
         <v>19</v>
@@ -2136,15 +2133,15 @@
         <v>60</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="37" t="s">
         <v>18</v>
@@ -2160,15 +2157,15 @@
         <v>60</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="37" t="s">
         <v>15</v>
@@ -2184,15 +2181,15 @@
         <v>60</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="37" t="s">
         <v>20</v>
@@ -2208,18 +2205,18 @@
         <v>240</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="40" t="s">
         <v>19</v>
@@ -2232,18 +2229,18 @@
         <v>120</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="40" t="s">
         <v>19</v>
@@ -2256,18 +2253,18 @@
         <v>240</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G23" s="39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="40" t="s">
         <v>19</v>
@@ -2280,18 +2277,18 @@
         <v>60</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="40" t="s">
         <v>19</v>
@@ -2304,21 +2301,21 @@
         <v>120</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D26" s="37" t="s">
         <v>2</v>
@@ -2328,21 +2325,21 @@
         <v>120</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D27" s="37" t="s">
         <v>1</v>
@@ -2352,18 +2349,18 @@
         <v>60</v>
       </c>
       <c r="F27" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="37" t="s">
         <v>11</v>
@@ -2376,18 +2373,18 @@
         <v>120</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G28" s="39" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="37" t="s">
         <v>11</v>
@@ -2400,18 +2397,18 @@
         <v>60</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G29" s="39" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="40" t="s">
         <v>11</v>
@@ -2424,15 +2421,15 @@
         <v>120</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" s="37" t="s">
         <v>16</v>
@@ -2448,18 +2445,18 @@
         <v>240</v>
       </c>
       <c r="F31" s="37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="40" t="s">
         <v>11</v>
@@ -2472,18 +2469,18 @@
         <v>240</v>
       </c>
       <c r="F32" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" s="40" t="s">
         <v>19</v>
@@ -2496,21 +2493,21 @@
         <v>240</v>
       </c>
       <c r="F33" s="37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G33" s="39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D34" s="37" t="s">
         <v>1</v>
@@ -2520,21 +2517,21 @@
         <v>60</v>
       </c>
       <c r="F34" s="37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G34" s="39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D35" s="37" t="s">
         <v>2</v>
@@ -2544,21 +2541,21 @@
         <v>120</v>
       </c>
       <c r="F35" s="37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G35" s="39" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="37" t="s">
         <v>1</v>
@@ -2568,21 +2565,21 @@
         <v>60</v>
       </c>
       <c r="F36" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G36" s="39" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D37" s="37" t="s">
         <v>1</v>
@@ -2592,21 +2589,21 @@
         <v>60</v>
       </c>
       <c r="F37" s="37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G37" s="39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D38" s="37" t="s">
         <v>2</v>
@@ -2616,18 +2613,18 @@
         <v>120</v>
       </c>
       <c r="F38" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G38" s="39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39" s="40" t="s">
         <v>11</v>
@@ -2640,18 +2637,18 @@
         <v>120</v>
       </c>
       <c r="F39" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G39" s="39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40" s="37" t="s">
         <v>11</v>
@@ -2664,18 +2661,18 @@
         <v>120</v>
       </c>
       <c r="F40" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G40" s="39" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="135" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C41" s="40" t="s">
         <v>19</v>
@@ -2688,18 +2685,18 @@
         <v>60</v>
       </c>
       <c r="F41" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G41" s="39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" s="37" t="s">
         <v>11</v>
@@ -2712,18 +2709,18 @@
         <v>120</v>
       </c>
       <c r="F42" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G42" s="39" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="165" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B43" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43" s="37" t="s">
         <v>11</v>
@@ -2736,18 +2733,18 @@
         <v>60</v>
       </c>
       <c r="F43" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G43" s="39" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C44" s="37" t="s">
         <v>11</v>
@@ -2760,21 +2757,21 @@
         <v>60</v>
       </c>
       <c r="F44" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G44" s="39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B45" s="41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C45" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D45" s="41" t="s">
         <v>2</v>
@@ -2784,21 +2781,21 @@
         <v>120</v>
       </c>
       <c r="F45" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G45" s="43" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B46" s="41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D46" s="41" t="s">
         <v>2</v>
@@ -2808,21 +2805,21 @@
         <v>120</v>
       </c>
       <c r="F46" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G46" s="43" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B47" s="41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C47" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D47" s="41" t="s">
         <v>1</v>
@@ -2832,21 +2829,21 @@
         <v>60</v>
       </c>
       <c r="F47" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G47" s="43" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B48" s="41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C48" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D48" s="41" t="s">
         <v>2</v>
@@ -2856,21 +2853,21 @@
         <v>120</v>
       </c>
       <c r="F48" s="41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G48" s="43" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B49" s="41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C49" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D49" s="41" t="s">
         <v>1</v>
@@ -2880,21 +2877,21 @@
         <v>60</v>
       </c>
       <c r="F49" s="43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G49" s="43" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="44" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B50" s="41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D50" s="41" t="s">
         <v>1</v>
@@ -2904,18 +2901,18 @@
         <v>60</v>
       </c>
       <c r="F50" s="43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G50" s="43" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B51" s="41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C51" s="41" t="s">
         <v>11</v>
@@ -2928,21 +2925,21 @@
         <v>60</v>
       </c>
       <c r="F51" s="43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G51" s="43" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="44" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B52" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D52" s="41" t="s">
         <v>1</v>
@@ -2952,21 +2949,21 @@
         <v>60</v>
       </c>
       <c r="F52" s="42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G52" s="43" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B53" s="41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D53" s="41" t="s">
         <v>2</v>
@@ -2976,10 +2973,10 @@
         <v>120</v>
       </c>
       <c r="F53" s="42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G53" s="43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3007,52 +3004,52 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" style="17" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="66.6640625" style="17" customWidth="1"/>
-    <col min="9" max="229" width="8.6640625" style="17" customWidth="1"/>
-    <col min="230" max="16384" width="11.5546875" style="17"/>
+    <col min="1" max="1" width="4.7109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="66.7109375" style="17" customWidth="1"/>
+    <col min="9" max="229" width="8.7109375" style="17" customWidth="1"/>
+    <col min="230" max="16384" width="11.5703125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C1" s="16"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C2" s="16"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="16"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C4" s="16"/>
     </row>
-    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="C7" s="16"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -3078,9 +3075,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>12</v>
@@ -3096,18 +3093,18 @@
         <v>60</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>13</v>
@@ -3123,16 +3120,16 @@
         <v>120</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -3148,19 +3145,19 @@
         <v>120</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>11</v>
@@ -3173,19 +3170,19 @@
         <v>60</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H12" s="26"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>19</v>
@@ -3198,19 +3195,19 @@
         <v>120</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H13" s="26"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>19</v>
@@ -3223,19 +3220,19 @@
         <v>60</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H14" s="26"/>
     </row>
-    <row r="15" spans="1:8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>19</v>
@@ -3248,13 +3245,13 @@
         <v>60</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3286,46 +3283,46 @@
       <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="66.6640625" customWidth="1"/>
-    <col min="9" max="229" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="66.7109375" customWidth="1"/>
+    <col min="9" max="229" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -3351,9 +3348,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>15</v>
@@ -3369,16 +3366,16 @@
         <v>60</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>16</v>
@@ -3394,19 +3391,19 @@
         <v>240</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>11</v>
@@ -3419,19 +3416,19 @@
         <v>60</v>
       </c>
       <c r="F11" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>175</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H11" s="23"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>176</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>11</v>
@@ -3444,19 +3441,19 @@
         <v>60</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H12" s="23"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>11</v>
@@ -3469,22 +3466,22 @@
         <v>120</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H13" s="23"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>2</v>
@@ -3494,16 +3491,16 @@
         <v>120</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H14" s="23"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="25" t="s">
         <v>20</v>
@@ -3519,19 +3516,19 @@
         <v>240</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" s="17" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>11</v>
@@ -3544,10 +3541,10 @@
         <v>120</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H16" s="26"/>
     </row>
@@ -3580,46 +3577,46 @@
       <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="66.6640625" customWidth="1"/>
-    <col min="9" max="229" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="66.7109375" customWidth="1"/>
+    <col min="9" max="229" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -3645,12 +3642,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>11</v>
@@ -3663,22 +3660,22 @@
         <v>120</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>2</v>
@@ -3688,22 +3685,22 @@
         <v>120</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>3</v>
@@ -3713,16 +3710,16 @@
         <v>240</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>18</v>
@@ -3738,19 +3735,19 @@
         <v>60</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H12" s="23"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>19</v>
@@ -3763,22 +3760,22 @@
         <v>120</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H13" s="23"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>2</v>
@@ -3788,22 +3785,22 @@
         <v>120</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H14" s="23"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>1</v>
@@ -3813,19 +3810,19 @@
         <v>60</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>11</v>
@@ -3838,19 +3835,19 @@
         <v>60</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H16" s="23"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>11</v>
@@ -3863,19 +3860,19 @@
         <v>120</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H17" s="23"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>11</v>
@@ -3888,22 +3885,22 @@
         <v>240</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H18" s="23"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" s="25" t="s">
         <v>1</v>
@@ -3913,22 +3910,22 @@
         <v>60</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H19" s="23"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20" s="29" t="s">
         <v>1</v>
@@ -3938,22 +3935,22 @@
         <v>60</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H20" s="23"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" s="29" t="s">
         <v>2</v>
@@ -3963,22 +3960,22 @@
         <v>120</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H21" s="23"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D22" s="29" t="s">
         <v>1</v>
@@ -3988,22 +3985,22 @@
         <v>60</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H22" s="23"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" s="29" t="s">
         <v>1</v>
@@ -4013,14 +4010,14 @@
         <v>60</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H23" s="23"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="31"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -4054,51 +4051,51 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="66.6640625" customWidth="1"/>
-    <col min="9" max="229" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="66.7109375" customWidth="1"/>
+    <col min="9" max="229" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -4124,12 +4121,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>19</v>
@@ -4142,19 +4139,19 @@
         <v>120</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H9" s="34"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>11</v>
@@ -4167,19 +4164,19 @@
         <v>60</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="H10" s="34"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>19</v>
@@ -4192,19 +4189,19 @@
         <v>60</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="H11" s="34"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>19</v>
@@ -4217,19 +4214,19 @@
         <v>120</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H12" s="34"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>11</v>
@@ -4242,19 +4239,19 @@
         <v>120</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H13" s="34"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>19</v>
@@ -4267,22 +4264,22 @@
         <v>240</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H14" s="34"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>1</v>
@@ -4292,16 +4289,16 @@
         <v>60</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H15" s="34"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>14</v>
@@ -4317,22 +4314,22 @@
         <v>60</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H16" s="34"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>1</v>
@@ -4342,22 +4339,22 @@
         <v>60</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="H17" s="34"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>2</v>
@@ -4367,19 +4364,19 @@
         <v>120</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="H18" s="34"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>11</v>
@@ -4392,22 +4389,22 @@
         <v>60</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="H19" s="34"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D20" s="29" t="s">
         <v>1</v>
@@ -4417,22 +4414,22 @@
         <v>60</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="H20" s="34"/>
     </row>
-    <row r="21" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D21" s="29" t="s">
         <v>1</v>
@@ -4442,22 +4439,22 @@
         <v>60</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="H21" s="34"/>
     </row>
-    <row r="22" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D22" s="29" t="s">
         <v>2</v>
@@ -4467,22 +4464,22 @@
         <v>120</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="H22" s="34"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" s="29" t="s">
         <v>2</v>
@@ -4492,10 +4489,10 @@
         <v>120</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="H23" s="34"/>
     </row>

--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTU\Ky5\SWP391\Week 8\SWP391\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -27,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Product!$A$8:$G$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RoC!$A$3:$C$10</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -667,7 +662,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1040,7 +1035,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82AD362D-90D4-8C43-A624-6085E63B8564}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82AD362D-90D4-8C43-A624-6085E63B8564}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1103,23 +1098,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>219364</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1388341</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>164523</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>380998</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>4433452</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{360CF83D-120C-394B-85F0-B0A23B7BB7E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{360CF83D-120C-394B-85F0-B0A23B7BB7E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1142,8 +1137,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2632364" y="0"/>
-          <a:ext cx="3382816" cy="785091"/>
+          <a:off x="6375977" y="346364"/>
+          <a:ext cx="3045111" cy="727364"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1198,7 +1193,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC40858F-DBB6-E64A-9716-BF5235FE7AD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AC40858F-DBB6-E64A-9716-BF5235FE7AD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1277,7 +1272,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC60F863-E6CD-2E4F-BDD5-E8A0CEA1F02E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC60F863-E6CD-2E4F-BDD5-E8A0CEA1F02E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1356,7 +1351,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6389CF4C-730B-6A49-9892-6AA66DEAF33A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6389CF4C-730B-6A49-9892-6AA66DEAF33A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1704,7 +1699,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3004,7 +2999,7 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
@@ -3572,8 +3567,8 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="114" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="114" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -4052,8 +4047,8 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4342,7 +4337,7 @@
         <v>137</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="H17" s="34"/>
     </row>
@@ -4367,7 +4362,7 @@
         <v>137</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="H18" s="34"/>
     </row>
@@ -4392,7 +4387,7 @@
         <v>137</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="H19" s="34"/>
     </row>
@@ -4417,7 +4412,7 @@
         <v>137</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="H20" s="34"/>
     </row>

--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="183">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC</t>
   </si>
@@ -655,13 +655,16 @@
     <t>Add Address User</t>
   </si>
   <si>
-    <t>This is a screen which allows displays the user's address screen, and allows adding more addresses</t>
-  </si>
-  <si>
     <t>Order List</t>
   </si>
   <si>
     <t>Orders Information</t>
+  </si>
+  <si>
+    <t>This is a screen which allows displays the user's address screen, and allows adding more addresses. Allow to choose default address, primary address to be able to contact</t>
+  </si>
+  <si>
+    <t>Manage Products List</t>
   </si>
 </sst>
 </file>
@@ -1832,8 +1835,8 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <pane ySplit="8" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2037,7 +2040,7 @@
         <v>120</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G14" s="39" t="s">
         <v>129</v>
@@ -3004,9 +3007,9 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3202,15 +3205,15 @@
       </c>
       <c r="H13" s="26"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>32</v>
+        <v>182</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>1</v>
@@ -3279,7 +3282,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -3573,7 +3576,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="114" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -3697,7 +3700,7 @@
         <v>58</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>93</v>
@@ -3872,7 +3875,7 @@
         <v>65</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>11</v>
@@ -4051,9 +4054,9 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTU\Sem5\SWP391\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E52F3CB-0764-44C3-9866-565775984C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -22,7 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Product!$A$8:$G$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RoC!$A$3:$C$10</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -662,7 +668,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1000,7 +1006,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 5" xfId="1"/>
+    <cellStyle name="Normal 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1035,7 +1041,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82AD362D-90D4-8C43-A624-6085E63B8564}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82AD362D-90D4-8C43-A624-6085E63B8564}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1114,7 +1120,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{360CF83D-120C-394B-85F0-B0A23B7BB7E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{360CF83D-120C-394B-85F0-B0A23B7BB7E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1193,7 +1199,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AC40858F-DBB6-E64A-9716-BF5235FE7AD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC40858F-DBB6-E64A-9716-BF5235FE7AD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1272,7 +1278,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC60F863-E6CD-2E4F-BDD5-E8A0CEA1F02E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC60F863-E6CD-2E4F-BDD5-E8A0CEA1F02E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1351,7 +1357,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6389CF4C-730B-6A49-9892-6AA66DEAF33A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6389CF4C-730B-6A49-9892-6AA66DEAF33A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1699,14 +1705,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -1717,25 +1723,25 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="71.7109375" customWidth="1"/>
-    <col min="5" max="225" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="71.6640625" customWidth="1"/>
+    <col min="5" max="225" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1749,7 +1755,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <f>ROW()-3</f>
         <v>1</v>
@@ -1758,7 +1764,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <f t="shared" ref="A5:A10" si="0">ROW()-3</f>
         <v>2</v>
@@ -1767,7 +1773,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="12"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1776,7 +1782,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1785,7 +1791,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1794,7 +1800,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1803,7 +1809,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1813,14 +1819,14 @@
       <c r="D10" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C10"/>
+  <autoFilter ref="A3:C10" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -1831,47 +1837,47 @@
       <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="113.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="229" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="113.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="229" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
       <c r="D5" s="10" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
         <v>6</v>
       </c>
@@ -1894,7 +1900,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A9" s="44" t="s">
         <v>56</v>
       </c>
@@ -1918,7 +1924,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>57</v>
       </c>
@@ -1942,7 +1948,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A11" s="44" t="s">
         <v>58</v>
       </c>
@@ -1966,7 +1972,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A12" s="44" t="s">
         <v>59</v>
       </c>
@@ -1990,7 +1996,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
         <v>60</v>
       </c>
@@ -2014,7 +2020,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="44" t="s">
         <v>61</v>
       </c>
@@ -2038,7 +2044,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A15" s="44" t="s">
         <v>62</v>
       </c>
@@ -2062,7 +2068,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="44" t="s">
         <v>63</v>
       </c>
@@ -2086,7 +2092,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.3">
       <c r="A17" s="44" t="s">
         <v>64</v>
       </c>
@@ -2110,7 +2116,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="44" t="s">
         <v>65</v>
       </c>
@@ -2134,7 +2140,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A19" s="44" t="s">
         <v>66</v>
       </c>
@@ -2158,7 +2164,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A20" s="44" t="s">
         <v>67</v>
       </c>
@@ -2182,7 +2188,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A21" s="44" t="s">
         <v>68</v>
       </c>
@@ -2206,7 +2212,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A22" s="44" t="s">
         <v>69</v>
       </c>
@@ -2230,7 +2236,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A23" s="44" t="s">
         <v>70</v>
       </c>
@@ -2254,7 +2260,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A24" s="44" t="s">
         <v>71</v>
       </c>
@@ -2278,7 +2284,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A25" s="44" t="s">
         <v>72</v>
       </c>
@@ -2302,7 +2308,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.3">
       <c r="A26" s="44" t="s">
         <v>73</v>
       </c>
@@ -2326,7 +2332,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A27" s="44" t="s">
         <v>74</v>
       </c>
@@ -2350,7 +2356,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.3">
       <c r="A28" s="44" t="s">
         <v>75</v>
       </c>
@@ -2374,7 +2380,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A29" s="44" t="s">
         <v>76</v>
       </c>
@@ -2398,7 +2404,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A30" s="44" t="s">
         <v>77</v>
       </c>
@@ -2422,7 +2428,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A31" s="44" t="s">
         <v>78</v>
       </c>
@@ -2446,7 +2452,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A32" s="44" t="s">
         <v>79</v>
       </c>
@@ -2470,7 +2476,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A33" s="44" t="s">
         <v>80</v>
       </c>
@@ -2494,7 +2500,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A34" s="44" t="s">
         <v>81</v>
       </c>
@@ -2518,7 +2524,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A35" s="44" t="s">
         <v>82</v>
       </c>
@@ -2542,7 +2548,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.3">
       <c r="A36" s="44" t="s">
         <v>83</v>
       </c>
@@ -2566,7 +2572,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A37" s="44" t="s">
         <v>84</v>
       </c>
@@ -2590,7 +2596,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A38" s="44" t="s">
         <v>85</v>
       </c>
@@ -2614,7 +2620,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A39" s="44" t="s">
         <v>86</v>
       </c>
@@ -2638,7 +2644,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A40" s="44" t="s">
         <v>87</v>
       </c>
@@ -2662,7 +2668,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="135" x14ac:dyDescent="0.3">
       <c r="A41" s="44" t="s">
         <v>88</v>
       </c>
@@ -2686,7 +2692,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A42" s="44" t="s">
         <v>89</v>
       </c>
@@ -2710,7 +2716,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="165" x14ac:dyDescent="0.3">
       <c r="A43" s="44" t="s">
         <v>90</v>
       </c>
@@ -2734,7 +2740,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A44" s="44" t="s">
         <v>91</v>
       </c>
@@ -2758,7 +2764,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A45" s="44" t="s">
         <v>146</v>
       </c>
@@ -2782,7 +2788,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A46" s="44" t="s">
         <v>147</v>
       </c>
@@ -2806,7 +2812,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A47" s="44" t="s">
         <v>148</v>
       </c>
@@ -2830,7 +2836,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A48" s="44" t="s">
         <v>149</v>
       </c>
@@ -2854,7 +2860,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="44" t="s">
         <v>150</v>
       </c>
@@ -2878,7 +2884,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="44" t="s">
         <v>151</v>
       </c>
@@ -2902,7 +2908,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="44" t="s">
         <v>153</v>
       </c>
@@ -2926,7 +2932,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A52" s="44" t="s">
         <v>166</v>
       </c>
@@ -2950,7 +2956,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A53" s="44" t="s">
         <v>167</v>
       </c>
@@ -2975,14 +2981,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:G44">
-    <sortState ref="A9:G44">
+  <autoFilter ref="A8:G44" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:G44">
       <sortCondition ref="A8:A44"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D44">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D44" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2993,7 +2999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -3004,47 +3010,47 @@
       <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="17" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" style="17" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" style="17" customWidth="1"/>
-    <col min="230" max="16384" width="11.5703125" style="17"/>
+    <col min="1" max="1" width="4.6640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" style="17" customWidth="1"/>
+    <col min="9" max="229" width="8.6640625" style="17" customWidth="1"/>
+    <col min="230" max="16384" width="11.5546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="16"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="16"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="16"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="16"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="18"/>
       <c r="C7" s="16"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -3070,7 +3076,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
@@ -3097,7 +3103,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
@@ -3122,7 +3128,7 @@
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
@@ -3147,7 +3153,7 @@
       </c>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>59</v>
       </c>
@@ -3172,7 +3178,7 @@
       </c>
       <c r="H12" s="26"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>60</v>
       </c>
@@ -3197,7 +3203,7 @@
       </c>
       <c r="H13" s="26"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
@@ -3222,7 +3228,7 @@
       </c>
       <c r="H14" s="26"/>
     </row>
-    <row r="15" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>62</v>
       </c>
@@ -3250,13 +3256,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F15"/>
+  <autoFilter ref="A8:F15" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G15" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3267,7 +3273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -3278,46 +3284,46 @@
       <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" customWidth="1"/>
+    <col min="9" max="229" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -3343,7 +3349,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
@@ -3368,7 +3374,7 @@
       </c>
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
@@ -3393,7 +3399,7 @@
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
@@ -3418,7 +3424,7 @@
       </c>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>59</v>
       </c>
@@ -3443,7 +3449,7 @@
       </c>
       <c r="H12" s="23"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>60</v>
       </c>
@@ -3468,7 +3474,7 @@
       </c>
       <c r="H13" s="23"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
@@ -3493,7 +3499,7 @@
       </c>
       <c r="H14" s="23"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>62</v>
       </c>
@@ -3518,7 +3524,7 @@
       </c>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="17" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
@@ -3544,13 +3550,13 @@
       <c r="H16" s="26"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F14"/>
+  <autoFilter ref="A8:F14" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G16" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D16">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D16" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3561,57 +3567,57 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="114" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+    <sheetView showGridLines="0" zoomScale="114" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" customWidth="1"/>
+    <col min="9" max="229" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -3637,7 +3643,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
@@ -3662,7 +3668,7 @@
       </c>
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
@@ -3687,7 +3693,7 @@
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
@@ -3712,7 +3718,7 @@
       </c>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>59</v>
       </c>
@@ -3737,7 +3743,7 @@
       </c>
       <c r="H12" s="23"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>60</v>
       </c>
@@ -3762,7 +3768,7 @@
       </c>
       <c r="H13" s="23"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
@@ -3779,15 +3785,15 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F14" s="28" t="s">
-        <v>140</v>
+      <c r="F14" s="23" t="s">
+        <v>134</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>133</v>
       </c>
       <c r="H14" s="23"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>62</v>
       </c>
@@ -3812,7 +3818,7 @@
       </c>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
@@ -3837,7 +3843,7 @@
       </c>
       <c r="H16" s="23"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>64</v>
       </c>
@@ -3862,7 +3868,7 @@
       </c>
       <c r="H17" s="23"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>65</v>
       </c>
@@ -3887,7 +3893,7 @@
       </c>
       <c r="H18" s="23"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>66</v>
       </c>
@@ -3912,7 +3918,7 @@
       </c>
       <c r="H19" s="23"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>67</v>
       </c>
@@ -3937,7 +3943,7 @@
       </c>
       <c r="H20" s="23"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>68</v>
       </c>
@@ -3962,7 +3968,7 @@
       </c>
       <c r="H21" s="23"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>69</v>
       </c>
@@ -3987,7 +3993,7 @@
       </c>
       <c r="H22" s="23"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>70</v>
       </c>
@@ -4012,7 +4018,7 @@
       </c>
       <c r="H23" s="23"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="31"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -4023,13 +4029,13 @@
       <c r="H24" s="32"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F23"/>
+  <autoFilter ref="A8:F23" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D19">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D19" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4040,57 +4046,57 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" customWidth="1"/>
+    <col min="9" max="229" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -4116,7 +4122,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
@@ -4133,15 +4139,15 @@
         <f>IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
         <v>120</v>
       </c>
-      <c r="F9" s="34" t="s">
-        <v>134</v>
+      <c r="F9" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>173</v>
       </c>
       <c r="H9" s="34"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
@@ -4166,7 +4172,7 @@
       </c>
       <c r="H10" s="34"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
@@ -4191,7 +4197,7 @@
       </c>
       <c r="H11" s="34"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>59</v>
       </c>
@@ -4216,7 +4222,7 @@
       </c>
       <c r="H12" s="34"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>60</v>
       </c>
@@ -4241,7 +4247,7 @@
       </c>
       <c r="H13" s="34"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
@@ -4266,7 +4272,7 @@
       </c>
       <c r="H14" s="34"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>62</v>
       </c>
@@ -4291,7 +4297,7 @@
       </c>
       <c r="H15" s="34"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
@@ -4316,7 +4322,7 @@
       </c>
       <c r="H16" s="34"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>64</v>
       </c>
@@ -4341,7 +4347,7 @@
       </c>
       <c r="H17" s="34"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>65</v>
       </c>
@@ -4366,7 +4372,7 @@
       </c>
       <c r="H18" s="34"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>66</v>
       </c>
@@ -4391,7 +4397,7 @@
       </c>
       <c r="H19" s="34"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>67</v>
       </c>
@@ -4416,7 +4422,7 @@
       </c>
       <c r="H20" s="34"/>
     </row>
-    <row r="21" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>68</v>
       </c>
@@ -4441,7 +4447,7 @@
       </c>
       <c r="H21" s="34"/>
     </row>
-    <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>69</v>
       </c>
@@ -4466,7 +4472,7 @@
       </c>
       <c r="H22" s="34"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>70</v>
       </c>
@@ -4492,13 +4498,13 @@
       <c r="H23" s="34"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F23"/>
+  <autoFilter ref="A8:F23" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTU\Sem5\SWP391\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E52F3CB-0764-44C3-9866-565775984C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09AEB04-24A4-48A5-9C3F-B13C2479EC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1834,7 +1834,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4054,7 +4054,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTU\Sem5\SWP391\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTU\Ky5\SWP391\Week 8\SWP391\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E52F3CB-0764-44C3-9866-565775984C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Product!$A$8:$G$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RoC!$A$3:$C$10</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="183">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC</t>
   </si>
@@ -626,9 +625,6 @@
     <t>Suppliers Details</t>
   </si>
   <si>
-    <t>Suppliers Details 2</t>
-  </si>
-  <si>
     <t>Products Color</t>
   </si>
   <si>
@@ -663,12 +659,18 @@
   </si>
   <si>
     <t>Orders Information</t>
+  </si>
+  <si>
+    <t>Manage Products List</t>
+  </si>
+  <si>
+    <t>Shipper List</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1006,7 +1008,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 5" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1712,7 +1714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -1723,25 +1725,25 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="71.6640625" customWidth="1"/>
-    <col min="5" max="225" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="71.7109375" customWidth="1"/>
+    <col min="5" max="225" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1755,7 +1757,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <f>ROW()-3</f>
         <v>1</v>
@@ -1764,7 +1766,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <f t="shared" ref="A5:A10" si="0">ROW()-3</f>
         <v>2</v>
@@ -1773,7 +1775,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="12"/>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1782,7 +1784,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1791,7 +1793,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1800,7 +1802,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1809,7 +1811,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1819,65 +1821,65 @@
       <c r="D10" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C10" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:C10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <pane ySplit="8" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="113.88671875" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="229" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="113.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="229" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="D5" s="10" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>6</v>
       </c>
@@ -1900,7 +1902,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
         <v>56</v>
       </c>
@@ -1924,7 +1926,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
         <v>57</v>
       </c>
@@ -1948,7 +1950,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>58</v>
       </c>
@@ -1972,7 +1974,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
         <v>59</v>
       </c>
@@ -1996,12 +1998,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
         <v>60</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C13" s="40" t="s">
         <v>11</v>
@@ -2014,18 +2016,18 @@
         <v>120</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G13" s="39" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
         <v>61</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="40" t="s">
         <v>11</v>
@@ -2038,13 +2040,13 @@
         <v>120</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G14" s="39" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
         <v>62</v>
       </c>
@@ -2068,7 +2070,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
         <v>63</v>
       </c>
@@ -2092,7 +2094,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
         <v>64</v>
       </c>
@@ -2116,7 +2118,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
         <v>65</v>
       </c>
@@ -2140,7 +2142,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
         <v>66</v>
       </c>
@@ -2164,7 +2166,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
         <v>67</v>
       </c>
@@ -2188,7 +2190,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
         <v>68</v>
       </c>
@@ -2212,7 +2214,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
         <v>69</v>
       </c>
@@ -2236,7 +2238,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="s">
         <v>70</v>
       </c>
@@ -2260,7 +2262,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="s">
         <v>71</v>
       </c>
@@ -2284,7 +2286,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
         <v>72</v>
       </c>
@@ -2308,7 +2310,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
         <v>73</v>
       </c>
@@ -2332,7 +2334,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
         <v>74</v>
       </c>
@@ -2356,7 +2358,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="s">
         <v>75</v>
       </c>
@@ -2380,7 +2382,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
         <v>76</v>
       </c>
@@ -2404,7 +2406,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="s">
         <v>77</v>
       </c>
@@ -2428,7 +2430,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
         <v>78</v>
       </c>
@@ -2452,7 +2454,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="s">
         <v>79</v>
       </c>
@@ -2476,7 +2478,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
         <v>80</v>
       </c>
@@ -2500,7 +2502,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
         <v>81</v>
       </c>
@@ -2524,7 +2526,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
         <v>82</v>
       </c>
@@ -2548,7 +2550,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
         <v>83</v>
       </c>
@@ -2572,7 +2574,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="s">
         <v>84</v>
       </c>
@@ -2596,7 +2598,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="s">
         <v>85</v>
       </c>
@@ -2620,7 +2622,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
         <v>86</v>
       </c>
@@ -2644,7 +2646,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="s">
         <v>87</v>
       </c>
@@ -2668,7 +2670,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="135" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="s">
         <v>88</v>
       </c>
@@ -2692,7 +2694,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="s">
         <v>89</v>
       </c>
@@ -2716,7 +2718,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="165" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
         <v>90</v>
       </c>
@@ -2740,7 +2742,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="s">
         <v>91</v>
       </c>
@@ -2764,7 +2766,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="44" t="s">
         <v>146</v>
       </c>
@@ -2788,7 +2790,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="44" t="s">
         <v>147</v>
       </c>
@@ -2812,7 +2814,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="s">
         <v>148</v>
       </c>
@@ -2836,7 +2838,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="44" t="s">
         <v>149</v>
       </c>
@@ -2860,7 +2862,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="44" t="s">
         <v>150</v>
       </c>
@@ -2884,7 +2886,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="44" t="s">
         <v>151</v>
       </c>
@@ -2908,7 +2910,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="44" t="s">
         <v>153</v>
       </c>
@@ -2932,7 +2934,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="44" t="s">
         <v>166</v>
       </c>
@@ -2956,7 +2958,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="44" t="s">
         <v>167</v>
       </c>
@@ -2981,14 +2983,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:G44" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:G44">
+  <autoFilter ref="A8:G44">
+    <sortState ref="A9:G44">
       <sortCondition ref="A8:A44"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D44" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D44">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2999,7 +3001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -3007,50 +3009,50 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" style="17" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="66.6640625" style="17" customWidth="1"/>
-    <col min="9" max="229" width="8.6640625" style="17" customWidth="1"/>
-    <col min="230" max="16384" width="11.5546875" style="17"/>
+    <col min="1" max="1" width="4.7109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="66.7109375" style="17" customWidth="1"/>
+    <col min="9" max="229" width="8.7109375" style="17" customWidth="1"/>
+    <col min="230" max="16384" width="11.5703125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C1" s="16"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C2" s="16"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="16"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C4" s="16"/>
     </row>
-    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="C7" s="16"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -3076,7 +3078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
@@ -3103,7 +3105,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
@@ -3128,7 +3130,7 @@
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
@@ -3153,7 +3155,7 @@
       </c>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>59</v>
       </c>
@@ -3178,7 +3180,7 @@
       </c>
       <c r="H12" s="26"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>60</v>
       </c>
@@ -3203,22 +3205,22 @@
       </c>
       <c r="H13" s="26"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="24">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>139</v>
@@ -3228,7 +3230,7 @@
       </c>
       <c r="H14" s="26"/>
     </row>
-    <row r="15" spans="1:8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>62</v>
       </c>
@@ -3256,13 +3258,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F15" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A8:F15"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G15" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G15">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3273,7 +3275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -3284,46 +3286,46 @@
       <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="66.6640625" customWidth="1"/>
-    <col min="9" max="229" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="66.7109375" customWidth="1"/>
+    <col min="9" max="229" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -3349,7 +3351,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
@@ -3374,7 +3376,7 @@
       </c>
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
@@ -3399,7 +3401,7 @@
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
@@ -3417,19 +3419,19 @@
         <v>60</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>133</v>
       </c>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>59</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>11</v>
@@ -3449,12 +3451,12 @@
       </c>
       <c r="H12" s="23"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>11</v>
@@ -3474,7 +3476,7 @@
       </c>
       <c r="H13" s="23"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
@@ -3499,7 +3501,7 @@
       </c>
       <c r="H14" s="23"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>62</v>
       </c>
@@ -3524,12 +3526,12 @@
       </c>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" s="17" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>11</v>
@@ -3550,13 +3552,13 @@
       <c r="H16" s="26"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F14" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A8:F14"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G16" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G16">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D16" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D16">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3567,57 +3569,57 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="114" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <pane ySplit="8" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="66.6640625" customWidth="1"/>
-    <col min="9" max="229" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="66.7109375" customWidth="1"/>
+    <col min="9" max="229" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -3643,7 +3645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
@@ -3668,7 +3670,7 @@
       </c>
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
@@ -3693,12 +3695,12 @@
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>93</v>
@@ -3718,7 +3720,7 @@
       </c>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>59</v>
       </c>
@@ -3743,7 +3745,7 @@
       </c>
       <c r="H12" s="23"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>60</v>
       </c>
@@ -3768,7 +3770,7 @@
       </c>
       <c r="H13" s="23"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
@@ -3793,7 +3795,7 @@
       </c>
       <c r="H14" s="23"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>62</v>
       </c>
@@ -3818,7 +3820,7 @@
       </c>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
@@ -3843,7 +3845,7 @@
       </c>
       <c r="H16" s="23"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>64</v>
       </c>
@@ -3868,12 +3870,12 @@
       </c>
       <c r="H17" s="23"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>65</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>11</v>
@@ -3893,7 +3895,7 @@
       </c>
       <c r="H18" s="23"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>66</v>
       </c>
@@ -3918,7 +3920,7 @@
       </c>
       <c r="H19" s="23"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>67</v>
       </c>
@@ -3939,11 +3941,11 @@
         <v>140</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H20" s="23"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>68</v>
       </c>
@@ -3968,7 +3970,7 @@
       </c>
       <c r="H21" s="23"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>69</v>
       </c>
@@ -3993,22 +3995,22 @@
       </c>
       <c r="H22" s="23"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="C23" s="29" t="s">
         <v>92</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="22">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>136</v>
@@ -4018,7 +4020,7 @@
       </c>
       <c r="H23" s="23"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="31"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -4029,13 +4031,13 @@
       <c r="H24" s="32"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F23" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A8:F23"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D19" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D19">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4046,57 +4048,57 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="66.6640625" customWidth="1"/>
-    <col min="9" max="229" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="66.7109375" customWidth="1"/>
+    <col min="9" max="229" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -4122,7 +4124,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
@@ -4143,11 +4145,11 @@
         <v>140</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H9" s="34"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
@@ -4168,11 +4170,11 @@
         <v>140</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H10" s="34"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
@@ -4193,11 +4195,11 @@
         <v>140</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H11" s="34"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>59</v>
       </c>
@@ -4218,11 +4220,11 @@
         <v>134</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H12" s="34"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>60</v>
       </c>
@@ -4243,11 +4245,11 @@
         <v>134</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H13" s="34"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
@@ -4268,11 +4270,11 @@
         <v>136</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H14" s="34"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>62</v>
       </c>
@@ -4293,11 +4295,11 @@
         <v>136</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H15" s="34"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
@@ -4318,11 +4320,11 @@
         <v>136</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H16" s="34"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>64</v>
       </c>
@@ -4347,7 +4349,7 @@
       </c>
       <c r="H17" s="34"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>65</v>
       </c>
@@ -4372,12 +4374,12 @@
       </c>
       <c r="H18" s="34"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>11</v>
@@ -4397,12 +4399,12 @@
       </c>
       <c r="H19" s="34"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C20" s="29" t="s">
         <v>93</v>
@@ -4422,12 +4424,12 @@
       </c>
       <c r="H20" s="34"/>
     </row>
-    <row r="21" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C21" s="29" t="s">
         <v>93</v>
@@ -4443,11 +4445,11 @@
         <v>137</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H21" s="34"/>
     </row>
-    <row r="22" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>69</v>
       </c>
@@ -4472,7 +4474,7 @@
       </c>
       <c r="H22" s="34"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>70</v>
       </c>
@@ -4498,13 +4500,13 @@
       <c r="H23" s="34"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F23" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <autoFilter ref="A8:F23"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTU\Sem5\SWP391\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SWP391\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09AEB04-24A4-48A5-9C3F-B13C2479EC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Product!$A$8:$G$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RoC!$A$3:$C$10</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -668,7 +667,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1006,7 +1005,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 5" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1712,7 +1711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -1819,14 +1818,14 @@
       <c r="D10" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C10" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:C10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -2981,14 +2980,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:G44" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:G44">
+  <autoFilter ref="A8:G44">
+    <sortState ref="A9:G44">
       <sortCondition ref="A8:A44"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D44" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D44">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2999,7 +2998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -3256,13 +3255,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F15" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A8:F15"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G15" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G15">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3273,7 +3272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -3281,7 +3280,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3550,13 +3549,13 @@
       <c r="H16" s="26"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F14" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A8:F14"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G16" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G16">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D16" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D16">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3567,15 +3566,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="114" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="114" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4014,7 +4013,7 @@
         <v>136</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="H23" s="23"/>
     </row>
@@ -4029,13 +4028,13 @@
       <c r="H24" s="32"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F23" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A8:F23"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D19" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D19">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4046,15 +4045,15 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4498,13 +4497,13 @@
       <c r="H23" s="34"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F23" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <autoFilter ref="A8:F23"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
@@ -4013,7 +4013,7 @@
         <v>136</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="H23" s="23"/>
     </row>

--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SWP391\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\SWP391\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -1722,25 +1722,25 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="71.6640625" customWidth="1"/>
-    <col min="5" max="225" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="71.7109375" customWidth="1"/>
+    <col min="5" max="225" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <f>ROW()-3</f>
         <v>1</v>
@@ -1763,7 +1763,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <f t="shared" ref="A5:A10" si="0">ROW()-3</f>
         <v>2</v>
@@ -1772,7 +1772,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="12"/>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1781,7 +1781,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1790,7 +1790,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1799,7 +1799,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1808,7 +1808,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1836,47 +1836,47 @@
       <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="113.88671875" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="229" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="113.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="229" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="D5" s="10" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>6</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
         <v>56</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
         <v>57</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>58</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
         <v>59</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
         <v>60</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
         <v>61</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
         <v>62</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
         <v>63</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
         <v>64</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
         <v>65</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
         <v>66</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
         <v>67</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
         <v>68</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
         <v>69</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="s">
         <v>70</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="s">
         <v>71</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
         <v>72</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
         <v>73</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
         <v>74</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="s">
         <v>75</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
         <v>76</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="s">
         <v>77</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
         <v>78</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="s">
         <v>79</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
         <v>80</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
         <v>81</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
         <v>82</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
         <v>83</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="s">
         <v>84</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="s">
         <v>85</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
         <v>86</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="s">
         <v>87</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="135" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="s">
         <v>88</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="s">
         <v>89</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="165" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
         <v>90</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="s">
         <v>91</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="44" t="s">
         <v>146</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="44" t="s">
         <v>147</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="s">
         <v>148</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="44" t="s">
         <v>149</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="44" t="s">
         <v>150</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="44" t="s">
         <v>151</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="44" t="s">
         <v>153</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="44" t="s">
         <v>166</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="44" t="s">
         <v>167</v>
       </c>
@@ -3009,47 +3009,47 @@
       <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" style="17" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="66.6640625" style="17" customWidth="1"/>
-    <col min="9" max="229" width="8.6640625" style="17" customWidth="1"/>
-    <col min="230" max="16384" width="11.5546875" style="17"/>
+    <col min="1" max="1" width="4.7109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="66.7109375" style="17" customWidth="1"/>
+    <col min="9" max="229" width="8.7109375" style="17" customWidth="1"/>
+    <col min="230" max="16384" width="11.5703125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C1" s="16"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C2" s="16"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="16"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C4" s="16"/>
     </row>
-    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="C7" s="16"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
@@ -3152,7 +3152,7 @@
       </c>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>59</v>
       </c>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="H12" s="26"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>60</v>
       </c>
@@ -3202,7 +3202,7 @@
       </c>
       <c r="H13" s="26"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
@@ -3227,7 +3227,7 @@
       </c>
       <c r="H14" s="26"/>
     </row>
-    <row r="15" spans="1:8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>62</v>
       </c>
@@ -3283,46 +3283,46 @@
       <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="66.6640625" customWidth="1"/>
-    <col min="9" max="229" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="66.7109375" customWidth="1"/>
+    <col min="9" max="229" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
@@ -3373,7 +3373,7 @@
       </c>
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
@@ -3398,7 +3398,7 @@
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
@@ -3423,7 +3423,7 @@
       </c>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>59</v>
       </c>
@@ -3448,7 +3448,7 @@
       </c>
       <c r="H12" s="23"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>60</v>
       </c>
@@ -3473,7 +3473,7 @@
       </c>
       <c r="H13" s="23"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="H14" s="23"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>62</v>
       </c>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" s="17" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
@@ -3572,51 +3572,51 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="114" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="66.6640625" customWidth="1"/>
-    <col min="9" max="229" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="66.7109375" customWidth="1"/>
+    <col min="9" max="229" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>59</v>
       </c>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="H12" s="23"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>60</v>
       </c>
@@ -3767,7 +3767,7 @@
       </c>
       <c r="H13" s="23"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="H14" s="23"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>62</v>
       </c>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
@@ -3842,7 +3842,7 @@
       </c>
       <c r="H16" s="23"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>64</v>
       </c>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="H17" s="23"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>65</v>
       </c>
@@ -3892,7 +3892,7 @@
       </c>
       <c r="H18" s="23"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>66</v>
       </c>
@@ -3917,7 +3917,7 @@
       </c>
       <c r="H19" s="23"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>67</v>
       </c>
@@ -3935,14 +3935,14 @@
         <v>60</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="H20" s="23"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>68</v>
       </c>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="H21" s="23"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>69</v>
       </c>
@@ -3981,18 +3981,17 @@
         <v>1</v>
       </c>
       <c r="E22" s="22">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="H22" s="23"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>70</v>
       </c>
@@ -4010,14 +4009,14 @@
         <v>60</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>133</v>
       </c>
       <c r="H23" s="23"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="31"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -4056,46 +4055,46 @@
       <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="66.6640625" customWidth="1"/>
-    <col min="9" max="229" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="66.7109375" customWidth="1"/>
+    <col min="9" max="229" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -4121,7 +4120,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
@@ -4146,7 +4145,7 @@
       </c>
       <c r="H9" s="34"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
@@ -4171,7 +4170,7 @@
       </c>
       <c r="H10" s="34"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
@@ -4196,7 +4195,7 @@
       </c>
       <c r="H11" s="34"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>59</v>
       </c>
@@ -4221,7 +4220,7 @@
       </c>
       <c r="H12" s="34"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>60</v>
       </c>
@@ -4246,7 +4245,7 @@
       </c>
       <c r="H13" s="34"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
@@ -4271,7 +4270,7 @@
       </c>
       <c r="H14" s="34"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>62</v>
       </c>
@@ -4296,7 +4295,7 @@
       </c>
       <c r="H15" s="34"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
@@ -4321,7 +4320,7 @@
       </c>
       <c r="H16" s="34"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>64</v>
       </c>
@@ -4346,7 +4345,7 @@
       </c>
       <c r="H17" s="34"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>65</v>
       </c>
@@ -4371,7 +4370,7 @@
       </c>
       <c r="H18" s="34"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>66</v>
       </c>
@@ -4396,7 +4395,7 @@
       </c>
       <c r="H19" s="34"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>67</v>
       </c>
@@ -4421,7 +4420,7 @@
       </c>
       <c r="H20" s="34"/>
     </row>
-    <row r="21" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>68</v>
       </c>
@@ -4446,7 +4445,7 @@
       </c>
       <c r="H21" s="34"/>
     </row>
-    <row r="22" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>69</v>
       </c>
@@ -4471,7 +4470,7 @@
       </c>
       <c r="H22" s="34"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>70</v>
       </c>

--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\SWP391\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTU\Ky5\SWP391\Week 8\SWP391\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="4"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="183">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC</t>
   </si>
@@ -662,6 +662,9 @@
   </si>
   <si>
     <t>Orders Information</t>
+  </si>
+  <si>
+    <t>Manage Products List</t>
   </si>
 </sst>
 </file>
@@ -1832,7 +1835,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -3004,9 +3007,9 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3202,15 +3205,15 @@
       </c>
       <c r="H13" s="26"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>32</v>
+        <v>182</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>1</v>
@@ -3572,8 +3575,8 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -4051,7 +4054,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>

--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,11 @@
     <sheet name="Iteration 2" sheetId="8" r:id="rId4"/>
     <sheet name="Iteration 3" sheetId="9" r:id="rId5"/>
     <sheet name="Iteration 4" sheetId="10" r:id="rId6"/>
+    <sheet name="HoangNV" sheetId="11" r:id="rId7"/>
+    <sheet name="ThachDP" sheetId="12" r:id="rId8"/>
+    <sheet name="HungNM" sheetId="13" r:id="rId9"/>
+    <sheet name="VoNVA" sheetId="14" r:id="rId10"/>
+    <sheet name="DucLM" sheetId="15" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Iteration 1'!$A$8:$F$15</definedName>
@@ -45,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="185">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC</t>
   </si>
@@ -665,6 +670,12 @@
   </si>
   <si>
     <t>Manage Products List</t>
+  </si>
+  <si>
+    <t>Iteration</t>
+  </si>
+  <si>
+    <t>TASKS OF MEMBER</t>
   </si>
 </sst>
 </file>
@@ -879,7 +890,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1005,6 +1016,9 @@
     <xf numFmtId="1" fontId="17" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1068,6 +1082,85 @@
         <a:xfrm>
           <a:off x="3267366" y="0"/>
           <a:ext cx="3091615" cy="785091"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219364</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>380998</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6389CF4C-730B-6A49-9892-6AA66DEAF33A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2324389" y="0"/>
+          <a:ext cx="3133434" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1384,6 +1477,322 @@
         <a:xfrm>
           <a:off x="2632364" y="0"/>
           <a:ext cx="3374734" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219364</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>380998</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6389CF4C-730B-6A49-9892-6AA66DEAF33A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2324389" y="0"/>
+          <a:ext cx="3133434" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219364</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>380998</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6389CF4C-730B-6A49-9892-6AA66DEAF33A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2324389" y="0"/>
+          <a:ext cx="3133434" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219364</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>380998</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6389CF4C-730B-6A49-9892-6AA66DEAF33A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2324389" y="0"/>
+          <a:ext cx="3133434" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219364</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>380998</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6389CF4C-730B-6A49-9892-6AA66DEAF33A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2324389" y="0"/>
+          <a:ext cx="3133434" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1827,6 +2236,932 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="F5" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="F6" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="33">
+        <f>IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
+        <v>120</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H9" s="34"/>
+    </row>
+    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="33">
+        <f t="shared" ref="E10:E23" si="0">IF(D10="Complex", 240, IF(D10="Medium",120,60))</f>
+        <v>60</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H10" s="34"/>
+    </row>
+    <row r="11" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="33">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H11" s="34"/>
+    </row>
+    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="33">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H12" s="34"/>
+    </row>
+    <row r="13" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="33">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H13" s="34"/>
+    </row>
+    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="33">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" s="34"/>
+    </row>
+    <row r="15" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="33">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H15" s="34"/>
+    </row>
+    <row r="16" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="33">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H16" s="34"/>
+    </row>
+    <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="33">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H17" s="34"/>
+    </row>
+    <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="33">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H18" s="34"/>
+    </row>
+    <row r="19" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="33">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" s="34"/>
+    </row>
+    <row r="20" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="33">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" s="34"/>
+    </row>
+    <row r="21" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="33">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H21" s="34"/>
+    </row>
+    <row r="22" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="33">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22" s="34"/>
+    </row>
+    <row r="23" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="33">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="G23" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" s="34"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18">
+      <formula1>"Simple,Medium,Complex"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
+      <formula1>"Pending, Doing, Deferred, Done"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="F5" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="F6" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="33">
+        <f>IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
+        <v>120</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H9" s="34"/>
+    </row>
+    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="33">
+        <f t="shared" ref="E10:E23" si="0">IF(D10="Complex", 240, IF(D10="Medium",120,60))</f>
+        <v>60</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H10" s="34"/>
+    </row>
+    <row r="11" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="33">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H11" s="34"/>
+    </row>
+    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="33">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H12" s="34"/>
+    </row>
+    <row r="13" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="33">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H13" s="34"/>
+    </row>
+    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="33">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" s="34"/>
+    </row>
+    <row r="15" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="33">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H15" s="34"/>
+    </row>
+    <row r="16" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="33">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H16" s="34"/>
+    </row>
+    <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="33">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H17" s="34"/>
+    </row>
+    <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="33">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H18" s="34"/>
+    </row>
+    <row r="19" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="33">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" s="34"/>
+    </row>
+    <row r="20" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="33">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" s="34"/>
+    </row>
+    <row r="21" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="33">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H21" s="34"/>
+    </row>
+    <row r="22" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="33">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22" s="34"/>
+    </row>
+    <row r="23" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="33">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="G23" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" s="34"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18">
+      <formula1>"Simple,Medium,Complex"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
+      <formula1>"Pending, Doing, Deferred, Done"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -3007,9 +4342,9 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3283,7 +4618,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4054,8 +5389,8 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <pane ySplit="8" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4513,4 +5848,1260 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="F5" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="F6" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="33">
+        <f>IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
+        <v>120</v>
+      </c>
+      <c r="F9" s="47">
+        <v>1</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="34"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="33">
+        <f t="shared" ref="E10:E15" si="0">IF(D10="Complex", 240, IF(D10="Medium",120,60))</f>
+        <v>60</v>
+      </c>
+      <c r="F10" s="47">
+        <v>1</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" s="34"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="33">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F11" s="47">
+        <v>1</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" s="34"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="33">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F12" s="47">
+        <v>1</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" s="34"/>
+    </row>
+    <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="33">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F13" s="47">
+        <v>1</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" s="34"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="33">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="F14" s="47">
+        <v>1</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" s="34"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="33">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F15" s="47">
+        <v>2</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" s="34"/>
+    </row>
+    <row r="16" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="33">
+        <f t="shared" ref="E16:E17" si="1">IF(D16="Complex", 240, IF(D16="Medium",120,60))</f>
+        <v>120</v>
+      </c>
+      <c r="F16" s="47">
+        <v>4</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16" s="34"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="33">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="F17" s="47">
+        <v>4</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H17" s="34"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15">
+      <formula1>"Simple,Medium,Complex"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G17">
+      <formula1>"Pending, Doing, Deferred, Done"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="F5" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="F6" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="33">
+        <f>IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
+        <v>120</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H9" s="34"/>
+    </row>
+    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="33">
+        <f t="shared" ref="E10:E23" si="0">IF(D10="Complex", 240, IF(D10="Medium",120,60))</f>
+        <v>60</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H10" s="34"/>
+    </row>
+    <row r="11" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="33">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H11" s="34"/>
+    </row>
+    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="33">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H12" s="34"/>
+    </row>
+    <row r="13" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="33">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H13" s="34"/>
+    </row>
+    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="33">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" s="34"/>
+    </row>
+    <row r="15" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="33">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H15" s="34"/>
+    </row>
+    <row r="16" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="33">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H16" s="34"/>
+    </row>
+    <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="33">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H17" s="34"/>
+    </row>
+    <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="33">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H18" s="34"/>
+    </row>
+    <row r="19" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="33">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" s="34"/>
+    </row>
+    <row r="20" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="33">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" s="34"/>
+    </row>
+    <row r="21" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="33">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H21" s="34"/>
+    </row>
+    <row r="22" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="33">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22" s="34"/>
+    </row>
+    <row r="23" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="33">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="G23" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" s="34"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18">
+      <formula1>"Simple,Medium,Complex"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
+      <formula1>"Pending, Doing, Deferred, Done"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="F5" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="F6" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="33">
+        <f>IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
+        <v>120</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H9" s="34"/>
+    </row>
+    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="33">
+        <f t="shared" ref="E10:E23" si="0">IF(D10="Complex", 240, IF(D10="Medium",120,60))</f>
+        <v>60</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H10" s="34"/>
+    </row>
+    <row r="11" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="33">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H11" s="34"/>
+    </row>
+    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="33">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H12" s="34"/>
+    </row>
+    <row r="13" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="33">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H13" s="34"/>
+    </row>
+    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="33">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" s="34"/>
+    </row>
+    <row r="15" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="33">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H15" s="34"/>
+    </row>
+    <row r="16" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="33">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H16" s="34"/>
+    </row>
+    <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="33">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H17" s="34"/>
+    </row>
+    <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="33">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H18" s="34"/>
+    </row>
+    <row r="19" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="33">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" s="34"/>
+    </row>
+    <row r="20" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="33">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" s="34"/>
+    </row>
+    <row r="21" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="33">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H21" s="34"/>
+    </row>
+    <row r="22" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="33">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22" s="34"/>
+    </row>
+    <row r="23" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="33">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="G23" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" s="34"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18">
+      <formula1>"Simple,Medium,Complex"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
+      <formula1>"Pending, Doing, Deferred, Done"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTU\Ky5\SWP391\Week 8\SWP391\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTU\Sem5\SWP391\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14830E0-0AFF-416D-A491-68FD94E7A996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -18,11 +19,11 @@
     <sheet name="Iteration 2" sheetId="8" r:id="rId4"/>
     <sheet name="Iteration 3" sheetId="9" r:id="rId5"/>
     <sheet name="Iteration 4" sheetId="10" r:id="rId6"/>
-    <sheet name="HoangNV" sheetId="11" r:id="rId7"/>
-    <sheet name="ThachDP" sheetId="12" r:id="rId8"/>
-    <sheet name="HungNM" sheetId="13" r:id="rId9"/>
-    <sheet name="VoNVA" sheetId="14" r:id="rId10"/>
-    <sheet name="DucLM" sheetId="15" r:id="rId11"/>
+    <sheet name="HoangNV" sheetId="11" state="hidden" r:id="rId7"/>
+    <sheet name="ThachDP" sheetId="12" state="hidden" r:id="rId8"/>
+    <sheet name="HungNM" sheetId="13" state="hidden" r:id="rId9"/>
+    <sheet name="VoNVA" sheetId="14" state="hidden" r:id="rId10"/>
+    <sheet name="DucLM" sheetId="15" state="hidden" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Iteration 1'!$A$8:$F$15</definedName>
@@ -32,7 +33,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Product!$A$8:$G$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RoC!$A$3:$C$10</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -681,8 +682,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -778,13 +779,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -890,7 +884,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -939,23 +933,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="17" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -970,11 +961,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1001,19 +992,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1022,7 +1013,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 5" xfId="1"/>
+    <cellStyle name="Normal 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1057,7 +1048,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82AD362D-90D4-8C43-A624-6085E63B8564}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1136,7 +1127,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6389CF4C-730B-6A49-9892-6AA66DEAF33A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1199,23 +1190,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1388341</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>164523</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219364</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>4433452</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:colOff>380998</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
+        <xdr:cNvPr id="3" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{360CF83D-120C-394B-85F0-B0A23B7BB7E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{245A23DA-989E-40D3-A688-B7596B13C3CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1238,8 +1229,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6375977" y="346364"/>
-          <a:ext cx="3045111" cy="727364"/>
+          <a:off x="2375824" y="0"/>
+          <a:ext cx="3156294" cy="731520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1294,7 +1285,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC40858F-DBB6-E64A-9716-BF5235FE7AD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1373,7 +1364,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC60F863-E6CD-2E4F-BDD5-E8A0CEA1F02E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1452,7 +1443,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6389CF4C-730B-6A49-9892-6AA66DEAF33A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1531,7 +1522,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6389CF4C-730B-6A49-9892-6AA66DEAF33A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1610,7 +1601,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6389CF4C-730B-6A49-9892-6AA66DEAF33A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1689,7 +1680,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6389CF4C-730B-6A49-9892-6AA66DEAF33A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1768,7 +1759,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6389CF4C-730B-6A49-9892-6AA66DEAF33A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2123,7 +2114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -2134,25 +2125,25 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="71.7109375" customWidth="1"/>
-    <col min="5" max="225" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="71.6640625" customWidth="1"/>
+    <col min="5" max="225" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -2166,7 +2157,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <f>ROW()-3</f>
         <v>1</v>
@@ -2175,7 +2166,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <f t="shared" ref="A5:A10" si="0">ROW()-3</f>
         <v>2</v>
@@ -2184,7 +2175,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="12"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2193,7 +2184,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2202,7 +2193,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2211,7 +2202,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2220,7 +2211,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2230,467 +2221,467 @@
       <c r="D10" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C10"/>
+  <autoFilter ref="A3:C10" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="32">
         <f>IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
         <v>120</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H9" s="34"/>
-    </row>
-    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H9" s="33"/>
+    </row>
+    <row r="10" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="33">
+      <c r="D10" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="32">
         <f t="shared" ref="E10:E23" si="0">IF(D10="Complex", 240, IF(D10="Medium",120,60))</f>
         <v>60</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H10" s="34"/>
-    </row>
-    <row r="11" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="H10" s="33"/>
+    </row>
+    <row r="11" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F11" s="34" t="s">
+      <c r="D11" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="32">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F11" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H11" s="34"/>
-    </row>
-    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H11" s="33"/>
+    </row>
+    <row r="12" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="32">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H12" s="34"/>
-    </row>
-    <row r="13" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="H12" s="33"/>
+    </row>
+    <row r="13" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="32">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H13" s="34"/>
-    </row>
-    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H13" s="33"/>
+    </row>
+    <row r="14" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="32">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="G14" s="35" t="s">
+      <c r="G14" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H14" s="34"/>
-    </row>
-    <row r="15" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="H14" s="33"/>
+    </row>
+    <row r="15" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F15" s="34" t="s">
+      <c r="D15" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="32">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F15" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H15" s="34"/>
-    </row>
-    <row r="16" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="H15" s="33"/>
+    </row>
+    <row r="16" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F16" s="34" t="s">
+      <c r="D16" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="32">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F16" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H16" s="34"/>
-    </row>
-    <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H16" s="33"/>
+    </row>
+    <row r="17" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F17" s="34" t="s">
+      <c r="D17" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="32">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F17" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H17" s="34"/>
-    </row>
-    <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H17" s="33"/>
+    </row>
+    <row r="18" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="32">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="G18" s="35" t="s">
+      <c r="G18" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H18" s="34"/>
-    </row>
-    <row r="19" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H18" s="33"/>
+    </row>
+    <row r="19" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F19" s="36" t="s">
+      <c r="D19" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="32">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F19" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H19" s="34"/>
-    </row>
-    <row r="20" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H19" s="33"/>
+    </row>
+    <row r="20" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F20" s="36" t="s">
+      <c r="D20" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="32">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F20" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="G20" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H20" s="34"/>
-    </row>
-    <row r="21" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="H20" s="33"/>
+    </row>
+    <row r="21" spans="1:8" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F21" s="36" t="s">
+      <c r="D21" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="32">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F21" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H21" s="34"/>
-    </row>
-    <row r="22" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="H21" s="33"/>
+    </row>
+    <row r="22" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E22" s="32">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="G22" s="35" t="s">
+      <c r="G22" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H22" s="34"/>
-    </row>
-    <row r="23" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H22" s="33"/>
+    </row>
+    <row r="23" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="32">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F23" s="36" t="s">
+      <c r="F23" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="G23" s="35" t="s">
+      <c r="G23" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H23" s="34"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="33"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23" xr:uid="{00000000-0002-0000-0900-000001000000}">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2700,460 +2691,460 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="32">
         <f>IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
         <v>120</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H9" s="34"/>
-    </row>
-    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H9" s="33"/>
+    </row>
+    <row r="10" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="33">
+      <c r="D10" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="32">
         <f t="shared" ref="E10:E23" si="0">IF(D10="Complex", 240, IF(D10="Medium",120,60))</f>
         <v>60</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H10" s="34"/>
-    </row>
-    <row r="11" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="H10" s="33"/>
+    </row>
+    <row r="11" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F11" s="34" t="s">
+      <c r="D11" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="32">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F11" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H11" s="34"/>
-    </row>
-    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H11" s="33"/>
+    </row>
+    <row r="12" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="32">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H12" s="34"/>
-    </row>
-    <row r="13" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="H12" s="33"/>
+    </row>
+    <row r="13" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="32">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H13" s="34"/>
-    </row>
-    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H13" s="33"/>
+    </row>
+    <row r="14" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="32">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="G14" s="35" t="s">
+      <c r="G14" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H14" s="34"/>
-    </row>
-    <row r="15" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="H14" s="33"/>
+    </row>
+    <row r="15" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F15" s="34" t="s">
+      <c r="D15" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="32">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F15" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H15" s="34"/>
-    </row>
-    <row r="16" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="H15" s="33"/>
+    </row>
+    <row r="16" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F16" s="34" t="s">
+      <c r="D16" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="32">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F16" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H16" s="34"/>
-    </row>
-    <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H16" s="33"/>
+    </row>
+    <row r="17" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F17" s="34" t="s">
+      <c r="D17" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="32">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F17" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H17" s="34"/>
-    </row>
-    <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H17" s="33"/>
+    </row>
+    <row r="18" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="32">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="G18" s="35" t="s">
+      <c r="G18" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H18" s="34"/>
-    </row>
-    <row r="19" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H18" s="33"/>
+    </row>
+    <row r="19" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F19" s="36" t="s">
+      <c r="D19" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="32">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F19" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H19" s="34"/>
-    </row>
-    <row r="20" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H19" s="33"/>
+    </row>
+    <row r="20" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F20" s="36" t="s">
+      <c r="D20" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="32">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F20" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="G20" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H20" s="34"/>
-    </row>
-    <row r="21" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="H20" s="33"/>
+    </row>
+    <row r="21" spans="1:8" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F21" s="36" t="s">
+      <c r="D21" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="32">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F21" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H21" s="34"/>
-    </row>
-    <row r="22" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="H21" s="33"/>
+    </row>
+    <row r="22" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E22" s="32">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="G22" s="35" t="s">
+      <c r="G22" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H22" s="34"/>
-    </row>
-    <row r="23" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H22" s="33"/>
+    </row>
+    <row r="23" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="32">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F23" s="36" t="s">
+      <c r="F23" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="G23" s="35" t="s">
+      <c r="G23" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H23" s="34"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="33"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23" xr:uid="{00000000-0002-0000-0A00-000001000000}">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3163,7 +3154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -3174,1158 +3165,1158 @@
       <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="113.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="229" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="113.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="229" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
       <c r="D5" s="10" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="44" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.3">
+      <c r="A9" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="37">
         <f>IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
         <v>240</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="38" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="A10" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="38">
+      <c r="D10" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="37">
         <f t="shared" ref="E10:E53" si="0">IF(D10="Complex", 240, IF(D10="Medium",120,60))</f>
         <v>60</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="38" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+      <c r="A11" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="37">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="38" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.3">
+      <c r="A12" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="38">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F12" s="37" t="s">
+      <c r="D12" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="37">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F12" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="39" t="s">
+      <c r="G12" s="38" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="37" t="s">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="A13" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="37">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="38" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="37">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="38" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+      <c r="A15" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="38">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F15" s="37" t="s">
+      <c r="D15" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="37">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F15" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="38" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="37">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="G16" s="38" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.3">
+      <c r="A17" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="37">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="F17" s="37" t="s">
+      <c r="F17" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="G17" s="39" t="s">
+      <c r="G17" s="38" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
+    <row r="18" spans="1:7" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="38">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F18" s="37" t="s">
+      <c r="D18" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="37">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F18" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="G18" s="39" t="s">
+      <c r="G18" s="38" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
+    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+      <c r="A19" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="38">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F19" s="37" t="s">
+      <c r="D19" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="37">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F19" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="G19" s="39" t="s">
+      <c r="G19" s="38" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+      <c r="A20" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="38">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F20" s="37" t="s">
+      <c r="D20" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="37">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F20" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="39" t="s">
+      <c r="G20" s="38" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="A21" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="37">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="F21" s="37" t="s">
+      <c r="F21" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="G21" s="38" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="44" t="s">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+      <c r="A22" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E22" s="37">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F22" s="37" t="s">
+      <c r="F22" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="G22" s="39" t="s">
+      <c r="G22" s="38" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="44" t="s">
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="A23" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="38">
+      <c r="E23" s="37">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="G23" s="39" t="s">
+      <c r="G23" s="38" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
+    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+      <c r="A24" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="38">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F24" s="37" t="s">
+      <c r="D24" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="37">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F24" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="G24" s="39" t="s">
+      <c r="G24" s="38" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="44" t="s">
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+      <c r="A25" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="38">
+      <c r="E25" s="37">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F25" s="37" t="s">
+      <c r="F25" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="G25" s="39" t="s">
+      <c r="G25" s="38" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.3">
+      <c r="A26" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="38">
+      <c r="E26" s="37">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F26" s="37" t="s">
+      <c r="F26" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="G26" s="39" t="s">
+      <c r="G26" s="38" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="44" t="s">
+    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.3">
+      <c r="A27" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="38">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F27" s="37" t="s">
+      <c r="D27" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="37">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F27" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="G27" s="39" t="s">
+      <c r="G27" s="38" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="44" t="s">
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.3">
+      <c r="A28" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="38">
+      <c r="E28" s="37">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F28" s="37" t="s">
+      <c r="F28" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="G28" s="39" t="s">
+      <c r="G28" s="38" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="A29" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="38">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F29" s="37" t="s">
+      <c r="D29" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="37">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F29" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="G29" s="39" t="s">
+      <c r="G29" s="38" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="A30" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="38">
+      <c r="E30" s="37">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F30" s="37" t="s">
+      <c r="F30" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="G30" s="39" t="s">
+      <c r="G30" s="38" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="44" t="s">
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="A31" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="38">
+      <c r="E31" s="37">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="F31" s="37" t="s">
+      <c r="F31" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="G31" s="39" t="s">
+      <c r="G31" s="38" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A32" s="44" t="s">
+    <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.3">
+      <c r="A32" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32" s="37">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="F32" s="37" t="s">
+      <c r="F32" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="G32" s="39" t="s">
+      <c r="G32" s="38" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A33" s="44" t="s">
+    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+      <c r="A33" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="37" t="s">
+      <c r="D33" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="38">
+      <c r="E33" s="37">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="F33" s="37" t="s">
+      <c r="F33" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="G33" s="39" t="s">
+      <c r="G33" s="38" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+      <c r="A34" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="40" t="s">
+      <c r="C34" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34" s="38">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F34" s="37" t="s">
+      <c r="D34" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="37">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F34" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="G34" s="39" t="s">
+      <c r="G34" s="38" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
+    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+      <c r="A35" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="37" t="s">
+      <c r="D35" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="38">
+      <c r="E35" s="37">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F35" s="37" t="s">
+      <c r="F35" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="G35" s="39" t="s">
+      <c r="G35" s="38" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="44" t="s">
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.3">
+      <c r="A36" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="40" t="s">
+      <c r="C36" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" s="38">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F36" s="37" t="s">
+      <c r="D36" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="37">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F36" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="G36" s="39" t="s">
+      <c r="G36" s="38" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" s="44" t="s">
+    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+      <c r="A37" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="C37" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" s="38">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F37" s="37" t="s">
+      <c r="D37" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="37">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F37" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="G37" s="39" t="s">
+      <c r="G37" s="38" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="44" t="s">
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="A38" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="37" t="s">
+      <c r="B38" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="40" t="s">
+      <c r="C38" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="38">
+      <c r="E38" s="37">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F38" s="37" t="s">
+      <c r="F38" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="G38" s="39" t="s">
+      <c r="G38" s="38" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A39" s="44" t="s">
+    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+      <c r="A39" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="40" t="s">
+      <c r="C39" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="37" t="s">
+      <c r="D39" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="38">
+      <c r="E39" s="37">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F39" s="37" t="s">
+      <c r="F39" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="G39" s="39" t="s">
+      <c r="G39" s="38" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="44" t="s">
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="A40" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="B40" s="37" t="s">
+      <c r="B40" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="37" t="s">
+      <c r="C40" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="37" t="s">
+      <c r="D40" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="38">
+      <c r="E40" s="37">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F40" s="37" t="s">
+      <c r="F40" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G40" s="39" t="s">
+      <c r="G40" s="38" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A41" s="44" t="s">
+    <row r="41" spans="1:7" ht="135" x14ac:dyDescent="0.3">
+      <c r="A41" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="37" t="s">
+      <c r="B41" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="40" t="s">
+      <c r="C41" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="E41" s="38">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F41" s="37" t="s">
+      <c r="D41" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="37">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F41" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G41" s="39" t="s">
+      <c r="G41" s="38" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A42" s="44" t="s">
+    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.3">
+      <c r="A42" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="37" t="s">
+      <c r="B42" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="37" t="s">
+      <c r="C42" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="37" t="s">
+      <c r="D42" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="38">
+      <c r="E42" s="37">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F42" s="37" t="s">
+      <c r="F42" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G42" s="39" t="s">
+      <c r="G42" s="38" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A43" s="44" t="s">
+    <row r="43" spans="1:7" ht="165" x14ac:dyDescent="0.3">
+      <c r="A43" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="37" t="s">
+      <c r="B43" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="37" t="s">
+      <c r="C43" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" s="38">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F43" s="37" t="s">
+      <c r="D43" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="37">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F43" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G43" s="39" t="s">
+      <c r="G43" s="38" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A44" s="44" t="s">
+    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.3">
+      <c r="A44" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="37" t="s">
+      <c r="B44" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="37" t="s">
+      <c r="C44" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="E44" s="38">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F44" s="37" t="s">
+      <c r="D44" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="37">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F44" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G44" s="39" t="s">
+      <c r="G44" s="38" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="44" t="s">
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="A45" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="C45" s="41" t="s">
+      <c r="C45" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="D45" s="41" t="s">
+      <c r="D45" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E45" s="38">
+      <c r="E45" s="37">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F45" s="42" t="s">
+      <c r="F45" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="G45" s="43" t="s">
+      <c r="G45" s="42" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="44" t="s">
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="A46" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="C46" s="41" t="s">
+      <c r="C46" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="D46" s="41" t="s">
+      <c r="D46" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E46" s="38">
+      <c r="E46" s="37">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F46" s="42" t="s">
+      <c r="F46" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="G46" s="43" t="s">
+      <c r="G46" s="42" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="44" t="s">
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="A47" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="C47" s="41" t="s">
+      <c r="C47" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="D47" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="E47" s="38">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F47" s="41" t="s">
+      <c r="D47" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="37">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F47" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="G47" s="43" t="s">
+      <c r="G47" s="42" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="44" t="s">
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="A48" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="C48" s="41" t="s">
+      <c r="C48" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="D48" s="41" t="s">
+      <c r="D48" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="38">
+      <c r="E48" s="37">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F48" s="41" t="s">
+      <c r="F48" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="G48" s="43" t="s">
+      <c r="G48" s="42" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="44" t="s">
+    <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="C49" s="41" t="s">
+      <c r="C49" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="D49" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="E49" s="38">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F49" s="43" t="s">
+      <c r="D49" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" s="37">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F49" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="G49" s="43" t="s">
+      <c r="G49" s="42" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="44" t="s">
+    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B50" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="C50" s="41" t="s">
+      <c r="C50" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="D50" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="E50" s="38">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F50" s="43" t="s">
+      <c r="D50" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="37">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F50" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="42" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="44" t="s">
+    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="B51" s="41" t="s">
+      <c r="B51" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="C51" s="41" t="s">
+      <c r="C51" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="E51" s="38">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F51" s="43" t="s">
+      <c r="D51" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="37">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F51" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="G51" s="43" t="s">
+      <c r="G51" s="42" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="44" t="s">
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="A52" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="B52" s="41" t="s">
+      <c r="B52" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="C52" s="41" t="s">
+      <c r="C52" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="D52" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="E52" s="38">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F52" s="42" t="s">
+      <c r="D52" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="37">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F52" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="G52" s="43" t="s">
+      <c r="G52" s="42" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="44" t="s">
+    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+      <c r="A53" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="B53" s="41" t="s">
+      <c r="B53" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="C53" s="41" t="s">
+      <c r="C53" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="D53" s="41" t="s">
+      <c r="D53" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E53" s="38">
+      <c r="E53" s="37">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F53" s="42" t="s">
+      <c r="F53" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="G53" s="43" t="s">
+      <c r="G53" s="42" t="s">
         <v>132</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:G44">
-    <sortState ref="A9:G44">
+  <autoFilter ref="A8:G44" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:G44">
       <sortCondition ref="A8:A44"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D44">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D44" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4336,7 +4327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -4344,76 +4335,124 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="17" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" style="17" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" style="17" customWidth="1"/>
-    <col min="230" max="16384" width="11.5703125" style="17"/>
+    <col min="1" max="1" width="4.6640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" style="17" customWidth="1"/>
+    <col min="9" max="229" width="8.6640625" style="17" customWidth="1"/>
+    <col min="230" max="16384" width="11.5546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C1" s="16"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C2" s="16"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C3" s="16"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C4" s="16"/>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1"/>
+      <c r="C1" s="1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2"/>
+      <c r="C2" s="1"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3"/>
+      <c r="C3" s="1"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4"/>
+      <c r="C4" s="1"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="G5"/>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
       <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="C7" s="16"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="G6"/>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="8"/>
+      <c r="B7"/>
+      <c r="C7" s="1"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
@@ -4426,21 +4465,21 @@
       <c r="D9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <f>IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
         <v>60</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="27" t="s">
         <v>139</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="22" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
@@ -4450,22 +4489,22 @@
       <c r="C10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="23">
         <f t="shared" ref="E10:E15" si="0">IF(D10="Complex", 240, IF(D10="Medium",120,60))</f>
         <v>120</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="27" t="s">
         <v>139</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H10" s="23"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H10" s="22"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
@@ -4475,131 +4514,131 @@
       <c r="C11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="22" t="s">
         <v>134</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H11" s="23"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="24" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="24">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F12" s="23" t="s">
+      <c r="E12" s="23">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F12" s="22" t="s">
         <v>139</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H12" s="26"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H12" s="25"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="23">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="22" t="s">
         <v>139</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H13" s="26"/>
-    </row>
-    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="H13" s="25"/>
+    </row>
+    <row r="14" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="26" t="s">
         <v>92</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="24">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F14" s="23" t="s">
+      <c r="E14" s="23">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F14" s="22" t="s">
         <v>139</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H14" s="26"/>
-    </row>
-    <row r="15" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="H14" s="25"/>
+    </row>
+    <row r="15" spans="1:8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="24">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F15" s="23" t="s">
+      <c r="D15" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="23">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F15" s="22" t="s">
         <v>139</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="22" t="s">
         <v>138</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F15"/>
+  <autoFilter ref="A8:F15" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G15" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4610,7 +4649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -4618,282 +4657,282 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" customWidth="1"/>
+    <col min="9" max="229" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="46">
+      <c r="D9" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="45">
         <f>IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
         <v>60</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="22" t="s">
         <v>136</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="23"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="45">
         <f t="shared" ref="E10:E16" si="0">IF(D10="Complex", 240, IF(D10="Medium",120,60))</f>
         <v>240</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="22" t="s">
         <v>136</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H10" s="23"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="22"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="46">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F11" s="23" t="s">
+      <c r="D11" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="45">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>174</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H11" s="23"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="46">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F12" s="23" t="s">
+      <c r="D12" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="45">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F12" s="22" t="s">
         <v>140</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H12" s="23"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="22"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="45">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="22" t="s">
         <v>139</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H13" s="23"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13" s="22"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="45">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="27" t="s">
         <v>140</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H14" s="23"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="45">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="27" t="s">
         <v>140</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H15" s="23"/>
-    </row>
-    <row r="16" spans="1:8" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" spans="1:8" s="17" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>176</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="45">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="22" t="s">
         <v>134</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H16" s="26"/>
+      <c r="H16" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F14"/>
+  <autoFilter ref="A8:F14" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G16" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D16">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D16" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4904,474 +4943,474 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" customWidth="1"/>
+    <col min="9" max="229" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="21">
         <f>IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
         <v>120</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="22" t="s">
         <v>134</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="23"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="21">
         <f t="shared" ref="E10:E23" si="0">IF(D10="Complex", 240, IF(D10="Medium",120,60))</f>
         <v>120</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="22" t="s">
         <v>137</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H10" s="23"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="22"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="21">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="22" t="s">
         <v>137</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H11" s="23"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="22">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F12" s="23" t="s">
+      <c r="D12" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="21">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F12" s="22" t="s">
         <v>137</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H12" s="23"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="22"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="21">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="22" t="s">
         <v>137</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H13" s="23"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13" s="22"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="22">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="F14" s="23" t="s">
+      <c r="D14" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="21">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F14" s="22" t="s">
         <v>134</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H14" s="23"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="22">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F15" s="23" t="s">
+      <c r="D15" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="21">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="F15" s="22" t="s">
         <v>134</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H15" s="23"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="22">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F16" s="23" t="s">
+      <c r="D16" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="21">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F16" s="22" t="s">
         <v>134</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H16" s="23"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="22"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="21">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="22" t="s">
         <v>134</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H17" s="23"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="22"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="21">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="22" t="s">
         <v>140</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H18" s="23"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="22"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="22">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F19" s="23" t="s">
+      <c r="D19" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="21">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F19" s="22" t="s">
         <v>140</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H19" s="23"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="22"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="22">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F20" s="23" t="s">
+      <c r="D20" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="21">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F20" s="22" t="s">
         <v>136</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H20" s="23"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="22"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="21">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="29" t="s">
         <v>136</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H21" s="23"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="22"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="22">
+      <c r="D22" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="21">
         <v>120</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="29" t="s">
         <v>140</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="H22" s="23"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="22"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="22">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F23" s="30" t="s">
+      <c r="D23" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="21">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F23" s="29" t="s">
         <v>140</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H23" s="23"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
+      <c r="H23" s="22"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="30"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F23"/>
+  <autoFilter ref="A8:F23" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D19">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D19" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5382,465 +5421,465 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" customWidth="1"/>
+    <col min="9" max="229" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="32">
         <f>IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
         <v>120</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="G9" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="H9" s="34"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="33"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="33">
+      <c r="D10" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="32">
         <f t="shared" ref="E10:E23" si="0">IF(D10="Complex", 240, IF(D10="Medium",120,60))</f>
         <v>60</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H10" s="34"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="33"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F11" s="34" t="s">
+      <c r="D11" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="32">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F11" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H11" s="34"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="33"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="32">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H12" s="34"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="33"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="32">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H13" s="34"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13" s="33"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="32">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="G14" s="35" t="s">
+      <c r="G14" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H14" s="34"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" s="33"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F15" s="34" t="s">
+      <c r="D15" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="32">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F15" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H15" s="34"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" s="33"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F16" s="34" t="s">
+      <c r="D16" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="32">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F16" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H16" s="34"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="33"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F17" s="34" t="s">
+      <c r="D17" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="32">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F17" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H17" s="34"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="33"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="32">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="G18" s="35" t="s">
+      <c r="G18" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H18" s="34"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="33"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F19" s="36" t="s">
+      <c r="D19" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="32">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F19" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H19" s="34"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="33"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F20" s="36" t="s">
+      <c r="D20" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="32">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F20" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="G20" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H20" s="34"/>
-    </row>
-    <row r="21" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H20" s="33"/>
+    </row>
+    <row r="21" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F21" s="36" t="s">
+      <c r="D21" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="32">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F21" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H21" s="34"/>
-    </row>
-    <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H21" s="33"/>
+    </row>
+    <row r="22" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E22" s="32">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="G22" s="35" t="s">
+      <c r="G22" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H22" s="34"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="33"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="32">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F23" s="36" t="s">
+      <c r="F23" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="G23" s="35" t="s">
+      <c r="G23" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H23" s="34"/>
+      <c r="H23" s="33"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F23"/>
+  <autoFilter ref="A8:F23" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5851,327 +5890,327 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="F6" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="32">
         <f>IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
         <v>120</v>
       </c>
-      <c r="F9" s="47">
-        <v>1</v>
-      </c>
-      <c r="G9" s="35" t="s">
+      <c r="F9" s="46">
+        <v>1</v>
+      </c>
+      <c r="G9" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="34"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="33"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="33">
+      <c r="D10" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="32">
         <f t="shared" ref="E10:E15" si="0">IF(D10="Complex", 240, IF(D10="Medium",120,60))</f>
         <v>60</v>
       </c>
-      <c r="F10" s="47">
-        <v>1</v>
-      </c>
-      <c r="G10" s="35" t="s">
+      <c r="F10" s="46">
+        <v>1</v>
+      </c>
+      <c r="G10" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H10" s="34"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="33"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F11" s="47">
-        <v>1</v>
-      </c>
-      <c r="G11" s="35" t="s">
+      <c r="D11" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="32">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F11" s="46">
+        <v>1</v>
+      </c>
+      <c r="G11" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H11" s="34"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="33"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="32">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F12" s="47">
-        <v>1</v>
-      </c>
-      <c r="G12" s="35" t="s">
+      <c r="F12" s="46">
+        <v>1</v>
+      </c>
+      <c r="G12" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H12" s="34"/>
-    </row>
-    <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H12" s="33"/>
+    </row>
+    <row r="13" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="32">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F13" s="47">
-        <v>1</v>
-      </c>
-      <c r="G13" s="35" t="s">
+      <c r="F13" s="46">
+        <v>1</v>
+      </c>
+      <c r="G13" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H13" s="34"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13" s="33"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="32">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="F14" s="47">
-        <v>1</v>
-      </c>
-      <c r="G14" s="35" t="s">
+      <c r="F14" s="46">
+        <v>1</v>
+      </c>
+      <c r="G14" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H14" s="34"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" s="33"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F15" s="47">
+      <c r="D15" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="32">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F15" s="46">
         <v>2</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H15" s="34"/>
-    </row>
-    <row r="16" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H15" s="33"/>
+    </row>
+    <row r="16" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="32">
         <f t="shared" ref="E16:E17" si="1">IF(D16="Complex", 240, IF(D16="Medium",120,60))</f>
         <v>120</v>
       </c>
-      <c r="F16" s="47">
+      <c r="F16" s="46">
         <v>4</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H16" s="34"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="33"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="32">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="F17" s="47">
+      <c r="F17" s="46">
         <v>4</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H17" s="34"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="33"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G17" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6181,460 +6220,460 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="32">
         <f>IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
         <v>120</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H9" s="34"/>
-    </row>
-    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H9" s="33"/>
+    </row>
+    <row r="10" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="33">
+      <c r="D10" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="32">
         <f t="shared" ref="E10:E23" si="0">IF(D10="Complex", 240, IF(D10="Medium",120,60))</f>
         <v>60</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H10" s="34"/>
-    </row>
-    <row r="11" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="H10" s="33"/>
+    </row>
+    <row r="11" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F11" s="34" t="s">
+      <c r="D11" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="32">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F11" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H11" s="34"/>
-    </row>
-    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H11" s="33"/>
+    </row>
+    <row r="12" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="32">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H12" s="34"/>
-    </row>
-    <row r="13" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="H12" s="33"/>
+    </row>
+    <row r="13" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="32">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H13" s="34"/>
-    </row>
-    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H13" s="33"/>
+    </row>
+    <row r="14" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="32">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="G14" s="35" t="s">
+      <c r="G14" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H14" s="34"/>
-    </row>
-    <row r="15" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="H14" s="33"/>
+    </row>
+    <row r="15" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F15" s="34" t="s">
+      <c r="D15" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="32">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F15" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H15" s="34"/>
-    </row>
-    <row r="16" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="H15" s="33"/>
+    </row>
+    <row r="16" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F16" s="34" t="s">
+      <c r="D16" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="32">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F16" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H16" s="34"/>
-    </row>
-    <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H16" s="33"/>
+    </row>
+    <row r="17" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F17" s="34" t="s">
+      <c r="D17" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="32">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F17" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H17" s="34"/>
-    </row>
-    <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H17" s="33"/>
+    </row>
+    <row r="18" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="32">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="G18" s="35" t="s">
+      <c r="G18" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H18" s="34"/>
-    </row>
-    <row r="19" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H18" s="33"/>
+    </row>
+    <row r="19" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F19" s="36" t="s">
+      <c r="D19" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="32">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F19" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H19" s="34"/>
-    </row>
-    <row r="20" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H19" s="33"/>
+    </row>
+    <row r="20" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F20" s="36" t="s">
+      <c r="D20" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="32">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F20" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="G20" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H20" s="34"/>
-    </row>
-    <row r="21" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="H20" s="33"/>
+    </row>
+    <row r="21" spans="1:8" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F21" s="36" t="s">
+      <c r="D21" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="32">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F21" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H21" s="34"/>
-    </row>
-    <row r="22" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="H21" s="33"/>
+    </row>
+    <row r="22" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E22" s="32">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="G22" s="35" t="s">
+      <c r="G22" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H22" s="34"/>
-    </row>
-    <row r="23" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H22" s="33"/>
+    </row>
+    <row r="23" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="32">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F23" s="36" t="s">
+      <c r="F23" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="G23" s="35" t="s">
+      <c r="G23" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H23" s="34"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="33"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6644,460 +6683,460 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I25"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="32">
         <f>IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
         <v>120</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H9" s="34"/>
-    </row>
-    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H9" s="33"/>
+    </row>
+    <row r="10" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="33">
+      <c r="D10" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="32">
         <f t="shared" ref="E10:E23" si="0">IF(D10="Complex", 240, IF(D10="Medium",120,60))</f>
         <v>60</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H10" s="34"/>
-    </row>
-    <row r="11" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="H10" s="33"/>
+    </row>
+    <row r="11" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F11" s="34" t="s">
+      <c r="D11" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="32">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F11" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H11" s="34"/>
-    </row>
-    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H11" s="33"/>
+    </row>
+    <row r="12" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="32">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H12" s="34"/>
-    </row>
-    <row r="13" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="H12" s="33"/>
+    </row>
+    <row r="13" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="32">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H13" s="34"/>
-    </row>
-    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H13" s="33"/>
+    </row>
+    <row r="14" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="32">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="G14" s="35" t="s">
+      <c r="G14" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H14" s="34"/>
-    </row>
-    <row r="15" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="H14" s="33"/>
+    </row>
+    <row r="15" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F15" s="34" t="s">
+      <c r="D15" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="32">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F15" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H15" s="34"/>
-    </row>
-    <row r="16" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="H15" s="33"/>
+    </row>
+    <row r="16" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F16" s="34" t="s">
+      <c r="D16" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="32">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F16" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H16" s="34"/>
-    </row>
-    <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H16" s="33"/>
+    </row>
+    <row r="17" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F17" s="34" t="s">
+      <c r="D17" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="32">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F17" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H17" s="34"/>
-    </row>
-    <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H17" s="33"/>
+    </row>
+    <row r="18" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="32">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="G18" s="35" t="s">
+      <c r="G18" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H18" s="34"/>
-    </row>
-    <row r="19" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H18" s="33"/>
+    </row>
+    <row r="19" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F19" s="36" t="s">
+      <c r="D19" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="32">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F19" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H19" s="34"/>
-    </row>
-    <row r="20" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H19" s="33"/>
+    </row>
+    <row r="20" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F20" s="36" t="s">
+      <c r="D20" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="32">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F20" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="G20" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H20" s="34"/>
-    </row>
-    <row r="21" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="H20" s="33"/>
+    </row>
+    <row r="21" spans="1:8" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F21" s="36" t="s">
+      <c r="D21" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="32">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F21" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H21" s="34"/>
-    </row>
-    <row r="22" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="H21" s="33"/>
+    </row>
+    <row r="22" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E22" s="32">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="G22" s="35" t="s">
+      <c r="G22" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H22" s="34"/>
-    </row>
-    <row r="23" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H22" s="33"/>
+    </row>
+    <row r="23" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="32">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F23" s="36" t="s">
+      <c r="F23" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="G23" s="35" t="s">
+      <c r="G23" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H23" s="34"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="33"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTU\Sem5\SWP391\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SWP391\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14830E0-0AFF-416D-A491-68FD94E7A996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -33,7 +32,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Product!$A$8:$G$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RoC!$A$3:$C$10</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -682,7 +681,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1013,7 +1012,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 5" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2114,7 +2113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -2221,14 +2220,14 @@
       <c r="D10" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C10" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:C10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -2678,10 +2677,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23" xr:uid="{00000000-0002-0000-0900-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2691,7 +2690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3141,10 +3140,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18" xr:uid="{00000000-0002-0000-0A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23" xr:uid="{00000000-0002-0000-0A00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3154,7 +3153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -4309,14 +4308,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:G44" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:G44">
+  <autoFilter ref="A8:G44">
+    <sortState ref="A9:G44">
       <sortCondition ref="A8:A44"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D44" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D44">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4327,7 +4326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -4632,13 +4631,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F15" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A8:F15"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G15" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G15">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4649,7 +4648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -4926,13 +4925,13 @@
       <c r="H16" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F14" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A8:F14"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G16" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G16">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D16" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D16">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4943,13 +4942,13 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
@@ -5404,13 +5403,13 @@
       <c r="H24" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F23" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A8:F23"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D19" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D19">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5421,15 +5420,15 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5643,7 +5642,7 @@
         <v>136</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="H14" s="33"/>
     </row>
@@ -5873,13 +5872,13 @@
       <c r="H23" s="33"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F23" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <autoFilter ref="A8:F23"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5890,7 +5889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6207,10 +6206,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G17" xr:uid="{00000000-0002-0000-0600-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G17">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6220,7 +6219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6670,10 +6669,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23" xr:uid="{00000000-0002-0000-0700-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6683,7 +6682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7133,10 +7132,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23" xr:uid="{00000000-0002-0000-0800-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="196">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC</t>
   </si>
@@ -615,12 +615,6 @@
 Stored, Admin can control the customer's favorite products and are listed into a list. From there, the shop can make some business plans</t>
   </si>
   <si>
-    <t>Suppliers Detail 2</t>
-  </si>
-  <si>
-    <t>Admin will be able to add  supplier information</t>
-  </si>
-  <si>
     <t>44</t>
   </si>
   <si>
@@ -630,9 +624,6 @@
     <t>Suppliers Details</t>
   </si>
   <si>
-    <t>Suppliers Details 2</t>
-  </si>
-  <si>
     <t>Products Color</t>
   </si>
   <si>
@@ -676,6 +667,48 @@
   </si>
   <si>
     <t>TASKS OF MEMBER</t>
+  </si>
+  <si>
+    <t>Shippers List</t>
+  </si>
+  <si>
+    <t>15/05/2022</t>
+  </si>
+  <si>
+    <t>25/05/2022</t>
+  </si>
+  <si>
+    <t>create new</t>
+  </si>
+  <si>
+    <t>30/05/2022</t>
+  </si>
+  <si>
+    <t>create products, iteration 1 2 3 4</t>
+  </si>
+  <si>
+    <t>update content product, iteration 1 2 3 4</t>
+  </si>
+  <si>
+    <t>update status interation 1 2 3</t>
+  </si>
+  <si>
+    <t>1/6/2022 - 27/06/2022</t>
+  </si>
+  <si>
+    <t>update status interation  3 4</t>
+  </si>
+  <si>
+    <t>28/06/2022 -</t>
+  </si>
+  <si>
+    <t>Shipper List</t>
+  </si>
+  <si>
+    <t>Admin will be able to add,edit, view list  shipper information</t>
+  </si>
+  <si>
+    <t>include(add,view,edit,delete)</t>
   </si>
 </sst>
 </file>
@@ -890,7 +923,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1018,6 +1051,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1161,6 +1197,80 @@
         <a:xfrm>
           <a:off x="2324389" y="0"/>
           <a:ext cx="3133434" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219364</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>380998</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 3" descr="2017-FPTU-L-01">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6389CF4C-730B-6A49-9892-6AA66DEAF33A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2429164" y="0"/>
+          <a:ext cx="2400009" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1666,11 +1776,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -1686,7 +1791,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
+        <xdr:cNvPr id="3" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6389CF4C-730B-6A49-9892-6AA66DEAF33A}"/>
@@ -1712,8 +1817,161 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2324389" y="0"/>
-          <a:ext cx="3133434" cy="762000"/>
+          <a:off x="2429164" y="0"/>
+          <a:ext cx="2400009" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219364</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>380998</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 3" descr="2017-FPTU-L-01">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6389CF4C-730B-6A49-9892-6AA66DEAF33A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2429164" y="0"/>
+          <a:ext cx="2400009" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219364</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>380998</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="2017-FPTU-L-01">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6389CF4C-730B-6A49-9892-6AA66DEAF33A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2429164" y="0"/>
+          <a:ext cx="2400009" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1793,6 +2051,80 @@
         <a:xfrm>
           <a:off x="2324389" y="0"/>
           <a:ext cx="3133434" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219364</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>380998</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="2017-FPTU-L-01">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6389CF4C-730B-6A49-9892-6AA66DEAF33A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2429164" y="0"/>
+          <a:ext cx="2400009" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2129,16 +2461,16 @@
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
     <col min="4" max="4" width="71.7109375" customWidth="1"/>
     <col min="5" max="225" width="8.7109375" customWidth="1"/>
   </cols>
@@ -2171,45 +2503,75 @@
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="12"/>
+      <c r="B4" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <f t="shared" ref="A5:A10" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="12"/>
+      <c r="B7" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="12"/>
+      <c r="B8" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -2240,8 +2602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2271,7 +2633,7 @@
     <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="F6" s="3" t="s">
-        <v>31</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -2295,7 +2657,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>28</v>
@@ -2308,24 +2670,24 @@
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>32</v>
+      <c r="B9" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="33">
         <f>IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
-        <v>120</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>140</v>
+        <v>60</v>
+      </c>
+      <c r="F9" s="47">
+        <v>1</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="H9" s="34"/>
     </row>
@@ -2333,8 +2695,8 @@
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>38</v>
+      <c r="B10" s="27" t="s">
+        <v>13</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>11</v>
@@ -2343,23 +2705,23 @@
         <v>1</v>
       </c>
       <c r="E10" s="33">
-        <f t="shared" ref="E10:E23" si="0">IF(D10="Complex", 240, IF(D10="Medium",120,60))</f>
+        <f t="shared" ref="E10:E17" si="0">IF(D10="Complex", 240, IF(D10="Medium",120,60))</f>
         <v>60</v>
       </c>
-      <c r="F10" s="23" t="s">
-        <v>140</v>
+      <c r="F10" s="47">
+        <v>1</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="H10" s="34"/>
     </row>
-    <row r="11" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>19</v>
@@ -2371,11 +2733,11 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F11" s="34" t="s">
-        <v>140</v>
+      <c r="F11" s="47">
+        <v>1</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="H11" s="34"/>
     </row>
@@ -2384,7 +2746,7 @@
         <v>59</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>19</v>
@@ -2396,11 +2758,11 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F12" s="34" t="s">
-        <v>134</v>
+      <c r="F12" s="47">
+        <v>1</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="H12" s="34"/>
     </row>
@@ -2409,7 +2771,7 @@
         <v>60</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>11</v>
@@ -2421,11 +2783,11 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F13" s="34" t="s">
-        <v>134</v>
+      <c r="F13" s="47">
+        <v>1</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="H13" s="34"/>
     </row>
@@ -2433,24 +2795,24 @@
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>50</v>
+      <c r="B14" s="29" t="s">
+        <v>34</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" s="33">
         <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>136</v>
+        <v>120</v>
+      </c>
+      <c r="F14" s="47">
+        <v>1</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="H14" s="34"/>
     </row>
@@ -2459,23 +2821,23 @@
         <v>62</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>51</v>
+        <v>175</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>94</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="33">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>136</v>
+        <v>120</v>
+      </c>
+      <c r="F15" s="47">
+        <v>2</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="H15" s="34"/>
     </row>
@@ -2483,24 +2845,24 @@
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>11</v>
+      <c r="B16" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16" s="33">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>136</v>
+        <v>240</v>
+      </c>
+      <c r="F16" s="47">
+        <v>4</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="H16" s="34"/>
     </row>
@@ -2508,189 +2870,58 @@
       <c r="A17" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="27" t="s">
+      <c r="B17" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="29" t="s">
         <v>92</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E17" s="33">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>137</v>
+        <v>240</v>
+      </c>
+      <c r="F17" s="47">
+        <v>4</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>133</v>
       </c>
       <c r="H17" s="34"/>
     </row>
-    <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="33">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="G18" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="H18" s="34"/>
-    </row>
-    <row r="19" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="H19" s="34"/>
-    </row>
-    <row r="20" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="H20" s="34"/>
-    </row>
-    <row r="21" spans="1:8" ht="51" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="G21" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="H21" s="34"/>
-    </row>
-    <row r="22" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="33">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="G22" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="H22" s="34"/>
-    </row>
-    <row r="23" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="33">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="G23" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="H23" s="34"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D17">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G17">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2703,8 +2934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2734,7 +2965,7 @@
     <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="F6" s="3" t="s">
-        <v>31</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -2758,7 +2989,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>28</v>
@@ -2771,24 +3002,24 @@
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>32</v>
+      <c r="B9" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="33">
         <f>IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
-        <v>120</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>140</v>
+        <v>60</v>
+      </c>
+      <c r="F9" s="47">
+        <v>1</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="H9" s="34"/>
     </row>
@@ -2796,8 +3027,8 @@
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>38</v>
+      <c r="B10" s="27" t="s">
+        <v>13</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>11</v>
@@ -2806,23 +3037,23 @@
         <v>1</v>
       </c>
       <c r="E10" s="33">
-        <f t="shared" ref="E10:E23" si="0">IF(D10="Complex", 240, IF(D10="Medium",120,60))</f>
+        <f t="shared" ref="E10:E17" si="0">IF(D10="Complex", 240, IF(D10="Medium",120,60))</f>
         <v>60</v>
       </c>
-      <c r="F10" s="23" t="s">
-        <v>140</v>
+      <c r="F10" s="47">
+        <v>1</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="H10" s="34"/>
     </row>
-    <row r="11" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>19</v>
@@ -2834,11 +3065,11 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F11" s="34" t="s">
-        <v>140</v>
+      <c r="F11" s="47">
+        <v>1</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="H11" s="34"/>
     </row>
@@ -2847,7 +3078,7 @@
         <v>59</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>19</v>
@@ -2859,11 +3090,11 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F12" s="34" t="s">
-        <v>134</v>
+      <c r="F12" s="47">
+        <v>1</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="H12" s="34"/>
     </row>
@@ -2872,7 +3103,7 @@
         <v>60</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>11</v>
@@ -2884,11 +3115,11 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F13" s="34" t="s">
-        <v>134</v>
+      <c r="F13" s="47">
+        <v>1</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="H13" s="34"/>
     </row>
@@ -2896,24 +3127,24 @@
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>50</v>
+      <c r="B14" s="29" t="s">
+        <v>34</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" s="33">
         <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>136</v>
+        <v>120</v>
+      </c>
+      <c r="F14" s="47">
+        <v>1</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="H14" s="34"/>
     </row>
@@ -2922,23 +3153,23 @@
         <v>62</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>51</v>
+        <v>175</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>94</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="33">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>136</v>
+        <v>120</v>
+      </c>
+      <c r="F15" s="47">
+        <v>2</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="H15" s="34"/>
     </row>
@@ -2946,24 +3177,24 @@
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>11</v>
+      <c r="B16" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16" s="33">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>136</v>
+        <v>240</v>
+      </c>
+      <c r="F16" s="47">
+        <v>4</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="H16" s="34"/>
     </row>
@@ -2971,176 +3202,29 @@
       <c r="A17" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="27" t="s">
+      <c r="B17" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="29" t="s">
         <v>92</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E17" s="33">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>137</v>
+        <v>240</v>
+      </c>
+      <c r="F17" s="47">
+        <v>4</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>133</v>
       </c>
       <c r="H17" s="34"/>
     </row>
-    <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="33">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="G18" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="H18" s="34"/>
-    </row>
-    <row r="19" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="H19" s="34"/>
-    </row>
-    <row r="20" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="H20" s="34"/>
-    </row>
-    <row r="21" spans="1:8" ht="51" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="G21" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="H21" s="34"/>
-    </row>
-    <row r="22" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="33">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="G22" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="H22" s="34"/>
-    </row>
-    <row r="23" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="33">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="G23" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="H23" s="34"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
@@ -3150,10 +3234,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D17">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G17">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3170,8 +3254,8 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3338,7 +3422,7 @@
         <v>60</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C13" s="40" t="s">
         <v>11</v>
@@ -3351,7 +3435,7 @@
         <v>120</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G13" s="39" t="s">
         <v>129</v>
@@ -3362,7 +3446,7 @@
         <v>61</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C14" s="40" t="s">
         <v>11</v>
@@ -3375,7 +3459,7 @@
         <v>120</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G14" s="39" t="s">
         <v>129</v>
@@ -3602,17 +3686,17 @@
         <v>71</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>32</v>
+        <v>179</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" s="38">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F24" s="37" t="s">
         <v>115</v>
@@ -4221,12 +4305,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="44" t="s">
         <v>151</v>
       </c>
       <c r="B50" s="41" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="C50" s="41" t="s">
         <v>92</v>
@@ -4239,7 +4323,7 @@
         <v>60</v>
       </c>
       <c r="F50" s="43" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="G50" s="43" t="s">
         <v>131</v>
@@ -4271,7 +4355,7 @@
     </row>
     <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B52" s="41" t="s">
         <v>154</v>
@@ -4295,7 +4379,7 @@
     </row>
     <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="44" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B53" s="41" t="s">
         <v>161</v>
@@ -4545,7 +4629,7 @@
         <v>61</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>92</v>
@@ -4754,7 +4838,7 @@
         <v>60</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>133</v>
@@ -4766,7 +4850,7 @@
         <v>59</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>11</v>
@@ -4791,7 +4875,7 @@
         <v>60</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>11</v>
@@ -4866,7 +4950,7 @@
         <v>63</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>11</v>
@@ -4911,8 +4995,8 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <pane ySplit="8" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5035,7 +5119,7 @@
         <v>58</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>93</v>
@@ -5210,7 +5294,7 @@
         <v>65</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>11</v>
@@ -5310,7 +5394,7 @@
         <v>69</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>92</v>
@@ -5325,7 +5409,7 @@
         <v>140</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H22" s="23"/>
     </row>
@@ -5334,7 +5418,7 @@
         <v>70</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="C23" s="29" t="s">
         <v>92</v>
@@ -5352,7 +5436,9 @@
       <c r="G23" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H23" s="23"/>
+      <c r="H23" s="23" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="31"/>
@@ -5390,7 +5476,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5479,7 +5565,7 @@
         <v>140</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H9" s="34"/>
     </row>
@@ -5504,7 +5590,7 @@
         <v>140</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H10" s="34"/>
     </row>
@@ -5529,7 +5615,7 @@
         <v>140</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H11" s="34"/>
     </row>
@@ -5554,7 +5640,7 @@
         <v>134</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H12" s="34"/>
     </row>
@@ -5579,7 +5665,7 @@
         <v>134</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H13" s="34"/>
     </row>
@@ -5604,7 +5690,7 @@
         <v>136</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H14" s="34"/>
     </row>
@@ -5629,7 +5715,7 @@
         <v>136</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H15" s="34"/>
     </row>
@@ -5654,7 +5740,7 @@
         <v>136</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H16" s="34"/>
     </row>
@@ -5713,7 +5799,7 @@
         <v>66</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>11</v>
@@ -5738,7 +5824,7 @@
         <v>67</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C20" s="29" t="s">
         <v>93</v>
@@ -5763,7 +5849,7 @@
         <v>68</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C21" s="29" t="s">
         <v>93</v>
@@ -5779,7 +5865,7 @@
         <v>137</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H21" s="34"/>
     </row>
@@ -5854,8 +5940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5892,7 +5978,7 @@
     <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="F6" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -5916,7 +6002,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>28</v>
@@ -5936,11 +6022,11 @@
         <v>19</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="33">
         <f>IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F9" s="47">
         <v>1</v>
@@ -6030,7 +6116,7 @@
         <v>60</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>11</v>
@@ -6061,11 +6147,11 @@
         <v>19</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" s="33">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="F14" s="47">
         <v>1</v>
@@ -6080,17 +6166,17 @@
         <v>62</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>94</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="33">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F15" s="47">
         <v>2</v>
@@ -6110,12 +6196,12 @@
       <c r="C16" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="29" t="s">
-        <v>2</v>
+      <c r="D16" s="25" t="s">
+        <v>3</v>
       </c>
       <c r="E16" s="33">
         <f t="shared" ref="E16:E17" si="1">IF(D16="Complex", 240, IF(D16="Medium",120,60))</f>
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="F16" s="47">
         <v>4</v>
@@ -6135,12 +6221,12 @@
       <c r="C17" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="29" t="s">
-        <v>2</v>
+      <c r="D17" s="25" t="s">
+        <v>3</v>
       </c>
       <c r="E17" s="33">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="F17" s="47">
         <v>4</v>
@@ -6168,7 +6254,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D17">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G17">
@@ -6184,8 +6270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I25"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6215,7 +6301,7 @@
     <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="F6" s="3" t="s">
-        <v>31</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -6239,7 +6325,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>28</v>
@@ -6252,24 +6338,24 @@
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>32</v>
+      <c r="B9" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="33">
         <f>IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
-        <v>120</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>140</v>
+        <v>60</v>
+      </c>
+      <c r="F9" s="47">
+        <v>1</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="H9" s="34"/>
     </row>
@@ -6277,8 +6363,8 @@
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>38</v>
+      <c r="B10" s="27" t="s">
+        <v>13</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>11</v>
@@ -6287,23 +6373,23 @@
         <v>1</v>
       </c>
       <c r="E10" s="33">
-        <f t="shared" ref="E10:E23" si="0">IF(D10="Complex", 240, IF(D10="Medium",120,60))</f>
+        <f t="shared" ref="E10:E17" si="0">IF(D10="Complex", 240, IF(D10="Medium",120,60))</f>
         <v>60</v>
       </c>
-      <c r="F10" s="23" t="s">
-        <v>140</v>
+      <c r="F10" s="47">
+        <v>1</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="H10" s="34"/>
     </row>
-    <row r="11" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>19</v>
@@ -6315,11 +6401,11 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F11" s="34" t="s">
-        <v>140</v>
+      <c r="F11" s="47">
+        <v>1</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="H11" s="34"/>
     </row>
@@ -6328,7 +6414,7 @@
         <v>59</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>19</v>
@@ -6340,11 +6426,11 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F12" s="34" t="s">
-        <v>134</v>
+      <c r="F12" s="47">
+        <v>1</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="H12" s="34"/>
     </row>
@@ -6353,7 +6439,7 @@
         <v>60</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>11</v>
@@ -6365,11 +6451,11 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F13" s="34" t="s">
-        <v>134</v>
+      <c r="F13" s="47">
+        <v>1</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="H13" s="34"/>
     </row>
@@ -6377,24 +6463,24 @@
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>50</v>
+      <c r="B14" s="29" t="s">
+        <v>34</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" s="33">
         <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>136</v>
+        <v>120</v>
+      </c>
+      <c r="F14" s="47">
+        <v>1</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="H14" s="34"/>
     </row>
@@ -6403,23 +6489,23 @@
         <v>62</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>51</v>
+        <v>175</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>94</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="33">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>136</v>
+        <v>120</v>
+      </c>
+      <c r="F15" s="47">
+        <v>2</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="H15" s="34"/>
     </row>
@@ -6427,24 +6513,24 @@
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>11</v>
+      <c r="B16" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16" s="33">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>136</v>
+        <v>240</v>
+      </c>
+      <c r="F16" s="47">
+        <v>4</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="H16" s="34"/>
     </row>
@@ -6452,189 +6538,49 @@
       <c r="A17" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="27" t="s">
+      <c r="B17" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="29" t="s">
         <v>92</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E17" s="33">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>137</v>
+        <v>240</v>
+      </c>
+      <c r="F17" s="47">
+        <v>4</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>133</v>
       </c>
       <c r="H17" s="34"/>
     </row>
-    <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="33">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="G18" s="35" t="s">
-        <v>133</v>
-      </c>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
       <c r="H18" s="34"/>
     </row>
-    <row r="19" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="H19" s="34"/>
-    </row>
-    <row r="20" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="H20" s="34"/>
-    </row>
-    <row r="21" spans="1:8" ht="51" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="G21" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="H21" s="34"/>
-    </row>
-    <row r="22" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="33">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="G22" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="H22" s="34"/>
-    </row>
-    <row r="23" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="33">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="G23" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="H23" s="34"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D17">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G17">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6645,10 +6591,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I25"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6678,7 +6624,7 @@
     <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="F6" s="3" t="s">
-        <v>31</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -6702,7 +6648,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>28</v>
@@ -6715,24 +6661,24 @@
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>32</v>
+      <c r="B9" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="33">
         <f>IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
-        <v>120</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>140</v>
+        <v>60</v>
+      </c>
+      <c r="F9" s="47">
+        <v>1</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="H9" s="34"/>
     </row>
@@ -6740,8 +6686,8 @@
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>38</v>
+      <c r="B10" s="27" t="s">
+        <v>13</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>11</v>
@@ -6750,23 +6696,23 @@
         <v>1</v>
       </c>
       <c r="E10" s="33">
-        <f t="shared" ref="E10:E23" si="0">IF(D10="Complex", 240, IF(D10="Medium",120,60))</f>
+        <f t="shared" ref="E10:E17" si="0">IF(D10="Complex", 240, IF(D10="Medium",120,60))</f>
         <v>60</v>
       </c>
-      <c r="F10" s="23" t="s">
-        <v>140</v>
+      <c r="F10" s="47">
+        <v>1</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="H10" s="34"/>
     </row>
-    <row r="11" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>19</v>
@@ -6778,11 +6724,11 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F11" s="34" t="s">
-        <v>140</v>
+      <c r="F11" s="47">
+        <v>1</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="H11" s="34"/>
     </row>
@@ -6791,7 +6737,7 @@
         <v>59</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>19</v>
@@ -6803,11 +6749,11 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F12" s="34" t="s">
-        <v>134</v>
+      <c r="F12" s="47">
+        <v>1</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="H12" s="34"/>
     </row>
@@ -6816,7 +6762,7 @@
         <v>60</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>11</v>
@@ -6828,11 +6774,11 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F13" s="34" t="s">
-        <v>134</v>
+      <c r="F13" s="47">
+        <v>1</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="H13" s="34"/>
     </row>
@@ -6840,24 +6786,24 @@
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>50</v>
+      <c r="B14" s="29" t="s">
+        <v>34</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" s="33">
         <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>136</v>
+        <v>120</v>
+      </c>
+      <c r="F14" s="47">
+        <v>1</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="H14" s="34"/>
     </row>
@@ -6866,23 +6812,23 @@
         <v>62</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>51</v>
+        <v>175</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>94</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="33">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>136</v>
+        <v>120</v>
+      </c>
+      <c r="F15" s="47">
+        <v>2</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="H15" s="34"/>
     </row>
@@ -6890,24 +6836,24 @@
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>11</v>
+      <c r="B16" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16" s="33">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>136</v>
+        <v>240</v>
+      </c>
+      <c r="F16" s="47">
+        <v>4</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="H16" s="34"/>
     </row>
@@ -6915,190 +6861,50 @@
       <c r="A17" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="27" t="s">
+      <c r="B17" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="29" t="s">
         <v>92</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E17" s="33">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>137</v>
+        <v>240</v>
+      </c>
+      <c r="F17" s="47">
+        <v>4</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>133</v>
       </c>
       <c r="H17" s="34"/>
     </row>
-    <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="33">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="G18" s="35" t="s">
-        <v>133</v>
-      </c>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
       <c r="H18" s="34"/>
     </row>
-    <row r="19" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="H19" s="34"/>
-    </row>
-    <row r="20" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="H20" s="34"/>
-    </row>
-    <row r="21" spans="1:8" ht="51" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="G21" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="H21" s="34"/>
-    </row>
-    <row r="22" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="33">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="G22" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="H22" s="34"/>
-    </row>
-    <row r="23" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="33">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="G23" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="H23" s="34"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G17">
+      <formula1>"Pending, Doing, Deferred, Done"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D17">
       <formula1>"Simple,Medium,Complex"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
-      <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SWP391\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTU\Ky5\SWP391\Week 8\SWP391\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -2124,25 +2124,25 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="71.6640625" customWidth="1"/>
-    <col min="5" max="225" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="71.7109375" customWidth="1"/>
+    <col min="5" max="225" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <f>ROW()-3</f>
         <v>1</v>
@@ -2165,7 +2165,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <f t="shared" ref="A5:A10" si="0">ROW()-3</f>
         <v>2</v>
@@ -2174,7 +2174,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="12"/>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2183,7 +2183,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2192,7 +2192,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2201,7 +2201,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2210,7 +2210,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2234,41 +2234,41 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="H9" s="33"/>
     </row>
-    <row r="10" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
@@ -2344,7 +2344,7 @@
       </c>
       <c r="H10" s="33"/>
     </row>
-    <row r="11" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
@@ -2369,7 +2369,7 @@
       </c>
       <c r="H11" s="33"/>
     </row>
-    <row r="12" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>59</v>
       </c>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="H12" s="33"/>
     </row>
-    <row r="13" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>60</v>
       </c>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="H13" s="33"/>
     </row>
-    <row r="14" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="H14" s="33"/>
     </row>
-    <row r="15" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>62</v>
       </c>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="H15" s="33"/>
     </row>
-    <row r="16" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="H16" s="33"/>
     </row>
-    <row r="17" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>64</v>
       </c>
@@ -2519,7 +2519,7 @@
       </c>
       <c r="H17" s="33"/>
     </row>
-    <row r="18" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>65</v>
       </c>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H18" s="33"/>
     </row>
-    <row r="19" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>66</v>
       </c>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="H19" s="33"/>
     </row>
-    <row r="20" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>67</v>
       </c>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="H20" s="33"/>
     </row>
-    <row r="21" spans="1:8" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>68</v>
       </c>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="H21" s="33"/>
     </row>
-    <row r="22" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>69</v>
       </c>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="H22" s="33"/>
     </row>
-    <row r="23" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>70</v>
       </c>
@@ -2669,10 +2669,10 @@
       </c>
       <c r="H23" s="33"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
   </sheetData>
@@ -2697,41 +2697,41 @@
       <selection sqref="A1:I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="H9" s="33"/>
     </row>
-    <row r="10" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="H10" s="33"/>
     </row>
-    <row r="11" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="H11" s="33"/>
     </row>
-    <row r="12" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>59</v>
       </c>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="H12" s="33"/>
     </row>
-    <row r="13" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>60</v>
       </c>
@@ -2882,7 +2882,7 @@
       </c>
       <c r="H13" s="33"/>
     </row>
-    <row r="14" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="H14" s="33"/>
     </row>
-    <row r="15" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>62</v>
       </c>
@@ -2932,7 +2932,7 @@
       </c>
       <c r="H15" s="33"/>
     </row>
-    <row r="16" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="H16" s="33"/>
     </row>
-    <row r="17" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>64</v>
       </c>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="H17" s="33"/>
     </row>
-    <row r="18" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>65</v>
       </c>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="H18" s="33"/>
     </row>
-    <row r="19" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>66</v>
       </c>
@@ -3032,7 +3032,7 @@
       </c>
       <c r="H19" s="33"/>
     </row>
-    <row r="20" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>67</v>
       </c>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="H20" s="33"/>
     </row>
-    <row r="21" spans="1:8" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>68</v>
       </c>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="H21" s="33"/>
     </row>
-    <row r="22" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>69</v>
       </c>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="H22" s="33"/>
     </row>
-    <row r="23" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>70</v>
       </c>
@@ -3132,10 +3132,10 @@
       </c>
       <c r="H23" s="33"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
   </sheetData>
@@ -3164,47 +3164,47 @@
       <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="113.88671875" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="229" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="113.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="229" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="D5" s="10" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
         <v>6</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
         <v>56</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
         <v>57</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
         <v>58</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
         <v>59</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
         <v>60</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
         <v>61</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
         <v>62</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
         <v>63</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
         <v>64</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>65</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
         <v>66</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
         <v>67</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
         <v>68</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
         <v>69</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
         <v>70</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
         <v>71</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
         <v>72</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
         <v>73</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
         <v>74</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
         <v>75</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
         <v>76</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
         <v>77</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
         <v>78</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="43" t="s">
         <v>79</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A33" s="43" t="s">
         <v>80</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="43" t="s">
         <v>81</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="43" t="s">
         <v>82</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="43" t="s">
         <v>83</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="43" t="s">
         <v>84</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
         <v>85</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="43" t="s">
         <v>86</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="43" t="s">
         <v>87</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="135" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A41" s="43" t="s">
         <v>88</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" s="43" t="s">
         <v>89</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="165" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A43" s="43" t="s">
         <v>90</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A44" s="43" t="s">
         <v>91</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="43" t="s">
         <v>146</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="43" t="s">
         <v>147</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="43" t="s">
         <v>148</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="43" t="s">
         <v>149</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="43" t="s">
         <v>150</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="43" t="s">
         <v>151</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="43" t="s">
         <v>153</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="43" t="s">
         <v>166</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="43" t="s">
         <v>167</v>
       </c>
@@ -4337,21 +4337,21 @@
       <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" style="17" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="66.6640625" style="17" customWidth="1"/>
-    <col min="9" max="229" width="8.6640625" style="17" customWidth="1"/>
-    <col min="230" max="16384" width="11.5546875" style="17"/>
+    <col min="1" max="1" width="4.7109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="66.7109375" style="17" customWidth="1"/>
+    <col min="9" max="229" width="8.7109375" style="17" customWidth="1"/>
+    <col min="230" max="16384" width="11.5703125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1"/>
       <c r="C1" s="1"/>
@@ -4361,7 +4361,7 @@
       <c r="G1"/>
       <c r="H1"/>
     </row>
-    <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2"/>
       <c r="C2" s="1"/>
@@ -4371,7 +4371,7 @@
       <c r="G2"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3"/>
       <c r="C3" s="1"/>
@@ -4381,7 +4381,7 @@
       <c r="G3"/>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4"/>
       <c r="C4" s="1"/>
@@ -4391,7 +4391,7 @@
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -4403,7 +4403,7 @@
       <c r="G5"/>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -4415,7 +4415,7 @@
       <c r="G6"/>
       <c r="H6"/>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7"/>
       <c r="C7" s="1"/>
@@ -4425,7 +4425,7 @@
       <c r="G7"/>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
@@ -4503,7 +4503,7 @@
       </c>
       <c r="H10" s="22"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
@@ -4528,7 +4528,7 @@
       </c>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>59</v>
       </c>
@@ -4553,7 +4553,7 @@
       </c>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>60</v>
       </c>
@@ -4578,7 +4578,7 @@
       </c>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
@@ -4603,7 +4603,7 @@
       </c>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>62</v>
       </c>
@@ -4659,46 +4659,46 @@
       <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="66.6640625" customWidth="1"/>
-    <col min="9" max="229" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="66.7109375" customWidth="1"/>
+    <col min="9" max="229" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
@@ -4774,7 +4774,7 @@
       </c>
       <c r="H10" s="22"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
@@ -4799,7 +4799,7 @@
       </c>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>59</v>
       </c>
@@ -4824,7 +4824,7 @@
       </c>
       <c r="H12" s="22"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>60</v>
       </c>
@@ -4849,7 +4849,7 @@
       </c>
       <c r="H13" s="22"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
@@ -4874,7 +4874,7 @@
       </c>
       <c r="H14" s="22"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>62</v>
       </c>
@@ -4899,7 +4899,7 @@
       </c>
       <c r="H15" s="22"/>
     </row>
-    <row r="16" spans="1:8" s="17" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
@@ -4953,46 +4953,46 @@
       <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="66.6640625" customWidth="1"/>
-    <col min="9" max="229" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="66.7109375" customWidth="1"/>
+    <col min="9" max="229" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
@@ -5043,7 +5043,7 @@
       </c>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
@@ -5068,7 +5068,7 @@
       </c>
       <c r="H10" s="22"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
@@ -5093,7 +5093,7 @@
       </c>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>59</v>
       </c>
@@ -5118,7 +5118,7 @@
       </c>
       <c r="H12" s="22"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>60</v>
       </c>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="H13" s="22"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
@@ -5168,7 +5168,7 @@
       </c>
       <c r="H14" s="22"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>62</v>
       </c>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="H15" s="22"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
@@ -5218,7 +5218,7 @@
       </c>
       <c r="H16" s="22"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>64</v>
       </c>
@@ -5243,7 +5243,7 @@
       </c>
       <c r="H17" s="22"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>65</v>
       </c>
@@ -5268,7 +5268,7 @@
       </c>
       <c r="H18" s="22"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>66</v>
       </c>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="H19" s="22"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>67</v>
       </c>
@@ -5318,7 +5318,7 @@
       </c>
       <c r="H20" s="22"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>68</v>
       </c>
@@ -5343,7 +5343,7 @@
       </c>
       <c r="H21" s="22"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>69</v>
       </c>
@@ -5367,7 +5367,7 @@
       </c>
       <c r="H22" s="22"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>70</v>
       </c>
@@ -5392,7 +5392,7 @@
       </c>
       <c r="H23" s="22"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
       <c r="B24" s="31"/>
       <c r="C24" s="31"/>
@@ -5431,46 +5431,46 @@
       <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="66.6640625" customWidth="1"/>
-    <col min="9" max="229" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="66.7109375" customWidth="1"/>
+    <col min="9" max="229" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
@@ -5521,7 +5521,7 @@
       </c>
       <c r="H9" s="33"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
@@ -5546,7 +5546,7 @@
       </c>
       <c r="H10" s="33"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
@@ -5571,7 +5571,7 @@
       </c>
       <c r="H11" s="33"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>59</v>
       </c>
@@ -5596,7 +5596,7 @@
       </c>
       <c r="H12" s="33"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>60</v>
       </c>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="H13" s="33"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
@@ -5646,7 +5646,7 @@
       </c>
       <c r="H14" s="33"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>62</v>
       </c>
@@ -5671,7 +5671,7 @@
       </c>
       <c r="H15" s="33"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
@@ -5696,7 +5696,7 @@
       </c>
       <c r="H16" s="33"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>64</v>
       </c>
@@ -5721,7 +5721,7 @@
       </c>
       <c r="H17" s="33"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>65</v>
       </c>
@@ -5746,7 +5746,7 @@
       </c>
       <c r="H18" s="33"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>66</v>
       </c>
@@ -5771,7 +5771,7 @@
       </c>
       <c r="H19" s="33"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>67</v>
       </c>
@@ -5796,7 +5796,7 @@
       </c>
       <c r="H20" s="33"/>
     </row>
-    <row r="21" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>68</v>
       </c>
@@ -5821,7 +5821,7 @@
       </c>
       <c r="H21" s="33"/>
     </row>
-    <row r="22" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>69</v>
       </c>
@@ -5846,7 +5846,7 @@
       </c>
       <c r="H22" s="33"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>70</v>
       </c>
@@ -5883,8 +5883,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5896,48 +5896,48 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" customWidth="1"/>
-    <col min="7" max="7" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="F6" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
@@ -5988,7 +5988,7 @@
       </c>
       <c r="H9" s="33"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
@@ -6013,7 +6013,7 @@
       </c>
       <c r="H10" s="33"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
@@ -6038,7 +6038,7 @@
       </c>
       <c r="H11" s="33"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>59</v>
       </c>
@@ -6063,7 +6063,7 @@
       </c>
       <c r="H12" s="33"/>
     </row>
-    <row r="13" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>60</v>
       </c>
@@ -6088,7 +6088,7 @@
       </c>
       <c r="H13" s="33"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
@@ -6113,7 +6113,7 @@
       </c>
       <c r="H14" s="33"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>62</v>
       </c>
@@ -6138,7 +6138,7 @@
       </c>
       <c r="H15" s="33"/>
     </row>
-    <row r="16" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="H16" s="33"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>64</v>
       </c>
@@ -6188,7 +6188,7 @@
       </c>
       <c r="H17" s="33"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
@@ -6198,10 +6198,10 @@
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
   </sheetData>
@@ -6226,41 +6226,41 @@
       <selection sqref="A1:I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
@@ -6311,7 +6311,7 @@
       </c>
       <c r="H9" s="33"/>
     </row>
-    <row r="10" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
@@ -6336,7 +6336,7 @@
       </c>
       <c r="H10" s="33"/>
     </row>
-    <row r="11" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="H11" s="33"/>
     </row>
-    <row r="12" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>59</v>
       </c>
@@ -6386,7 +6386,7 @@
       </c>
       <c r="H12" s="33"/>
     </row>
-    <row r="13" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>60</v>
       </c>
@@ -6411,7 +6411,7 @@
       </c>
       <c r="H13" s="33"/>
     </row>
-    <row r="14" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
@@ -6436,7 +6436,7 @@
       </c>
       <c r="H14" s="33"/>
     </row>
-    <row r="15" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>62</v>
       </c>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="H15" s="33"/>
     </row>
-    <row r="16" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
@@ -6486,7 +6486,7 @@
       </c>
       <c r="H16" s="33"/>
     </row>
-    <row r="17" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>64</v>
       </c>
@@ -6511,7 +6511,7 @@
       </c>
       <c r="H17" s="33"/>
     </row>
-    <row r="18" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>65</v>
       </c>
@@ -6536,7 +6536,7 @@
       </c>
       <c r="H18" s="33"/>
     </row>
-    <row r="19" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>66</v>
       </c>
@@ -6561,7 +6561,7 @@
       </c>
       <c r="H19" s="33"/>
     </row>
-    <row r="20" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>67</v>
       </c>
@@ -6586,7 +6586,7 @@
       </c>
       <c r="H20" s="33"/>
     </row>
-    <row r="21" spans="1:8" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>68</v>
       </c>
@@ -6611,7 +6611,7 @@
       </c>
       <c r="H21" s="33"/>
     </row>
-    <row r="22" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>69</v>
       </c>
@@ -6636,7 +6636,7 @@
       </c>
       <c r="H22" s="33"/>
     </row>
-    <row r="23" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>70</v>
       </c>
@@ -6661,10 +6661,10 @@
       </c>
       <c r="H23" s="33"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
   </sheetData>
@@ -6689,41 +6689,41 @@
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
@@ -6774,7 +6774,7 @@
       </c>
       <c r="H9" s="33"/>
     </row>
-    <row r="10" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
@@ -6799,7 +6799,7 @@
       </c>
       <c r="H10" s="33"/>
     </row>
-    <row r="11" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
@@ -6824,7 +6824,7 @@
       </c>
       <c r="H11" s="33"/>
     </row>
-    <row r="12" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>59</v>
       </c>
@@ -6849,7 +6849,7 @@
       </c>
       <c r="H12" s="33"/>
     </row>
-    <row r="13" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>60</v>
       </c>
@@ -6874,7 +6874,7 @@
       </c>
       <c r="H13" s="33"/>
     </row>
-    <row r="14" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
@@ -6899,7 +6899,7 @@
       </c>
       <c r="H14" s="33"/>
     </row>
-    <row r="15" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>62</v>
       </c>
@@ -6924,7 +6924,7 @@
       </c>
       <c r="H15" s="33"/>
     </row>
-    <row r="16" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
@@ -6949,7 +6949,7 @@
       </c>
       <c r="H16" s="33"/>
     </row>
-    <row r="17" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>64</v>
       </c>
@@ -6974,7 +6974,7 @@
       </c>
       <c r="H17" s="33"/>
     </row>
-    <row r="18" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>65</v>
       </c>
@@ -6999,7 +6999,7 @@
       </c>
       <c r="H18" s="33"/>
     </row>
-    <row r="19" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>66</v>
       </c>
@@ -7024,7 +7024,7 @@
       </c>
       <c r="H19" s="33"/>
     </row>
-    <row r="20" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>67</v>
       </c>
@@ -7049,7 +7049,7 @@
       </c>
       <c r="H20" s="33"/>
     </row>
-    <row r="21" spans="1:8" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>68</v>
       </c>
@@ -7074,7 +7074,7 @@
       </c>
       <c r="H21" s="33"/>
     </row>
-    <row r="22" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>69</v>
       </c>
@@ -7099,7 +7099,7 @@
       </c>
       <c r="H22" s="33"/>
     </row>
-    <row r="23" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>70</v>
       </c>
@@ -7124,10 +7124,10 @@
       </c>
       <c r="H23" s="33"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
   </sheetData>

--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTU\Ky5\SWP391\Week 8\SWP391\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTU\Sem5\SWP391\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8E8391-9E67-46F3-B4DF-15250DEE4826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="5"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -32,7 +33,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Product!$A$8:$G$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RoC!$A$3:$C$10</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -681,7 +682,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -883,7 +884,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1009,10 +1010,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="16" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 5" xfId="1"/>
+    <cellStyle name="Normal 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2113,7 +2120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -2124,25 +2131,25 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="71.7109375" customWidth="1"/>
-    <col min="5" max="225" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="71.6640625" customWidth="1"/>
+    <col min="5" max="225" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -2156,7 +2163,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <f>ROW()-3</f>
         <v>1</v>
@@ -2165,7 +2172,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <f t="shared" ref="A5:A10" si="0">ROW()-3</f>
         <v>2</v>
@@ -2174,7 +2181,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="12"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2183,7 +2190,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2192,7 +2199,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2201,7 +2208,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2210,7 +2217,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2220,55 +2227,55 @@
       <c r="D10" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C10"/>
+  <autoFilter ref="A3:C10" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
@@ -2294,7 +2301,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
@@ -2319,7 +2326,7 @@
       </c>
       <c r="H9" s="33"/>
     </row>
-    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
@@ -2344,7 +2351,7 @@
       </c>
       <c r="H10" s="33"/>
     </row>
-    <row r="11" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
@@ -2369,7 +2376,7 @@
       </c>
       <c r="H11" s="33"/>
     </row>
-    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>59</v>
       </c>
@@ -2394,7 +2401,7 @@
       </c>
       <c r="H12" s="33"/>
     </row>
-    <row r="13" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>60</v>
       </c>
@@ -2419,7 +2426,7 @@
       </c>
       <c r="H13" s="33"/>
     </row>
-    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
@@ -2444,7 +2451,7 @@
       </c>
       <c r="H14" s="33"/>
     </row>
-    <row r="15" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>62</v>
       </c>
@@ -2469,7 +2476,7 @@
       </c>
       <c r="H15" s="33"/>
     </row>
-    <row r="16" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
@@ -2494,7 +2501,7 @@
       </c>
       <c r="H16" s="33"/>
     </row>
-    <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>64</v>
       </c>
@@ -2519,7 +2526,7 @@
       </c>
       <c r="H17" s="33"/>
     </row>
-    <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>65</v>
       </c>
@@ -2544,7 +2551,7 @@
       </c>
       <c r="H18" s="33"/>
     </row>
-    <row r="19" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>66</v>
       </c>
@@ -2569,7 +2576,7 @@
       </c>
       <c r="H19" s="33"/>
     </row>
-    <row r="20" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>67</v>
       </c>
@@ -2594,7 +2601,7 @@
       </c>
       <c r="H20" s="33"/>
     </row>
-    <row r="21" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>68</v>
       </c>
@@ -2619,7 +2626,7 @@
       </c>
       <c r="H21" s="33"/>
     </row>
-    <row r="22" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>69</v>
       </c>
@@ -2644,7 +2651,7 @@
       </c>
       <c r="H22" s="33"/>
     </row>
-    <row r="23" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>70</v>
       </c>
@@ -2669,18 +2676,18 @@
       </c>
       <c r="H23" s="33"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23" xr:uid="{00000000-0002-0000-0900-000001000000}">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2690,48 +2697,48 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
@@ -2757,7 +2764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
@@ -2782,7 +2789,7 @@
       </c>
       <c r="H9" s="33"/>
     </row>
-    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
@@ -2807,7 +2814,7 @@
       </c>
       <c r="H10" s="33"/>
     </row>
-    <row r="11" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
@@ -2832,7 +2839,7 @@
       </c>
       <c r="H11" s="33"/>
     </row>
-    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>59</v>
       </c>
@@ -2857,7 +2864,7 @@
       </c>
       <c r="H12" s="33"/>
     </row>
-    <row r="13" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>60</v>
       </c>
@@ -2882,7 +2889,7 @@
       </c>
       <c r="H13" s="33"/>
     </row>
-    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
@@ -2907,7 +2914,7 @@
       </c>
       <c r="H14" s="33"/>
     </row>
-    <row r="15" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>62</v>
       </c>
@@ -2932,7 +2939,7 @@
       </c>
       <c r="H15" s="33"/>
     </row>
-    <row r="16" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
@@ -2957,7 +2964,7 @@
       </c>
       <c r="H16" s="33"/>
     </row>
-    <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>64</v>
       </c>
@@ -2982,7 +2989,7 @@
       </c>
       <c r="H17" s="33"/>
     </row>
-    <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>65</v>
       </c>
@@ -3007,7 +3014,7 @@
       </c>
       <c r="H18" s="33"/>
     </row>
-    <row r="19" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>66</v>
       </c>
@@ -3032,7 +3039,7 @@
       </c>
       <c r="H19" s="33"/>
     </row>
-    <row r="20" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>67</v>
       </c>
@@ -3057,7 +3064,7 @@
       </c>
       <c r="H20" s="33"/>
     </row>
-    <row r="21" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>68</v>
       </c>
@@ -3082,7 +3089,7 @@
       </c>
       <c r="H21" s="33"/>
     </row>
-    <row r="22" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>69</v>
       </c>
@@ -3107,7 +3114,7 @@
       </c>
       <c r="H22" s="33"/>
     </row>
-    <row r="23" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>70</v>
       </c>
@@ -3132,18 +3139,18 @@
       </c>
       <c r="H23" s="33"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23" xr:uid="{00000000-0002-0000-0A00-000001000000}">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3153,7 +3160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -3164,47 +3171,47 @@
       <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="113.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="229" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="113.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="229" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
       <c r="D5" s="10" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="44" t="s">
         <v>6</v>
       </c>
@@ -3227,7 +3234,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A9" s="43" t="s">
         <v>56</v>
       </c>
@@ -3251,7 +3258,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" s="43" t="s">
         <v>57</v>
       </c>
@@ -3275,7 +3282,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A11" s="43" t="s">
         <v>58</v>
       </c>
@@ -3299,7 +3306,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A12" s="43" t="s">
         <v>59</v>
       </c>
@@ -3323,7 +3330,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A13" s="43" t="s">
         <v>60</v>
       </c>
@@ -3347,7 +3354,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="43" t="s">
         <v>61</v>
       </c>
@@ -3371,7 +3378,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A15" s="43" t="s">
         <v>62</v>
       </c>
@@ -3395,7 +3402,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="43" t="s">
         <v>63</v>
       </c>
@@ -3419,7 +3426,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
         <v>64</v>
       </c>
@@ -3443,7 +3450,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="43" t="s">
         <v>65</v>
       </c>
@@ -3467,7 +3474,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A19" s="43" t="s">
         <v>66</v>
       </c>
@@ -3491,7 +3498,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A20" s="43" t="s">
         <v>67</v>
       </c>
@@ -3515,7 +3522,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A21" s="43" t="s">
         <v>68</v>
       </c>
@@ -3539,7 +3546,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A22" s="43" t="s">
         <v>69</v>
       </c>
@@ -3563,7 +3570,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A23" s="43" t="s">
         <v>70</v>
       </c>
@@ -3587,7 +3594,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A24" s="43" t="s">
         <v>71</v>
       </c>
@@ -3611,7 +3618,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A25" s="43" t="s">
         <v>72</v>
       </c>
@@ -3635,7 +3642,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.3">
       <c r="A26" s="43" t="s">
         <v>73</v>
       </c>
@@ -3659,7 +3666,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A27" s="43" t="s">
         <v>74</v>
       </c>
@@ -3683,7 +3690,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.3">
       <c r="A28" s="43" t="s">
         <v>75</v>
       </c>
@@ -3707,7 +3714,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A29" s="43" t="s">
         <v>76</v>
       </c>
@@ -3731,7 +3738,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A30" s="43" t="s">
         <v>77</v>
       </c>
@@ -3755,7 +3762,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A31" s="43" t="s">
         <v>78</v>
       </c>
@@ -3779,7 +3786,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A32" s="43" t="s">
         <v>79</v>
       </c>
@@ -3803,7 +3810,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A33" s="43" t="s">
         <v>80</v>
       </c>
@@ -3827,7 +3834,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A34" s="43" t="s">
         <v>81</v>
       </c>
@@ -3851,7 +3858,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A35" s="43" t="s">
         <v>82</v>
       </c>
@@ -3875,7 +3882,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.3">
       <c r="A36" s="43" t="s">
         <v>83</v>
       </c>
@@ -3899,7 +3906,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A37" s="43" t="s">
         <v>84</v>
       </c>
@@ -3923,7 +3930,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A38" s="43" t="s">
         <v>85</v>
       </c>
@@ -3947,7 +3954,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A39" s="43" t="s">
         <v>86</v>
       </c>
@@ -3971,7 +3978,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A40" s="43" t="s">
         <v>87</v>
       </c>
@@ -3995,7 +4002,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="135" x14ac:dyDescent="0.3">
       <c r="A41" s="43" t="s">
         <v>88</v>
       </c>
@@ -4019,7 +4026,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A42" s="43" t="s">
         <v>89</v>
       </c>
@@ -4043,7 +4050,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="165" x14ac:dyDescent="0.3">
       <c r="A43" s="43" t="s">
         <v>90</v>
       </c>
@@ -4067,7 +4074,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A44" s="43" t="s">
         <v>91</v>
       </c>
@@ -4091,7 +4098,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A45" s="43" t="s">
         <v>146</v>
       </c>
@@ -4115,7 +4122,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A46" s="43" t="s">
         <v>147</v>
       </c>
@@ -4139,7 +4146,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A47" s="43" t="s">
         <v>148</v>
       </c>
@@ -4163,7 +4170,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A48" s="43" t="s">
         <v>149</v>
       </c>
@@ -4187,7 +4194,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="43" t="s">
         <v>150</v>
       </c>
@@ -4211,7 +4218,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="43" t="s">
         <v>151</v>
       </c>
@@ -4235,7 +4242,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="43" t="s">
         <v>153</v>
       </c>
@@ -4259,7 +4266,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A52" s="43" t="s">
         <v>166</v>
       </c>
@@ -4283,7 +4290,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A53" s="43" t="s">
         <v>167</v>
       </c>
@@ -4308,14 +4315,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:G44">
-    <sortState ref="A9:G44">
+  <autoFilter ref="A8:G44" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:G44">
       <sortCondition ref="A8:A44"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D44">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D44" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4326,7 +4333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -4334,24 +4341,24 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="17" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" style="17" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" style="17" customWidth="1"/>
-    <col min="230" max="16384" width="11.5703125" style="17"/>
+    <col min="1" max="1" width="4.6640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" style="17" customWidth="1"/>
+    <col min="9" max="229" width="8.6640625" style="17" customWidth="1"/>
+    <col min="230" max="16384" width="11.5546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1"/>
       <c r="C1" s="1"/>
@@ -4361,7 +4368,7 @@
       <c r="G1"/>
       <c r="H1"/>
     </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2"/>
       <c r="C2" s="1"/>
@@ -4371,7 +4378,7 @@
       <c r="G2"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3"/>
       <c r="C3" s="1"/>
@@ -4381,7 +4388,7 @@
       <c r="G3"/>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4"/>
       <c r="C4" s="1"/>
@@ -4391,7 +4398,7 @@
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -4403,7 +4410,7 @@
       <c r="G5"/>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -4415,7 +4422,7 @@
       <c r="G6"/>
       <c r="H6"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7"/>
       <c r="C7" s="1"/>
@@ -4425,7 +4432,7 @@
       <c r="G7"/>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
@@ -4451,7 +4458,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
@@ -4478,7 +4485,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
@@ -4503,7 +4510,7 @@
       </c>
       <c r="H10" s="22"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
@@ -4528,7 +4535,7 @@
       </c>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>59</v>
       </c>
@@ -4553,7 +4560,7 @@
       </c>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>60</v>
       </c>
@@ -4578,7 +4585,7 @@
       </c>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
@@ -4588,22 +4595,22 @@
       <c r="C14" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="23">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F14" s="22" t="s">
+      <c r="D14" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="47">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F14" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H14" s="25"/>
-    </row>
-    <row r="15" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="H14" s="48"/>
+    </row>
+    <row r="15" spans="1:8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>62</v>
       </c>
@@ -4631,13 +4638,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F15"/>
+  <autoFilter ref="A8:F15" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G15" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4648,7 +4655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -4656,49 +4663,49 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" customWidth="1"/>
+    <col min="9" max="229" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
@@ -4724,7 +4731,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
@@ -4749,7 +4756,7 @@
       </c>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
@@ -4774,7 +4781,7 @@
       </c>
       <c r="H10" s="22"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
@@ -4799,7 +4806,7 @@
       </c>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>59</v>
       </c>
@@ -4824,7 +4831,7 @@
       </c>
       <c r="H12" s="22"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>60</v>
       </c>
@@ -4849,7 +4856,7 @@
       </c>
       <c r="H13" s="22"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
@@ -4874,7 +4881,7 @@
       </c>
       <c r="H14" s="22"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>62</v>
       </c>
@@ -4899,7 +4906,7 @@
       </c>
       <c r="H15" s="22"/>
     </row>
-    <row r="16" spans="1:8" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="17" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
@@ -4925,13 +4932,13 @@
       <c r="H16" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F14"/>
+  <autoFilter ref="A8:F14" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G16" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D16">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D16" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4942,7 +4949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -4950,49 +4957,49 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" customWidth="1"/>
+    <col min="9" max="229" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
@@ -5018,7 +5025,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
@@ -5043,7 +5050,7 @@
       </c>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
@@ -5068,7 +5075,7 @@
       </c>
       <c r="H10" s="22"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
@@ -5093,7 +5100,7 @@
       </c>
       <c r="H11" s="22"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>59</v>
       </c>
@@ -5118,7 +5125,7 @@
       </c>
       <c r="H12" s="22"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>60</v>
       </c>
@@ -5143,7 +5150,7 @@
       </c>
       <c r="H13" s="22"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
@@ -5151,7 +5158,7 @@
         <v>44</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>1</v>
@@ -5168,7 +5175,7 @@
       </c>
       <c r="H14" s="22"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>62</v>
       </c>
@@ -5193,7 +5200,7 @@
       </c>
       <c r="H15" s="22"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
@@ -5201,7 +5208,7 @@
         <v>46</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>1</v>
@@ -5218,7 +5225,7 @@
       </c>
       <c r="H16" s="22"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>64</v>
       </c>
@@ -5226,7 +5233,7 @@
         <v>47</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>2</v>
@@ -5243,7 +5250,7 @@
       </c>
       <c r="H17" s="22"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>65</v>
       </c>
@@ -5268,7 +5275,7 @@
       </c>
       <c r="H18" s="22"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>66</v>
       </c>
@@ -5293,7 +5300,7 @@
       </c>
       <c r="H19" s="22"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>67</v>
       </c>
@@ -5318,7 +5325,7 @@
       </c>
       <c r="H20" s="22"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>68</v>
       </c>
@@ -5343,7 +5350,7 @@
       </c>
       <c r="H21" s="22"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>69</v>
       </c>
@@ -5367,7 +5374,7 @@
       </c>
       <c r="H22" s="22"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>70</v>
       </c>
@@ -5392,7 +5399,7 @@
       </c>
       <c r="H23" s="22"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="30"/>
       <c r="B24" s="31"/>
       <c r="C24" s="31"/>
@@ -5403,13 +5410,13 @@
       <c r="H24" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F23"/>
+  <autoFilter ref="A8:F23" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D19">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D19" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5420,7 +5427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -5428,49 +5435,49 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" customWidth="1"/>
+    <col min="9" max="229" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
@@ -5496,7 +5503,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
@@ -5521,7 +5528,7 @@
       </c>
       <c r="H9" s="33"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
@@ -5546,7 +5553,7 @@
       </c>
       <c r="H10" s="33"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
@@ -5571,7 +5578,7 @@
       </c>
       <c r="H11" s="33"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>59</v>
       </c>
@@ -5596,7 +5603,7 @@
       </c>
       <c r="H12" s="33"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>60</v>
       </c>
@@ -5621,7 +5628,7 @@
       </c>
       <c r="H13" s="33"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
@@ -5646,7 +5653,7 @@
       </c>
       <c r="H14" s="33"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>62</v>
       </c>
@@ -5671,7 +5678,7 @@
       </c>
       <c r="H15" s="33"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
@@ -5696,7 +5703,7 @@
       </c>
       <c r="H16" s="33"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>64</v>
       </c>
@@ -5721,7 +5728,7 @@
       </c>
       <c r="H17" s="33"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>65</v>
       </c>
@@ -5746,7 +5753,7 @@
       </c>
       <c r="H18" s="33"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>66</v>
       </c>
@@ -5771,7 +5778,7 @@
       </c>
       <c r="H19" s="33"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>67</v>
       </c>
@@ -5796,7 +5803,7 @@
       </c>
       <c r="H20" s="33"/>
     </row>
-    <row r="21" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>68</v>
       </c>
@@ -5821,7 +5828,7 @@
       </c>
       <c r="H21" s="33"/>
     </row>
-    <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>69</v>
       </c>
@@ -5846,7 +5853,7 @@
       </c>
       <c r="H22" s="33"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>70</v>
       </c>
@@ -5872,13 +5879,13 @@
       <c r="H23" s="33"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F23"/>
+  <autoFilter ref="A8:F23" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5889,55 +5896,55 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="F6" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
@@ -5963,7 +5970,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
@@ -5988,7 +5995,7 @@
       </c>
       <c r="H9" s="33"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
@@ -6013,7 +6020,7 @@
       </c>
       <c r="H10" s="33"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
@@ -6038,7 +6045,7 @@
       </c>
       <c r="H11" s="33"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>59</v>
       </c>
@@ -6063,7 +6070,7 @@
       </c>
       <c r="H12" s="33"/>
     </row>
-    <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>60</v>
       </c>
@@ -6088,7 +6095,7 @@
       </c>
       <c r="H13" s="33"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
@@ -6113,7 +6120,7 @@
       </c>
       <c r="H14" s="33"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>62</v>
       </c>
@@ -6138,7 +6145,7 @@
       </c>
       <c r="H15" s="33"/>
     </row>
-    <row r="16" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
@@ -6163,7 +6170,7 @@
       </c>
       <c r="H16" s="33"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>64</v>
       </c>
@@ -6188,7 +6195,7 @@
       </c>
       <c r="H17" s="33"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
@@ -6198,18 +6205,18 @@
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G17" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6219,48 +6226,48 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
@@ -6286,7 +6293,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
@@ -6311,7 +6318,7 @@
       </c>
       <c r="H9" s="33"/>
     </row>
-    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
@@ -6336,7 +6343,7 @@
       </c>
       <c r="H10" s="33"/>
     </row>
-    <row r="11" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
@@ -6361,7 +6368,7 @@
       </c>
       <c r="H11" s="33"/>
     </row>
-    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>59</v>
       </c>
@@ -6386,7 +6393,7 @@
       </c>
       <c r="H12" s="33"/>
     </row>
-    <row r="13" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>60</v>
       </c>
@@ -6411,7 +6418,7 @@
       </c>
       <c r="H13" s="33"/>
     </row>
-    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
@@ -6436,7 +6443,7 @@
       </c>
       <c r="H14" s="33"/>
     </row>
-    <row r="15" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>62</v>
       </c>
@@ -6461,7 +6468,7 @@
       </c>
       <c r="H15" s="33"/>
     </row>
-    <row r="16" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
@@ -6486,7 +6493,7 @@
       </c>
       <c r="H16" s="33"/>
     </row>
-    <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>64</v>
       </c>
@@ -6511,7 +6518,7 @@
       </c>
       <c r="H17" s="33"/>
     </row>
-    <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>65</v>
       </c>
@@ -6536,7 +6543,7 @@
       </c>
       <c r="H18" s="33"/>
     </row>
-    <row r="19" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>66</v>
       </c>
@@ -6561,7 +6568,7 @@
       </c>
       <c r="H19" s="33"/>
     </row>
-    <row r="20" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>67</v>
       </c>
@@ -6586,7 +6593,7 @@
       </c>
       <c r="H20" s="33"/>
     </row>
-    <row r="21" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>68</v>
       </c>
@@ -6611,7 +6618,7 @@
       </c>
       <c r="H21" s="33"/>
     </row>
-    <row r="22" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>69</v>
       </c>
@@ -6636,7 +6643,7 @@
       </c>
       <c r="H22" s="33"/>
     </row>
-    <row r="23" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>70</v>
       </c>
@@ -6661,18 +6668,18 @@
       </c>
       <c r="H23" s="33"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6682,48 +6689,48 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
@@ -6749,7 +6756,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>56</v>
       </c>
@@ -6774,7 +6781,7 @@
       </c>
       <c r="H9" s="33"/>
     </row>
-    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>57</v>
       </c>
@@ -6799,7 +6806,7 @@
       </c>
       <c r="H10" s="33"/>
     </row>
-    <row r="11" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>58</v>
       </c>
@@ -6824,7 +6831,7 @@
       </c>
       <c r="H11" s="33"/>
     </row>
-    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>59</v>
       </c>
@@ -6849,7 +6856,7 @@
       </c>
       <c r="H12" s="33"/>
     </row>
-    <row r="13" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>60</v>
       </c>
@@ -6874,7 +6881,7 @@
       </c>
       <c r="H13" s="33"/>
     </row>
-    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>61</v>
       </c>
@@ -6899,7 +6906,7 @@
       </c>
       <c r="H14" s="33"/>
     </row>
-    <row r="15" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>62</v>
       </c>
@@ -6924,7 +6931,7 @@
       </c>
       <c r="H15" s="33"/>
     </row>
-    <row r="16" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
@@ -6949,7 +6956,7 @@
       </c>
       <c r="H16" s="33"/>
     </row>
-    <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>64</v>
       </c>
@@ -6974,7 +6981,7 @@
       </c>
       <c r="H17" s="33"/>
     </row>
-    <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>65</v>
       </c>
@@ -6999,7 +7006,7 @@
       </c>
       <c r="H18" s="33"/>
     </row>
-    <row r="19" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>66</v>
       </c>
@@ -7024,7 +7031,7 @@
       </c>
       <c r="H19" s="33"/>
     </row>
-    <row r="20" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>67</v>
       </c>
@@ -7049,7 +7056,7 @@
       </c>
       <c r="H20" s="33"/>
     </row>
-    <row r="21" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>68</v>
       </c>
@@ -7074,7 +7081,7 @@
       </c>
       <c r="H21" s="33"/>
     </row>
-    <row r="22" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>69</v>
       </c>
@@ -7099,7 +7106,7 @@
       </c>
       <c r="H22" s="33"/>
     </row>
-    <row r="23" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>70</v>
       </c>
@@ -7124,18 +7131,18 @@
       </c>
       <c r="H23" s="33"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W8.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTU\Ky5\SWP391\Week 8\SWP391\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\SWP391\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="5"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -630,9 +630,6 @@
     <t>Suppliers Details</t>
   </si>
   <si>
-    <t>Suppliers Details 2</t>
-  </si>
-  <si>
     <t>Products Color</t>
   </si>
   <si>
@@ -676,6 +673,9 @@
   </si>
   <si>
     <t>TASKS OF MEMBER</t>
+  </si>
+  <si>
+    <t>Shipper List</t>
   </si>
 </sst>
 </file>
@@ -2315,7 +2315,7 @@
         <v>140</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H9" s="33"/>
     </row>
@@ -2340,7 +2340,7 @@
         <v>140</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H10" s="33"/>
     </row>
@@ -2365,7 +2365,7 @@
         <v>140</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H11" s="33"/>
     </row>
@@ -2390,7 +2390,7 @@
         <v>134</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H12" s="33"/>
     </row>
@@ -2415,7 +2415,7 @@
         <v>134</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H13" s="33"/>
     </row>
@@ -2440,7 +2440,7 @@
         <v>136</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H14" s="33"/>
     </row>
@@ -2465,7 +2465,7 @@
         <v>136</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H15" s="33"/>
     </row>
@@ -2490,7 +2490,7 @@
         <v>136</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H16" s="33"/>
     </row>
@@ -2549,7 +2549,7 @@
         <v>66</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C19" s="28" t="s">
         <v>11</v>
@@ -2574,7 +2574,7 @@
         <v>67</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C20" s="28" t="s">
         <v>93</v>
@@ -2599,7 +2599,7 @@
         <v>68</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C21" s="28" t="s">
         <v>93</v>
@@ -2615,7 +2615,7 @@
         <v>137</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H21" s="33"/>
     </row>
@@ -2778,7 +2778,7 @@
         <v>140</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H9" s="33"/>
     </row>
@@ -2803,7 +2803,7 @@
         <v>140</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H10" s="33"/>
     </row>
@@ -2828,7 +2828,7 @@
         <v>140</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H11" s="33"/>
     </row>
@@ -2853,7 +2853,7 @@
         <v>134</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H12" s="33"/>
     </row>
@@ -2878,7 +2878,7 @@
         <v>134</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H13" s="33"/>
     </row>
@@ -2903,7 +2903,7 @@
         <v>136</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H14" s="33"/>
     </row>
@@ -2928,7 +2928,7 @@
         <v>136</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H15" s="33"/>
     </row>
@@ -2953,7 +2953,7 @@
         <v>136</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H16" s="33"/>
     </row>
@@ -3012,7 +3012,7 @@
         <v>66</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C19" s="28" t="s">
         <v>11</v>
@@ -3037,7 +3037,7 @@
         <v>67</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C20" s="28" t="s">
         <v>93</v>
@@ -3062,7 +3062,7 @@
         <v>68</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C21" s="28" t="s">
         <v>93</v>
@@ -3078,7 +3078,7 @@
         <v>137</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H21" s="33"/>
     </row>
@@ -3328,7 +3328,7 @@
         <v>60</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C13" s="39" t="s">
         <v>11</v>
@@ -3341,7 +3341,7 @@
         <v>120</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G13" s="38" t="s">
         <v>129</v>
@@ -3352,7 +3352,7 @@
         <v>61</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="39" t="s">
         <v>11</v>
@@ -3365,7 +3365,7 @@
         <v>120</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G14" s="38" t="s">
         <v>129</v>
@@ -4583,7 +4583,7 @@
         <v>61</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>92</v>
@@ -4792,7 +4792,7 @@
         <v>60</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>133</v>
@@ -4804,7 +4804,7 @@
         <v>59</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>11</v>
@@ -4829,7 +4829,7 @@
         <v>60</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>11</v>
@@ -4904,7 +4904,7 @@
         <v>63</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>11</v>
@@ -4948,9 +4948,9 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5073,7 +5073,7 @@
         <v>58</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>93</v>
@@ -5248,7 +5248,7 @@
         <v>65</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>11</v>
@@ -5363,7 +5363,7 @@
         <v>140</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="H22" s="22"/>
     </row>
@@ -5372,7 +5372,7 @@
         <v>70</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="C23" s="28" t="s">
         <v>92</v>
@@ -5426,9 +5426,9 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5542,7 +5542,7 @@
         <v>140</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H10" s="33"/>
     </row>
@@ -5567,7 +5567,7 @@
         <v>140</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H11" s="33"/>
     </row>
@@ -5592,7 +5592,7 @@
         <v>134</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H12" s="33"/>
     </row>
@@ -5617,7 +5617,7 @@
         <v>134</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H13" s="33"/>
     </row>
@@ -5667,7 +5667,7 @@
         <v>136</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H15" s="33"/>
     </row>
@@ -5692,7 +5692,7 @@
         <v>136</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H16" s="33"/>
     </row>
@@ -5751,7 +5751,7 @@
         <v>66</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C19" s="28" t="s">
         <v>11</v>
@@ -5776,7 +5776,7 @@
         <v>67</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C20" s="28" t="s">
         <v>93</v>
@@ -5801,7 +5801,7 @@
         <v>68</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C21" s="28" t="s">
         <v>93</v>
@@ -5817,7 +5817,7 @@
         <v>137</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H21" s="33"/>
     </row>
@@ -5930,7 +5930,7 @@
     <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="F6" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -5954,7 +5954,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>28</v>
@@ -6068,7 +6068,7 @@
         <v>60</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>11</v>
@@ -6118,7 +6118,7 @@
         <v>62</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>94</v>
@@ -6307,7 +6307,7 @@
         <v>140</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H9" s="33"/>
     </row>
@@ -6332,7 +6332,7 @@
         <v>140</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H10" s="33"/>
     </row>
@@ -6357,7 +6357,7 @@
         <v>140</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H11" s="33"/>
     </row>
@@ -6382,7 +6382,7 @@
         <v>134</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H12" s="33"/>
     </row>
@@ -6407,7 +6407,7 @@
         <v>134</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H13" s="33"/>
     </row>
@@ -6432,7 +6432,7 @@
         <v>136</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H14" s="33"/>
     </row>
@@ -6457,7 +6457,7 @@
         <v>136</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H15" s="33"/>
     </row>
@@ -6482,7 +6482,7 @@
         <v>136</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H16" s="33"/>
     </row>
@@ -6541,7 +6541,7 @@
         <v>66</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C19" s="28" t="s">
         <v>11</v>
@@ -6566,7 +6566,7 @@
         <v>67</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C20" s="28" t="s">
         <v>93</v>
@@ -6591,7 +6591,7 @@
         <v>68</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C21" s="28" t="s">
         <v>93</v>
@@ -6607,7 +6607,7 @@
         <v>137</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H21" s="33"/>
     </row>
@@ -6770,7 +6770,7 @@
         <v>140</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H9" s="33"/>
     </row>
@@ -6795,7 +6795,7 @@
         <v>140</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H10" s="33"/>
     </row>
@@ -6820,7 +6820,7 @@
         <v>140</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H11" s="33"/>
     </row>
@@ -6845,7 +6845,7 @@
         <v>134</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H12" s="33"/>
     </row>
@@ -6870,7 +6870,7 @@
         <v>134</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H13" s="33"/>
     </row>
@@ -6895,7 +6895,7 @@
         <v>136</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H14" s="33"/>
     </row>
@@ -6920,7 +6920,7 @@
         <v>136</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H15" s="33"/>
     </row>
@@ -6945,7 +6945,7 @@
         <v>136</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H16" s="33"/>
     </row>
@@ -7004,7 +7004,7 @@
         <v>66</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C19" s="28" t="s">
         <v>11</v>
@@ -7029,7 +7029,7 @@
         <v>67</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C20" s="28" t="s">
         <v>93</v>
@@ -7054,7 +7054,7 @@
         <v>68</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C21" s="28" t="s">
         <v>93</v>
@@ -7070,7 +7070,7 @@
         <v>137</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H21" s="33"/>
     </row>
